--- a/database/MIT_database.xlsx
+++ b/database/MIT_database.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="FEA" sheetId="1" r:id="rId1"/>
-    <sheet name="History" sheetId="2" r:id="rId2"/>
+    <sheet name="History__" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="128">
   <si>
     <t>RunID</t>
   </si>
@@ -74,34 +74,196 @@
     <t>Belt displacement TS</t>
   </si>
   <si>
+    <t>Lap bracket force</t>
+  </si>
+  <si>
+    <t>HA torque</t>
+  </si>
+  <si>
+    <t>Backrest x displ</t>
+  </si>
+  <si>
+    <t>PELVIS DX</t>
+  </si>
+  <si>
+    <t>PELVIS DZ</t>
+  </si>
+  <si>
+    <t>Tilt Axial Force</t>
+  </si>
+  <si>
+    <t>Tilt Shear Force</t>
+  </si>
+  <si>
+    <t>Track sliding DS</t>
+  </si>
+  <si>
+    <t>Track sliding TS</t>
+  </si>
+  <si>
+    <t>Pinion torque</t>
+  </si>
+  <si>
+    <t>Res_F C_ROLLER_1-C_CAM</t>
+  </si>
+  <si>
+    <t>Res_F C_ROLLER_2-C_CAM</t>
+  </si>
+  <si>
+    <t>Res_F C_ROLLER_3-C_CAM</t>
+  </si>
+  <si>
+    <t>Res_F C_ROLLER_4-C_CAM</t>
+  </si>
+  <si>
+    <t>Res_F C_ROLLER_5-C_CAM</t>
+  </si>
+  <si>
+    <t>Res_F C_ROLLER_6-C_CAM</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_10-PINION</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_9-PINION</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_8-PINION</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_7-PINION</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_6-PINION</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_5-PINION</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_4-PINION</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_3-PINION</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_2-PINION</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_1-PINION</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_6-L_RING</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_5-L_RING</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_4-L_RING</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_3-L_RING</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_2-L_RING</t>
+  </si>
+  <si>
+    <t>Res_F L_ROLLER_1-L_RING</t>
+  </si>
+  <si>
+    <t>Res_F Pinion-Collar-1</t>
+  </si>
+  <si>
+    <t>Res_F Pinion-Collar-2</t>
+  </si>
+  <si>
+    <t>Torque MX on pinions section</t>
+  </si>
+  <si>
+    <t>Res Force C_ROLLER_1-C_CAM</t>
+  </si>
+  <si>
+    <t>Res Force C_ROLLER_2-C_CAM</t>
+  </si>
+  <si>
+    <t>Res Force C_ROLLER_3-C_CAM</t>
+  </si>
+  <si>
+    <t>Res Force C_ROLLER_4-C_CAM</t>
+  </si>
+  <si>
+    <t>Res Force C_ROLLER_5-C_CAM</t>
+  </si>
+  <si>
+    <t>Res Force C_ROLLER_6-C_CAM</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_10-PINION</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_9-PINION</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_8-PINION</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_7-PINION</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_6-PINION</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_5-PINION</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_4-PINION</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_3-PINION</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_2-PINION</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_1-PINION</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_6-L_RING</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_5-L_RING</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_4-L_RING</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_3-L_RING</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_2-L_RING</t>
+  </si>
+  <si>
+    <t>Res Force L_ROLLER_1-L_RING</t>
+  </si>
+  <si>
+    <t>Res Force Pinion-Collar-1</t>
+  </si>
+  <si>
+    <t>Res Force Pinion-Collar-2</t>
+  </si>
+  <si>
     <t>Rear bracket force DS</t>
   </si>
   <si>
-    <t>Lap bracket force</t>
-  </si>
-  <si>
-    <t>HA torque</t>
-  </si>
-  <si>
-    <t>Backrest x displ</t>
-  </si>
-  <si>
-    <t>PELVIS DX</t>
-  </si>
-  <si>
-    <t>PELVIS DZ</t>
-  </si>
-  <si>
-    <t>Tilt Axial Force</t>
-  </si>
-  <si>
-    <t>Tilt Shear Force</t>
-  </si>
-  <si>
-    <t>Track sliding DS</t>
-  </si>
-  <si>
-    <t>Track sliding TS</t>
+    <t>GR1912450</t>
+  </si>
+  <si>
+    <t>GR2013229</t>
+  </si>
+  <si>
+    <t>GR201398</t>
+  </si>
+  <si>
+    <t>GR206436</t>
   </si>
   <si>
     <t>GR206929</t>
@@ -113,54 +275,102 @@
     <t>GR207090</t>
   </si>
   <si>
+    <t>PSA</t>
+  </si>
+  <si>
     <t>VOLVO</t>
   </si>
   <si>
+    <t xml:space="preserve"> P2D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C4</t>
+  </si>
+  <si>
     <t xml:space="preserve"> SPA2-F</t>
   </si>
   <si>
+    <t>4WM</t>
+  </si>
+  <si>
+    <t>10WP</t>
+  </si>
+  <si>
     <t>8WP</t>
   </si>
   <si>
     <t>8WPP</t>
   </si>
   <si>
+    <t>Luggage crash</t>
+  </si>
+  <si>
     <t>Front Crash</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve"> D95</t>
   </si>
   <si>
     <t xml:space="preserve"> D50</t>
   </si>
   <si>
+    <t>DFNuC-F</t>
+  </si>
+  <si>
+    <t>DFNuC</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
     <t>K04-0</t>
   </si>
   <si>
+    <t>Tracks:rear most - 1 notch</t>
+  </si>
+  <si>
+    <t>Tracks:middle</t>
+  </si>
+  <si>
     <t>Tracks:rear most</t>
   </si>
   <si>
-    <t>Tracks:middle</t>
-  </si>
-  <si>
     <t xml:space="preserve"> HA:lower most</t>
   </si>
   <si>
     <t xml:space="preserve"> HA:middle</t>
   </si>
   <si>
+    <t xml:space="preserve"> Luggage-010</t>
+  </si>
+  <si>
     <t xml:space="preserve"> EuroNCAP40mph</t>
   </si>
   <si>
+    <t>OK Limit</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>NOK</t>
   </si>
   <si>
-    <t>OK Limit</t>
+    <t>None</t>
   </si>
   <si>
     <t>NOK Limit</t>
   </si>
   <si>
+    <t>LUG_ Rm-1nDm</t>
+  </si>
+  <si>
+    <t>FC95 MpDm</t>
+  </si>
+  <si>
     <t>FC95 RmDm</t>
   </si>
   <si>
@@ -179,7 +389,16 @@
     <t>07-01-2021 13:58:58</t>
   </si>
   <si>
+    <t>07-01-2021 14:54:07</t>
+  </si>
+  <si>
+    <t>07-01-2021 14:55:50</t>
+  </si>
+  <si>
     <t>GR206929,GR207006,GR207090</t>
+  </si>
+  <si>
+    <t>GR1912450,GR2013229,GR201398,GR206436</t>
   </si>
 </sst>
 </file>
@@ -227,9 +446,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FEA" displayName="FEA" ref="A1:AC4" totalsRowShown="0">
-  <autoFilter ref="A1:AC4"/>
-  <tableColumns count="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FEA" displayName="FEA" ref="A1:CA8" totalsRowShown="0">
+  <autoFilter ref="A1:CA8"/>
+  <tableColumns count="79">
     <tableColumn id="1" name="RunID"/>
     <tableColumn id="2" name="OEM"/>
     <tableColumn id="3" name="project_name"/>
@@ -249,24 +468,74 @@
     <tableColumn id="17" name="Recliner torque TS"/>
     <tableColumn id="18" name="Belt displacement DS"/>
     <tableColumn id="19" name="Belt displacement TS"/>
-    <tableColumn id="20" name="Rear bracket force DS"/>
-    <tableColumn id="21" name="Lap bracket force"/>
-    <tableColumn id="22" name="HA torque"/>
-    <tableColumn id="23" name="Backrest x displ"/>
-    <tableColumn id="24" name="PELVIS DX"/>
-    <tableColumn id="25" name="PELVIS DZ"/>
-    <tableColumn id="26" name="Tilt Axial Force"/>
-    <tableColumn id="27" name="Tilt Shear Force"/>
-    <tableColumn id="28" name="Track sliding DS"/>
-    <tableColumn id="29" name="Track sliding TS"/>
+    <tableColumn id="20" name="Lap bracket force"/>
+    <tableColumn id="21" name="HA torque"/>
+    <tableColumn id="22" name="Backrest x displ"/>
+    <tableColumn id="23" name="PELVIS DX"/>
+    <tableColumn id="24" name="PELVIS DZ"/>
+    <tableColumn id="25" name="Tilt Axial Force"/>
+    <tableColumn id="26" name="Tilt Shear Force"/>
+    <tableColumn id="27" name="Track sliding DS"/>
+    <tableColumn id="28" name="Track sliding TS"/>
+    <tableColumn id="29" name="Pinion torque"/>
+    <tableColumn id="30" name="Res_F C_ROLLER_1-C_CAM"/>
+    <tableColumn id="31" name="Res_F C_ROLLER_2-C_CAM"/>
+    <tableColumn id="32" name="Res_F C_ROLLER_3-C_CAM"/>
+    <tableColumn id="33" name="Res_F C_ROLLER_4-C_CAM"/>
+    <tableColumn id="34" name="Res_F C_ROLLER_5-C_CAM"/>
+    <tableColumn id="35" name="Res_F C_ROLLER_6-C_CAM"/>
+    <tableColumn id="36" name="Res_F L_ROLLER_10-PINION"/>
+    <tableColumn id="37" name="Res_F L_ROLLER_9-PINION"/>
+    <tableColumn id="38" name="Res_F L_ROLLER_8-PINION"/>
+    <tableColumn id="39" name="Res_F L_ROLLER_7-PINION"/>
+    <tableColumn id="40" name="Res_F L_ROLLER_6-PINION"/>
+    <tableColumn id="41" name="Res_F L_ROLLER_5-PINION"/>
+    <tableColumn id="42" name="Res_F L_ROLLER_4-PINION"/>
+    <tableColumn id="43" name="Res_F L_ROLLER_3-PINION"/>
+    <tableColumn id="44" name="Res_F L_ROLLER_2-PINION"/>
+    <tableColumn id="45" name="Res_F L_ROLLER_1-PINION"/>
+    <tableColumn id="46" name="Res_F L_ROLLER_6-L_RING"/>
+    <tableColumn id="47" name="Res_F L_ROLLER_5-L_RING"/>
+    <tableColumn id="48" name="Res_F L_ROLLER_4-L_RING"/>
+    <tableColumn id="49" name="Res_F L_ROLLER_3-L_RING"/>
+    <tableColumn id="50" name="Res_F L_ROLLER_2-L_RING"/>
+    <tableColumn id="51" name="Res_F L_ROLLER_1-L_RING"/>
+    <tableColumn id="52" name="Res_F Pinion-Collar-1"/>
+    <tableColumn id="53" name="Res_F Pinion-Collar-2"/>
+    <tableColumn id="54" name="Torque MX on pinions section"/>
+    <tableColumn id="55" name="Res Force C_ROLLER_1-C_CAM"/>
+    <tableColumn id="56" name="Res Force C_ROLLER_2-C_CAM"/>
+    <tableColumn id="57" name="Res Force C_ROLLER_3-C_CAM"/>
+    <tableColumn id="58" name="Res Force C_ROLLER_4-C_CAM"/>
+    <tableColumn id="59" name="Res Force C_ROLLER_5-C_CAM"/>
+    <tableColumn id="60" name="Res Force C_ROLLER_6-C_CAM"/>
+    <tableColumn id="61" name="Res Force L_ROLLER_10-PINION"/>
+    <tableColumn id="62" name="Res Force L_ROLLER_9-PINION"/>
+    <tableColumn id="63" name="Res Force L_ROLLER_8-PINION"/>
+    <tableColumn id="64" name="Res Force L_ROLLER_7-PINION"/>
+    <tableColumn id="65" name="Res Force L_ROLLER_6-PINION"/>
+    <tableColumn id="66" name="Res Force L_ROLLER_5-PINION"/>
+    <tableColumn id="67" name="Res Force L_ROLLER_4-PINION"/>
+    <tableColumn id="68" name="Res Force L_ROLLER_3-PINION"/>
+    <tableColumn id="69" name="Res Force L_ROLLER_2-PINION"/>
+    <tableColumn id="70" name="Res Force L_ROLLER_1-PINION"/>
+    <tableColumn id="71" name="Res Force L_ROLLER_6-L_RING"/>
+    <tableColumn id="72" name="Res Force L_ROLLER_5-L_RING"/>
+    <tableColumn id="73" name="Res Force L_ROLLER_4-L_RING"/>
+    <tableColumn id="74" name="Res Force L_ROLLER_3-L_RING"/>
+    <tableColumn id="75" name="Res Force L_ROLLER_2-L_RING"/>
+    <tableColumn id="76" name="Res Force L_ROLLER_1-L_RING"/>
+    <tableColumn id="77" name="Res Force Pinion-Collar-1"/>
+    <tableColumn id="78" name="Res Force Pinion-Collar-2"/>
+    <tableColumn id="79" name="Rear bracket force DS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="History" displayName="History" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="History__" displayName="History__" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="time"/>
     <tableColumn id="2" name="runID"/>
@@ -560,13 +829,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:CA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:79">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -654,259 +923,813 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:79">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2">
+        <v>116</v>
+      </c>
+      <c r="AC2">
+        <v>63.7</v>
+      </c>
+      <c r="AD2">
+        <v>0.101</v>
+      </c>
+      <c r="AE2">
+        <v>0.076</v>
+      </c>
+      <c r="AF2">
+        <v>0.068</v>
+      </c>
+      <c r="AG2">
+        <v>0.124</v>
+      </c>
+      <c r="AH2">
+        <v>0.056</v>
+      </c>
+      <c r="AI2">
+        <v>0.081</v>
+      </c>
+      <c r="AT2">
+        <v>6.78</v>
+      </c>
+      <c r="AU2">
+        <v>0.468</v>
+      </c>
+      <c r="AV2">
+        <v>6.64</v>
+      </c>
+      <c r="AW2">
+        <v>0.061</v>
+      </c>
+      <c r="AX2">
+        <v>4.12</v>
+      </c>
+      <c r="AY2">
+        <v>0.654</v>
+      </c>
+      <c r="BA2">
+        <v>3.61</v>
+      </c>
+      <c r="BB2">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:79">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC3">
+        <v>81.8</v>
+      </c>
+      <c r="AD3">
+        <v>0.227</v>
+      </c>
+      <c r="AE3">
+        <v>0.186</v>
+      </c>
+      <c r="AF3">
+        <v>0.621</v>
+      </c>
+      <c r="AG3">
+        <v>0.424</v>
+      </c>
+      <c r="AH3">
+        <v>0.194</v>
+      </c>
+      <c r="AI3">
+        <v>0.247</v>
+      </c>
+      <c r="AJ3">
+        <v>5.59</v>
+      </c>
+      <c r="AK3">
+        <v>0.576</v>
+      </c>
+      <c r="AL3">
+        <v>7.13</v>
+      </c>
+      <c r="AM3">
+        <v>0.531</v>
+      </c>
+      <c r="AN3">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AO3">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="AP3">
+        <v>7.76</v>
+      </c>
+      <c r="AQ3">
+        <v>0.569</v>
+      </c>
+      <c r="AR3">
+        <v>5.19</v>
+      </c>
+      <c r="AS3">
+        <v>5.59</v>
+      </c>
+      <c r="AT3">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AU3">
+        <v>0.58</v>
+      </c>
+      <c r="AV3">
+        <v>7.76</v>
+      </c>
+      <c r="AW3">
+        <v>0.573</v>
+      </c>
+      <c r="AY3">
+        <v>0.136</v>
+      </c>
+      <c r="AZ3">
+        <v>1.3</v>
+      </c>
+      <c r="BA3">
+        <v>5.19</v>
+      </c>
+      <c r="BB3">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:79">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4">
+        <v>22.6</v>
+      </c>
+      <c r="O4">
+        <v>24.9</v>
+      </c>
+      <c r="P4">
+        <v>1056.8</v>
+      </c>
+      <c r="Q4">
+        <v>1063.9</v>
+      </c>
+      <c r="R4">
+        <v>56.1</v>
+      </c>
+      <c r="S4">
+        <v>65.2</v>
+      </c>
+      <c r="T4">
+        <v>18.8</v>
+      </c>
+      <c r="U4">
+        <v>279.7</v>
+      </c>
+      <c r="V4">
+        <v>160.4</v>
+      </c>
+      <c r="W4">
+        <v>252.3</v>
+      </c>
+      <c r="X4">
+        <v>17.3</v>
+      </c>
+      <c r="Y4">
+        <v>1.92</v>
+      </c>
+      <c r="Z4">
+        <v>0.649</v>
+      </c>
+      <c r="AA4">
+        <v>11.9</v>
+      </c>
+      <c r="AB4">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:79">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC5">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="AD5">
+        <v>0.161</v>
+      </c>
+      <c r="AE5">
+        <v>0.291</v>
+      </c>
+      <c r="AF5">
+        <v>0.514</v>
+      </c>
+      <c r="AG5">
+        <v>0.47</v>
+      </c>
+      <c r="AH5">
+        <v>0.066</v>
+      </c>
+      <c r="AI5">
+        <v>0.305</v>
+      </c>
+      <c r="AJ5">
+        <v>5.32</v>
+      </c>
+      <c r="AK5">
+        <v>0.656</v>
+      </c>
+      <c r="AL5">
+        <v>6.85</v>
+      </c>
+      <c r="AM5">
+        <v>0.572</v>
+      </c>
+      <c r="AN5">
+        <v>7.85</v>
+      </c>
+      <c r="AO5">
+        <v>0.591</v>
+      </c>
+      <c r="AP5">
+        <v>7.43</v>
+      </c>
+      <c r="AQ5">
+        <v>0.589</v>
+      </c>
+      <c r="AR5">
+        <v>4.76</v>
+      </c>
+      <c r="AS5">
+        <v>5.32</v>
+      </c>
+      <c r="AT5">
+        <v>7.85</v>
+      </c>
+      <c r="AU5">
+        <v>0.608</v>
+      </c>
+      <c r="AV5">
+        <v>7.43</v>
+      </c>
+      <c r="AW5">
+        <v>0.589</v>
+      </c>
+      <c r="AY5">
+        <v>0.173</v>
+      </c>
+      <c r="AZ5">
+        <v>0.173</v>
+      </c>
+      <c r="BA5">
+        <v>4.65</v>
+      </c>
+      <c r="BB5">
+        <v>78.90000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:79">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6">
         <v>17.5</v>
       </c>
-      <c r="O2">
+      <c r="O6">
         <v>22.7</v>
       </c>
-      <c r="P2">
+      <c r="P6">
         <v>1226.8</v>
       </c>
-      <c r="Q2">
+      <c r="Q6">
         <v>1148.5</v>
       </c>
-      <c r="R2">
+      <c r="R6">
         <v>52.1</v>
       </c>
-      <c r="S2">
+      <c r="S6">
         <v>49.3</v>
       </c>
-      <c r="U2">
+      <c r="T6">
         <v>15</v>
       </c>
-      <c r="V2">
+      <c r="U6">
         <v>347.7</v>
       </c>
-      <c r="W2">
+      <c r="V6">
         <v>134.7</v>
       </c>
-      <c r="X2">
+      <c r="W6">
         <v>204.4</v>
       </c>
-      <c r="Y2">
+      <c r="X6">
         <v>14.4</v>
       </c>
-      <c r="Z2">
+      <c r="Y6">
         <v>1.11</v>
       </c>
-      <c r="AA2">
+      <c r="Z6">
         <v>0.586</v>
       </c>
-      <c r="AB2">
+      <c r="AA6">
         <v>10.7</v>
       </c>
-      <c r="AC2">
+      <c r="AB6">
         <v>12.7</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3">
+    <row r="7" spans="1:79">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7">
         <v>16.3</v>
       </c>
-      <c r="O3">
+      <c r="O7">
         <v>17.3</v>
       </c>
-      <c r="P3">
+      <c r="P7">
         <v>1155.5</v>
       </c>
-      <c r="Q3">
+      <c r="Q7">
         <v>1029.7</v>
       </c>
-      <c r="R3">
+      <c r="R7">
         <v>42.6</v>
       </c>
-      <c r="S3">
+      <c r="S7">
         <v>39.3</v>
       </c>
-      <c r="T3">
+      <c r="T7">
+        <v>11.5</v>
+      </c>
+      <c r="U7">
+        <v>305.8</v>
+      </c>
+      <c r="V7">
+        <v>137.3</v>
+      </c>
+      <c r="W7">
+        <v>209.2</v>
+      </c>
+      <c r="X7">
+        <v>26.2</v>
+      </c>
+      <c r="Y7">
+        <v>0.732</v>
+      </c>
+      <c r="Z7">
+        <v>0.387</v>
+      </c>
+      <c r="AA7">
+        <v>9.25</v>
+      </c>
+      <c r="AB7">
+        <v>10.6</v>
+      </c>
+      <c r="CA7">
         <v>1.88</v>
       </c>
-      <c r="U3">
-        <v>11.5</v>
-      </c>
-      <c r="V3">
-        <v>305.8</v>
-      </c>
-      <c r="W3">
-        <v>137.3</v>
-      </c>
-      <c r="X3">
-        <v>209.2</v>
-      </c>
-      <c r="Y3">
-        <v>26.2</v>
-      </c>
-      <c r="Z3">
-        <v>0.732</v>
-      </c>
-      <c r="AA3">
-        <v>0.387</v>
-      </c>
-      <c r="AB3">
-        <v>9.25</v>
-      </c>
-      <c r="AC3">
-        <v>10.6</v>
-      </c>
     </row>
-    <row r="4" spans="1:29">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4">
+    <row r="8" spans="1:79">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8">
         <v>18</v>
       </c>
-      <c r="O4">
+      <c r="O8">
         <v>22.8</v>
       </c>
-      <c r="P4">
+      <c r="P8">
         <v>1006.4</v>
       </c>
-      <c r="Q4">
+      <c r="Q8">
         <v>1011.8</v>
       </c>
-      <c r="R4">
+      <c r="R8">
         <v>65.3</v>
       </c>
-      <c r="S4">
+      <c r="S8">
         <v>63.1</v>
       </c>
-      <c r="U4">
+      <c r="T8">
         <v>14.3</v>
       </c>
-      <c r="V4">
+      <c r="U8">
         <v>332</v>
       </c>
-      <c r="W4">
+      <c r="V8">
         <v>173.6</v>
       </c>
-      <c r="X4">
+      <c r="W8">
         <v>224.4</v>
       </c>
-      <c r="Y4">
+      <c r="X8">
         <v>14.7</v>
       </c>
-      <c r="AB4">
+      <c r="AA8">
         <v>8.720000000000001</v>
       </c>
-      <c r="AC4">
+      <c r="AB8">
         <v>10.6</v>
       </c>
     </row>
@@ -920,7 +1743,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -932,18 +1755,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/database/MIT_database.xlsx
+++ b/database/MIT_database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="170">
   <si>
     <t>RunID</t>
   </si>
@@ -74,6 +74,9 @@
     <t>Belt displacement TS</t>
   </si>
   <si>
+    <t>Rear bracket force DS</t>
+  </si>
+  <si>
     <t>Lap bracket force</t>
   </si>
   <si>
@@ -101,6 +104,18 @@
     <t>Track sliding TS</t>
   </si>
   <si>
+    <t>Backrest dynamic angle DS</t>
+  </si>
+  <si>
+    <t>Backrest dynamic angle TS</t>
+  </si>
+  <si>
+    <t>Backrest static angle DS</t>
+  </si>
+  <si>
+    <t>Backrest static angle TS</t>
+  </si>
+  <si>
     <t>Pinion torque</t>
   </si>
   <si>
@@ -251,7 +266,22 @@
     <t>Res Force Pinion-Collar-2</t>
   </si>
   <si>
-    <t>Rear bracket force DS</t>
+    <t>GR206929</t>
+  </si>
+  <si>
+    <t>GR207006</t>
+  </si>
+  <si>
+    <t>GR207090</t>
+  </si>
+  <si>
+    <t>GR206405</t>
+  </si>
+  <si>
+    <t>GR208962</t>
+  </si>
+  <si>
+    <t>GR208964</t>
   </si>
   <si>
     <t>GR1912450</t>
@@ -266,19 +296,25 @@
     <t>GR206436</t>
   </si>
   <si>
-    <t>GR206929</t>
-  </si>
-  <si>
-    <t>GR207006</t>
-  </si>
-  <si>
-    <t>GR207090</t>
+    <t>VOLVO</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>NIS</t>
   </si>
   <si>
     <t>PSA</t>
   </si>
   <si>
-    <t>VOLVO</t>
+    <t xml:space="preserve"> SPA2-F</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L233</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P33B</t>
   </si>
   <si>
     <t xml:space="preserve"> P2D3</t>
@@ -287,7 +323,13 @@
     <t xml:space="preserve"> C4</t>
   </si>
   <si>
-    <t xml:space="preserve"> SPA2-F</t>
+    <t>8WP</t>
+  </si>
+  <si>
+    <t>8WPP</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
   <si>
     <t>4WM</t>
@@ -296,25 +338,34 @@
     <t>10WP</t>
   </si>
   <si>
-    <t>8WP</t>
-  </si>
-  <si>
-    <t>8WPP</t>
+    <t>Front Crash</t>
+  </si>
+  <si>
+    <t>Mechanisms SubSys</t>
+  </si>
+  <si>
+    <t>Rear Crash</t>
   </si>
   <si>
     <t>Luggage crash</t>
   </si>
   <si>
-    <t>Front Crash</t>
+    <t xml:space="preserve"> D95</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D50</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> D95</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D50</t>
+    <t>K04-0</t>
+  </si>
+  <si>
+    <t>RC70</t>
+  </si>
+  <si>
+    <t>PV-phase-N</t>
   </si>
   <si>
     <t>DFNuC-F</t>
@@ -326,28 +377,40 @@
     <t>F05</t>
   </si>
   <si>
-    <t>K04-0</t>
+    <t>Tracks:rear most</t>
+  </si>
+  <si>
+    <t>Tracks:middle</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
   <si>
     <t>Tracks:rear most - 1 notch</t>
   </si>
   <si>
-    <t>Tracks:middle</t>
-  </si>
-  <si>
-    <t>Tracks:rear most</t>
-  </si>
-  <si>
     <t xml:space="preserve"> HA:lower most</t>
   </si>
   <si>
     <t xml:space="preserve"> HA:middle</t>
   </si>
   <si>
+    <t xml:space="preserve"> HA:no_adjm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EuroNCAP40mph</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FW56-Sinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SPA2-RD8</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Luggage-010</t>
   </si>
   <si>
-    <t xml:space="preserve"> EuroNCAP40mph</t>
+    <t>NOK</t>
   </si>
   <si>
     <t>OK Limit</t>
@@ -356,13 +419,28 @@
     <t>OK</t>
   </si>
   <si>
-    <t>NOK</t>
+    <t>NOK Limit</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>NOK Limit</t>
+    <t>FC95 RmDm</t>
+  </si>
+  <si>
+    <t>FC50 MpMp</t>
+  </si>
+  <si>
+    <t>FC95 RmMp</t>
+  </si>
+  <si>
+    <t>__ _</t>
+  </si>
+  <si>
+    <t>FC50 Mp</t>
+  </si>
+  <si>
+    <t>RC50 MpDm</t>
   </si>
   <si>
     <t>LUG_ Rm-1nDm</t>
@@ -371,15 +449,6 @@
     <t>FC95 MpDm</t>
   </si>
   <si>
-    <t>FC95 RmDm</t>
-  </si>
-  <si>
-    <t>FC50 MpMp</t>
-  </si>
-  <si>
-    <t>FC95 RmMp</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -395,10 +464,67 @@
     <t>07-01-2021 14:55:50</t>
   </si>
   <si>
+    <t>07-01-2021 15:40:15</t>
+  </si>
+  <si>
+    <t>07-01-2021 15:41:09</t>
+  </si>
+  <si>
+    <t>07-01-2021 15:41:47</t>
+  </si>
+  <si>
+    <t>07-01-2021 15:52:31</t>
+  </si>
+  <si>
+    <t>07-01-2021 15:54:55</t>
+  </si>
+  <si>
+    <t>07-01-2021 17:17:34</t>
+  </si>
+  <si>
+    <t>07-01-2021 17:51:27</t>
+  </si>
+  <si>
+    <t>07-01-2021 17:52:22</t>
+  </si>
+  <si>
+    <t>07-01-2021 18:02:33</t>
+  </si>
+  <si>
+    <t>07-01-2021 18:13:40</t>
+  </si>
+  <si>
+    <t>08-01-2021 10:14:19</t>
+  </si>
+  <si>
+    <t>08-01-2021 10:27:51</t>
+  </si>
+  <si>
+    <t>08-01-2021 10:29:45</t>
+  </si>
+  <si>
+    <t>08-01-2021 10:31:45</t>
+  </si>
+  <si>
+    <t>08-01-2021 16:11:01</t>
+  </si>
+  <si>
+    <t>08-01-2021 16:14:32</t>
+  </si>
+  <si>
+    <t>08-01-2021 16:17:22</t>
+  </si>
+  <si>
+    <t>08-01-2021 16:18:09</t>
+  </si>
+  <si>
     <t>GR206929,GR207006,GR207090</t>
   </si>
   <si>
     <t>GR1912450,GR2013229,GR201398,GR206436</t>
+  </si>
+  <si>
+    <t>GR206405,GR208962,GR208964</t>
   </si>
 </sst>
 </file>
@@ -446,9 +572,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FEA" displayName="FEA" ref="A1:CA8" totalsRowShown="0">
-  <autoFilter ref="A1:CA8"/>
-  <tableColumns count="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FEA" displayName="FEA" ref="A1:CE11" totalsRowShown="0">
+  <autoFilter ref="A1:CE11"/>
+  <tableColumns count="83">
     <tableColumn id="1" name="RunID"/>
     <tableColumn id="2" name="OEM"/>
     <tableColumn id="3" name="project_name"/>
@@ -468,74 +594,78 @@
     <tableColumn id="17" name="Recliner torque TS"/>
     <tableColumn id="18" name="Belt displacement DS"/>
     <tableColumn id="19" name="Belt displacement TS"/>
-    <tableColumn id="20" name="Lap bracket force"/>
-    <tableColumn id="21" name="HA torque"/>
-    <tableColumn id="22" name="Backrest x displ"/>
-    <tableColumn id="23" name="PELVIS DX"/>
-    <tableColumn id="24" name="PELVIS DZ"/>
-    <tableColumn id="25" name="Tilt Axial Force"/>
-    <tableColumn id="26" name="Tilt Shear Force"/>
-    <tableColumn id="27" name="Track sliding DS"/>
-    <tableColumn id="28" name="Track sliding TS"/>
-    <tableColumn id="29" name="Pinion torque"/>
-    <tableColumn id="30" name="Res_F C_ROLLER_1-C_CAM"/>
-    <tableColumn id="31" name="Res_F C_ROLLER_2-C_CAM"/>
-    <tableColumn id="32" name="Res_F C_ROLLER_3-C_CAM"/>
-    <tableColumn id="33" name="Res_F C_ROLLER_4-C_CAM"/>
-    <tableColumn id="34" name="Res_F C_ROLLER_5-C_CAM"/>
-    <tableColumn id="35" name="Res_F C_ROLLER_6-C_CAM"/>
-    <tableColumn id="36" name="Res_F L_ROLLER_10-PINION"/>
-    <tableColumn id="37" name="Res_F L_ROLLER_9-PINION"/>
-    <tableColumn id="38" name="Res_F L_ROLLER_8-PINION"/>
-    <tableColumn id="39" name="Res_F L_ROLLER_7-PINION"/>
-    <tableColumn id="40" name="Res_F L_ROLLER_6-PINION"/>
-    <tableColumn id="41" name="Res_F L_ROLLER_5-PINION"/>
-    <tableColumn id="42" name="Res_F L_ROLLER_4-PINION"/>
-    <tableColumn id="43" name="Res_F L_ROLLER_3-PINION"/>
-    <tableColumn id="44" name="Res_F L_ROLLER_2-PINION"/>
-    <tableColumn id="45" name="Res_F L_ROLLER_1-PINION"/>
-    <tableColumn id="46" name="Res_F L_ROLLER_6-L_RING"/>
-    <tableColumn id="47" name="Res_F L_ROLLER_5-L_RING"/>
-    <tableColumn id="48" name="Res_F L_ROLLER_4-L_RING"/>
-    <tableColumn id="49" name="Res_F L_ROLLER_3-L_RING"/>
-    <tableColumn id="50" name="Res_F L_ROLLER_2-L_RING"/>
-    <tableColumn id="51" name="Res_F L_ROLLER_1-L_RING"/>
-    <tableColumn id="52" name="Res_F Pinion-Collar-1"/>
-    <tableColumn id="53" name="Res_F Pinion-Collar-2"/>
-    <tableColumn id="54" name="Torque MX on pinions section"/>
-    <tableColumn id="55" name="Res Force C_ROLLER_1-C_CAM"/>
-    <tableColumn id="56" name="Res Force C_ROLLER_2-C_CAM"/>
-    <tableColumn id="57" name="Res Force C_ROLLER_3-C_CAM"/>
-    <tableColumn id="58" name="Res Force C_ROLLER_4-C_CAM"/>
-    <tableColumn id="59" name="Res Force C_ROLLER_5-C_CAM"/>
-    <tableColumn id="60" name="Res Force C_ROLLER_6-C_CAM"/>
-    <tableColumn id="61" name="Res Force L_ROLLER_10-PINION"/>
-    <tableColumn id="62" name="Res Force L_ROLLER_9-PINION"/>
-    <tableColumn id="63" name="Res Force L_ROLLER_8-PINION"/>
-    <tableColumn id="64" name="Res Force L_ROLLER_7-PINION"/>
-    <tableColumn id="65" name="Res Force L_ROLLER_6-PINION"/>
-    <tableColumn id="66" name="Res Force L_ROLLER_5-PINION"/>
-    <tableColumn id="67" name="Res Force L_ROLLER_4-PINION"/>
-    <tableColumn id="68" name="Res Force L_ROLLER_3-PINION"/>
-    <tableColumn id="69" name="Res Force L_ROLLER_2-PINION"/>
-    <tableColumn id="70" name="Res Force L_ROLLER_1-PINION"/>
-    <tableColumn id="71" name="Res Force L_ROLLER_6-L_RING"/>
-    <tableColumn id="72" name="Res Force L_ROLLER_5-L_RING"/>
-    <tableColumn id="73" name="Res Force L_ROLLER_4-L_RING"/>
-    <tableColumn id="74" name="Res Force L_ROLLER_3-L_RING"/>
-    <tableColumn id="75" name="Res Force L_ROLLER_2-L_RING"/>
-    <tableColumn id="76" name="Res Force L_ROLLER_1-L_RING"/>
-    <tableColumn id="77" name="Res Force Pinion-Collar-1"/>
-    <tableColumn id="78" name="Res Force Pinion-Collar-2"/>
-    <tableColumn id="79" name="Rear bracket force DS"/>
+    <tableColumn id="20" name="Rear bracket force DS"/>
+    <tableColumn id="21" name="Lap bracket force"/>
+    <tableColumn id="22" name="HA torque"/>
+    <tableColumn id="23" name="Backrest x displ"/>
+    <tableColumn id="24" name="PELVIS DX"/>
+    <tableColumn id="25" name="PELVIS DZ"/>
+    <tableColumn id="26" name="Tilt Axial Force"/>
+    <tableColumn id="27" name="Tilt Shear Force"/>
+    <tableColumn id="28" name="Track sliding DS"/>
+    <tableColumn id="29" name="Track sliding TS"/>
+    <tableColumn id="30" name="Backrest dynamic angle DS"/>
+    <tableColumn id="31" name="Backrest dynamic angle TS"/>
+    <tableColumn id="32" name="Backrest static angle DS"/>
+    <tableColumn id="33" name="Backrest static angle TS"/>
+    <tableColumn id="34" name="Pinion torque"/>
+    <tableColumn id="35" name="Res_F C_ROLLER_1-C_CAM"/>
+    <tableColumn id="36" name="Res_F C_ROLLER_2-C_CAM"/>
+    <tableColumn id="37" name="Res_F C_ROLLER_3-C_CAM"/>
+    <tableColumn id="38" name="Res_F C_ROLLER_4-C_CAM"/>
+    <tableColumn id="39" name="Res_F C_ROLLER_5-C_CAM"/>
+    <tableColumn id="40" name="Res_F C_ROLLER_6-C_CAM"/>
+    <tableColumn id="41" name="Res_F L_ROLLER_10-PINION"/>
+    <tableColumn id="42" name="Res_F L_ROLLER_9-PINION"/>
+    <tableColumn id="43" name="Res_F L_ROLLER_8-PINION"/>
+    <tableColumn id="44" name="Res_F L_ROLLER_7-PINION"/>
+    <tableColumn id="45" name="Res_F L_ROLLER_6-PINION"/>
+    <tableColumn id="46" name="Res_F L_ROLLER_5-PINION"/>
+    <tableColumn id="47" name="Res_F L_ROLLER_4-PINION"/>
+    <tableColumn id="48" name="Res_F L_ROLLER_3-PINION"/>
+    <tableColumn id="49" name="Res_F L_ROLLER_2-PINION"/>
+    <tableColumn id="50" name="Res_F L_ROLLER_1-PINION"/>
+    <tableColumn id="51" name="Res_F L_ROLLER_6-L_RING"/>
+    <tableColumn id="52" name="Res_F L_ROLLER_5-L_RING"/>
+    <tableColumn id="53" name="Res_F L_ROLLER_4-L_RING"/>
+    <tableColumn id="54" name="Res_F L_ROLLER_3-L_RING"/>
+    <tableColumn id="55" name="Res_F L_ROLLER_2-L_RING"/>
+    <tableColumn id="56" name="Res_F L_ROLLER_1-L_RING"/>
+    <tableColumn id="57" name="Res_F Pinion-Collar-1"/>
+    <tableColumn id="58" name="Res_F Pinion-Collar-2"/>
+    <tableColumn id="59" name="Torque MX on pinions section"/>
+    <tableColumn id="60" name="Res Force C_ROLLER_1-C_CAM"/>
+    <tableColumn id="61" name="Res Force C_ROLLER_2-C_CAM"/>
+    <tableColumn id="62" name="Res Force C_ROLLER_3-C_CAM"/>
+    <tableColumn id="63" name="Res Force C_ROLLER_4-C_CAM"/>
+    <tableColumn id="64" name="Res Force C_ROLLER_5-C_CAM"/>
+    <tableColumn id="65" name="Res Force C_ROLLER_6-C_CAM"/>
+    <tableColumn id="66" name="Res Force L_ROLLER_10-PINION"/>
+    <tableColumn id="67" name="Res Force L_ROLLER_9-PINION"/>
+    <tableColumn id="68" name="Res Force L_ROLLER_8-PINION"/>
+    <tableColumn id="69" name="Res Force L_ROLLER_7-PINION"/>
+    <tableColumn id="70" name="Res Force L_ROLLER_6-PINION"/>
+    <tableColumn id="71" name="Res Force L_ROLLER_5-PINION"/>
+    <tableColumn id="72" name="Res Force L_ROLLER_4-PINION"/>
+    <tableColumn id="73" name="Res Force L_ROLLER_3-PINION"/>
+    <tableColumn id="74" name="Res Force L_ROLLER_2-PINION"/>
+    <tableColumn id="75" name="Res Force L_ROLLER_1-PINION"/>
+    <tableColumn id="76" name="Res Force L_ROLLER_6-L_RING"/>
+    <tableColumn id="77" name="Res Force L_ROLLER_5-L_RING"/>
+    <tableColumn id="78" name="Res Force L_ROLLER_4-L_RING"/>
+    <tableColumn id="79" name="Res Force L_ROLLER_3-L_RING"/>
+    <tableColumn id="80" name="Res Force L_ROLLER_2-L_RING"/>
+    <tableColumn id="81" name="Res Force L_ROLLER_1-L_RING"/>
+    <tableColumn id="82" name="Res Force Pinion-Collar-1"/>
+    <tableColumn id="83" name="Res Force Pinion-Collar-2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="History__" displayName="History__" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="History__" displayName="History__" ref="A1:B22" totalsRowShown="0">
+  <autoFilter ref="A1:B22"/>
   <tableColumns count="2">
     <tableColumn id="1" name="time"/>
     <tableColumn id="2" name="runID"/>
@@ -829,13 +959,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CA8"/>
+  <dimension ref="A1:CE11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:79">
+    <row r="1" spans="1:83">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,664 +1203,844 @@
       <c r="CA1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:79">
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:83">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2">
+        <v>17.5</v>
+      </c>
+      <c r="O2">
+        <v>22.7</v>
+      </c>
+      <c r="P2">
+        <v>1226.8</v>
+      </c>
+      <c r="Q2">
+        <v>1148.5</v>
+      </c>
+      <c r="R2">
+        <v>52.1</v>
+      </c>
+      <c r="S2">
+        <v>49.3</v>
+      </c>
+      <c r="U2">
+        <v>15</v>
+      </c>
+      <c r="V2">
+        <v>347.7</v>
+      </c>
+      <c r="W2">
+        <v>134.7</v>
+      </c>
+      <c r="X2">
+        <v>204.4</v>
+      </c>
+      <c r="Y2">
+        <v>14.4</v>
+      </c>
+      <c r="Z2">
+        <v>1.11</v>
+      </c>
+      <c r="AA2">
+        <v>0.586</v>
+      </c>
+      <c r="AB2">
+        <v>10.7</v>
+      </c>
+      <c r="AC2">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:83">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N3">
+        <v>16.3</v>
+      </c>
+      <c r="O3">
+        <v>17.3</v>
+      </c>
+      <c r="P3">
+        <v>1155.5</v>
+      </c>
+      <c r="Q3">
+        <v>1029.7</v>
+      </c>
+      <c r="R3">
+        <v>42.6</v>
+      </c>
+      <c r="S3">
+        <v>39.3</v>
+      </c>
+      <c r="T3">
+        <v>1.88</v>
+      </c>
+      <c r="U3">
+        <v>11.5</v>
+      </c>
+      <c r="V3">
+        <v>305.8</v>
+      </c>
+      <c r="W3">
+        <v>137.3</v>
+      </c>
+      <c r="X3">
+        <v>209.2</v>
+      </c>
+      <c r="Y3">
+        <v>26.2</v>
+      </c>
+      <c r="Z3">
+        <v>0.732</v>
+      </c>
+      <c r="AA3">
+        <v>0.387</v>
+      </c>
+      <c r="AB3">
+        <v>9.25</v>
+      </c>
+      <c r="AC3">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:83">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4">
+        <v>18</v>
+      </c>
+      <c r="O4">
+        <v>22.8</v>
+      </c>
+      <c r="P4">
+        <v>1006.4</v>
+      </c>
+      <c r="Q4">
+        <v>1011.8</v>
+      </c>
+      <c r="R4">
+        <v>65.3</v>
+      </c>
+      <c r="S4">
+        <v>63.1</v>
+      </c>
+      <c r="U4">
+        <v>14.3</v>
+      </c>
+      <c r="V4">
+        <v>332</v>
+      </c>
+      <c r="W4">
+        <v>173.6</v>
+      </c>
+      <c r="X4">
+        <v>224.4</v>
+      </c>
+      <c r="Y4">
+        <v>14.7</v>
+      </c>
+      <c r="AB4">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="AC4">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:83">
+      <c r="A5" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:83">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6" t="s">
+        <v>133</v>
+      </c>
+      <c r="M6" t="s">
+        <v>140</v>
+      </c>
+      <c r="X6">
+        <v>161.3</v>
+      </c>
+      <c r="Y6">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:83">
+      <c r="A7" t="s">
         <v>88</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7">
+        <v>14.9</v>
+      </c>
+      <c r="O7">
+        <v>14.5</v>
+      </c>
+      <c r="P7">
+        <v>2182.8</v>
+      </c>
+      <c r="Q7">
+        <v>2279.4</v>
+      </c>
+      <c r="V7">
+        <v>50.3</v>
+      </c>
+      <c r="X7">
+        <v>231.3</v>
+      </c>
+      <c r="Y7">
+        <v>31.6</v>
+      </c>
+      <c r="Z7">
+        <v>3.69</v>
+      </c>
+      <c r="AA7">
+        <v>0.38</v>
+      </c>
+      <c r="AD7">
+        <v>22.6</v>
+      </c>
+      <c r="AE7">
+        <v>19.4</v>
+      </c>
+      <c r="AF7">
+        <v>12.6</v>
+      </c>
+      <c r="AG7">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:83">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH8">
+        <v>63.7</v>
+      </c>
+      <c r="AI8">
+        <v>0.101</v>
+      </c>
+      <c r="AJ8">
+        <v>0.076</v>
+      </c>
+      <c r="AK8">
+        <v>0.068</v>
+      </c>
+      <c r="AL8">
+        <v>0.124</v>
+      </c>
+      <c r="AM8">
+        <v>0.056</v>
+      </c>
+      <c r="AN8">
+        <v>0.081</v>
+      </c>
+      <c r="AY8">
+        <v>6.78</v>
+      </c>
+      <c r="AZ8">
+        <v>0.468</v>
+      </c>
+      <c r="BA8">
+        <v>6.64</v>
+      </c>
+      <c r="BB8">
+        <v>0.061</v>
+      </c>
+      <c r="BC8">
+        <v>4.12</v>
+      </c>
+      <c r="BD8">
+        <v>0.654</v>
+      </c>
+      <c r="BF8">
+        <v>3.61</v>
+      </c>
+      <c r="BG8">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:83">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH9">
+        <v>81.8</v>
+      </c>
+      <c r="AI9">
+        <v>0.227</v>
+      </c>
+      <c r="AJ9">
+        <v>0.186</v>
+      </c>
+      <c r="AK9">
+        <v>0.621</v>
+      </c>
+      <c r="AL9">
+        <v>0.424</v>
+      </c>
+      <c r="AM9">
+        <v>0.194</v>
+      </c>
+      <c r="AN9">
+        <v>0.247</v>
+      </c>
+      <c r="AO9">
+        <v>5.59</v>
+      </c>
+      <c r="AP9">
+        <v>0.576</v>
+      </c>
+      <c r="AQ9">
+        <v>7.13</v>
+      </c>
+      <c r="AR9">
+        <v>0.531</v>
+      </c>
+      <c r="AS9">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AT9">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="AU9">
+        <v>7.76</v>
+      </c>
+      <c r="AV9">
+        <v>0.569</v>
+      </c>
+      <c r="AW9">
+        <v>5.19</v>
+      </c>
+      <c r="AX9">
+        <v>5.59</v>
+      </c>
+      <c r="AY9">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AZ9">
+        <v>0.58</v>
+      </c>
+      <c r="BA9">
+        <v>7.76</v>
+      </c>
+      <c r="BB9">
+        <v>0.573</v>
+      </c>
+      <c r="BD9">
+        <v>0.136</v>
+      </c>
+      <c r="BE9">
+        <v>1.3</v>
+      </c>
+      <c r="BF9">
+        <v>5.19</v>
+      </c>
+      <c r="BG9">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:83">
+      <c r="A10" t="s">
         <v>91</v>
       </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
         <v>97</v>
       </c>
-      <c r="G2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
         <v>107</v>
       </c>
-      <c r="J2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="F10" t="s">
         <v>111</v>
       </c>
-      <c r="L2" t="s">
-        <v>114</v>
-      </c>
-      <c r="M2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC2">
-        <v>63.7</v>
-      </c>
-      <c r="AD2">
-        <v>0.101</v>
-      </c>
-      <c r="AE2">
-        <v>0.076</v>
-      </c>
-      <c r="AF2">
-        <v>0.068</v>
-      </c>
-      <c r="AG2">
-        <v>0.124</v>
-      </c>
-      <c r="AH2">
-        <v>0.056</v>
-      </c>
-      <c r="AI2">
-        <v>0.081</v>
-      </c>
-      <c r="AT2">
-        <v>6.78</v>
-      </c>
-      <c r="AU2">
-        <v>0.468</v>
-      </c>
-      <c r="AV2">
-        <v>6.64</v>
-      </c>
-      <c r="AW2">
-        <v>0.061</v>
-      </c>
-      <c r="AX2">
-        <v>4.12</v>
-      </c>
-      <c r="AY2">
-        <v>0.654</v>
-      </c>
-      <c r="BA2">
-        <v>3.61</v>
-      </c>
-      <c r="BB2">
-        <v>63.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:79">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" t="s">
+        <v>143</v>
+      </c>
+      <c r="N10">
+        <v>22.6</v>
+      </c>
+      <c r="O10">
+        <v>24.9</v>
+      </c>
+      <c r="P10">
+        <v>1056.8</v>
+      </c>
+      <c r="Q10">
+        <v>1063.9</v>
+      </c>
+      <c r="R10">
+        <v>56.1</v>
+      </c>
+      <c r="S10">
+        <v>65.2</v>
+      </c>
+      <c r="U10">
+        <v>18.8</v>
+      </c>
+      <c r="V10">
+        <v>279.7</v>
+      </c>
+      <c r="W10">
+        <v>160.4</v>
+      </c>
+      <c r="X10">
+        <v>252.3</v>
+      </c>
+      <c r="Y10">
+        <v>17.3</v>
+      </c>
+      <c r="Z10">
+        <v>1.92</v>
+      </c>
+      <c r="AA10">
+        <v>0.649</v>
+      </c>
+      <c r="AB10">
+        <v>11.9</v>
+      </c>
+      <c r="AC10">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:83">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
         <v>101</v>
       </c>
-      <c r="H3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
         <v>113</v>
       </c>
-      <c r="M3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC3">
-        <v>81.8</v>
-      </c>
-      <c r="AD3">
-        <v>0.227</v>
-      </c>
-      <c r="AE3">
-        <v>0.186</v>
-      </c>
-      <c r="AF3">
-        <v>0.621</v>
-      </c>
-      <c r="AG3">
-        <v>0.424</v>
-      </c>
-      <c r="AH3">
-        <v>0.194</v>
-      </c>
-      <c r="AI3">
-        <v>0.247</v>
-      </c>
-      <c r="AJ3">
-        <v>5.59</v>
-      </c>
-      <c r="AK3">
-        <v>0.576</v>
-      </c>
-      <c r="AL3">
-        <v>7.13</v>
-      </c>
-      <c r="AM3">
-        <v>0.531</v>
-      </c>
-      <c r="AN3">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AO3">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="AP3">
-        <v>7.76</v>
-      </c>
-      <c r="AQ3">
-        <v>0.569</v>
-      </c>
-      <c r="AR3">
-        <v>5.19</v>
-      </c>
-      <c r="AS3">
-        <v>5.59</v>
-      </c>
-      <c r="AT3">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AU3">
-        <v>0.58</v>
-      </c>
-      <c r="AV3">
-        <v>7.76</v>
-      </c>
-      <c r="AW3">
-        <v>0.573</v>
-      </c>
-      <c r="AY3">
-        <v>0.136</v>
-      </c>
-      <c r="AZ3">
-        <v>1.3</v>
-      </c>
-      <c r="BA3">
-        <v>5.19</v>
-      </c>
-      <c r="BB3">
-        <v>81.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:79">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" t="s">
-        <v>115</v>
-      </c>
-      <c r="M4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N4">
-        <v>22.6</v>
-      </c>
-      <c r="O4">
-        <v>24.9</v>
-      </c>
-      <c r="P4">
-        <v>1056.8</v>
-      </c>
-      <c r="Q4">
-        <v>1063.9</v>
-      </c>
-      <c r="R4">
-        <v>56.1</v>
-      </c>
-      <c r="S4">
-        <v>65.2</v>
-      </c>
-      <c r="T4">
-        <v>18.8</v>
-      </c>
-      <c r="U4">
-        <v>279.7</v>
-      </c>
-      <c r="V4">
-        <v>160.4</v>
-      </c>
-      <c r="W4">
-        <v>252.3</v>
-      </c>
-      <c r="X4">
-        <v>17.3</v>
-      </c>
-      <c r="Y4">
-        <v>1.92</v>
-      </c>
-      <c r="Z4">
-        <v>0.649</v>
-      </c>
-      <c r="AA4">
-        <v>11.9</v>
-      </c>
-      <c r="AB4">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:79">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC5">
+      <c r="G11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH11">
         <v>78.90000000000001</v>
       </c>
-      <c r="AD5">
+      <c r="AI11">
         <v>0.161</v>
       </c>
-      <c r="AE5">
+      <c r="AJ11">
         <v>0.291</v>
       </c>
-      <c r="AF5">
+      <c r="AK11">
         <v>0.514</v>
       </c>
-      <c r="AG5">
+      <c r="AL11">
         <v>0.47</v>
       </c>
-      <c r="AH5">
+      <c r="AM11">
         <v>0.066</v>
       </c>
-      <c r="AI5">
+      <c r="AN11">
         <v>0.305</v>
       </c>
-      <c r="AJ5">
+      <c r="AO11">
         <v>5.32</v>
       </c>
-      <c r="AK5">
+      <c r="AP11">
         <v>0.656</v>
       </c>
-      <c r="AL5">
+      <c r="AQ11">
         <v>6.85</v>
       </c>
-      <c r="AM5">
+      <c r="AR11">
         <v>0.572</v>
       </c>
-      <c r="AN5">
+      <c r="AS11">
         <v>7.85</v>
       </c>
-      <c r="AO5">
+      <c r="AT11">
         <v>0.591</v>
       </c>
-      <c r="AP5">
+      <c r="AU11">
         <v>7.43</v>
       </c>
-      <c r="AQ5">
+      <c r="AV11">
         <v>0.589</v>
       </c>
-      <c r="AR5">
+      <c r="AW11">
         <v>4.76</v>
       </c>
-      <c r="AS5">
+      <c r="AX11">
         <v>5.32</v>
       </c>
-      <c r="AT5">
+      <c r="AY11">
         <v>7.85</v>
       </c>
-      <c r="AU5">
+      <c r="AZ11">
         <v>0.608</v>
       </c>
-      <c r="AV5">
+      <c r="BA11">
         <v>7.43</v>
       </c>
-      <c r="AW5">
+      <c r="BB11">
         <v>0.589</v>
       </c>
-      <c r="AY5">
+      <c r="BD11">
         <v>0.173</v>
       </c>
-      <c r="AZ5">
+      <c r="BE11">
         <v>0.173</v>
       </c>
-      <c r="BA5">
+      <c r="BF11">
         <v>4.65</v>
       </c>
-      <c r="BB5">
+      <c r="BG11">
         <v>78.90000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:79">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L6" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6">
-        <v>17.5</v>
-      </c>
-      <c r="O6">
-        <v>22.7</v>
-      </c>
-      <c r="P6">
-        <v>1226.8</v>
-      </c>
-      <c r="Q6">
-        <v>1148.5</v>
-      </c>
-      <c r="R6">
-        <v>52.1</v>
-      </c>
-      <c r="S6">
-        <v>49.3</v>
-      </c>
-      <c r="T6">
-        <v>15</v>
-      </c>
-      <c r="U6">
-        <v>347.7</v>
-      </c>
-      <c r="V6">
-        <v>134.7</v>
-      </c>
-      <c r="W6">
-        <v>204.4</v>
-      </c>
-      <c r="X6">
-        <v>14.4</v>
-      </c>
-      <c r="Y6">
-        <v>1.11</v>
-      </c>
-      <c r="Z6">
-        <v>0.586</v>
-      </c>
-      <c r="AA6">
-        <v>10.7</v>
-      </c>
-      <c r="AB6">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:79">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" t="s">
-        <v>119</v>
-      </c>
-      <c r="N7">
-        <v>16.3</v>
-      </c>
-      <c r="O7">
-        <v>17.3</v>
-      </c>
-      <c r="P7">
-        <v>1155.5</v>
-      </c>
-      <c r="Q7">
-        <v>1029.7</v>
-      </c>
-      <c r="R7">
-        <v>42.6</v>
-      </c>
-      <c r="S7">
-        <v>39.3</v>
-      </c>
-      <c r="T7">
-        <v>11.5</v>
-      </c>
-      <c r="U7">
-        <v>305.8</v>
-      </c>
-      <c r="V7">
-        <v>137.3</v>
-      </c>
-      <c r="W7">
-        <v>209.2</v>
-      </c>
-      <c r="X7">
-        <v>26.2</v>
-      </c>
-      <c r="Y7">
-        <v>0.732</v>
-      </c>
-      <c r="Z7">
-        <v>0.387</v>
-      </c>
-      <c r="AA7">
-        <v>9.25</v>
-      </c>
-      <c r="AB7">
-        <v>10.6</v>
-      </c>
-      <c r="CA7">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:79">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" t="s">
-        <v>115</v>
-      </c>
-      <c r="M8" t="s">
-        <v>120</v>
-      </c>
-      <c r="N8">
-        <v>18</v>
-      </c>
-      <c r="O8">
-        <v>22.8</v>
-      </c>
-      <c r="P8">
-        <v>1006.4</v>
-      </c>
-      <c r="Q8">
-        <v>1011.8</v>
-      </c>
-      <c r="R8">
-        <v>65.3</v>
-      </c>
-      <c r="S8">
-        <v>63.1</v>
-      </c>
-      <c r="T8">
-        <v>14.3</v>
-      </c>
-      <c r="U8">
-        <v>332</v>
-      </c>
-      <c r="V8">
-        <v>173.6</v>
-      </c>
-      <c r="W8">
-        <v>224.4</v>
-      </c>
-      <c r="X8">
-        <v>14.7</v>
-      </c>
-      <c r="AA8">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="AB8">
-        <v>10.6</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +2053,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1755,34 +2065,178 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/database/MIT_database.xlsx
+++ b/database/MIT_database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="171">
   <si>
     <t>RunID</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>08-01-2021 16:18:09</t>
+  </si>
+  <si>
+    <t>08-01-2021 18:56:13</t>
   </si>
   <si>
     <t>GR206929,GR207006,GR207090</t>
@@ -664,8 +667,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="History__" displayName="History__" ref="A1:B22" totalsRowShown="0">
-  <autoFilter ref="A1:B22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="History__" displayName="History__" ref="A1:B23" totalsRowShown="0">
+  <autoFilter ref="A1:B23"/>
   <tableColumns count="2">
     <tableColumn id="1" name="time"/>
     <tableColumn id="2" name="runID"/>
@@ -2053,7 +2056,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2076,7 +2079,7 @@
         <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2084,7 +2087,7 @@
         <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2092,7 +2095,7 @@
         <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2100,7 +2103,7 @@
         <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2108,7 +2111,7 @@
         <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2116,7 +2119,7 @@
         <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2124,7 +2127,7 @@
         <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2132,7 +2135,7 @@
         <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2140,7 +2143,7 @@
         <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2148,7 +2151,7 @@
         <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2156,7 +2159,7 @@
         <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2164,7 +2167,7 @@
         <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2172,7 +2175,7 @@
         <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2180,7 +2183,7 @@
         <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2188,7 +2191,7 @@
         <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2196,7 +2199,7 @@
         <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2204,7 +2207,7 @@
         <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2212,7 +2215,7 @@
         <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2220,7 +2223,7 @@
         <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2228,7 +2231,7 @@
         <v>165</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2236,7 +2239,15 @@
         <v>166</v>
       </c>
       <c r="B22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>167</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/database/MIT_database.xlsx
+++ b/database/MIT_database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="213">
   <si>
     <t>RunID</t>
   </si>
@@ -104,6 +104,15 @@
     <t>Track sliding TS</t>
   </si>
   <si>
+    <t>Front bracket force DS</t>
+  </si>
+  <si>
+    <t>Front bracket force TS</t>
+  </si>
+  <si>
+    <t>Belt bracket force</t>
+  </si>
+  <si>
     <t>Backrest dynamic angle DS</t>
   </si>
   <si>
@@ -278,6 +287,45 @@
     <t>GR206405</t>
   </si>
   <si>
+    <t>GR208060</t>
+  </si>
+  <si>
+    <t>GR208381</t>
+  </si>
+  <si>
+    <t>GR208384</t>
+  </si>
+  <si>
+    <t>GR208388</t>
+  </si>
+  <si>
+    <t>GR208396</t>
+  </si>
+  <si>
+    <t>GR208527</t>
+  </si>
+  <si>
+    <t>GR208528</t>
+  </si>
+  <si>
+    <t>GR208530</t>
+  </si>
+  <si>
+    <t>GR208564</t>
+  </si>
+  <si>
+    <t>GR208591</t>
+  </si>
+  <si>
+    <t>GR208595</t>
+  </si>
+  <si>
+    <t>GR208960</t>
+  </si>
+  <si>
+    <t>GR208961</t>
+  </si>
+  <si>
     <t>GR208962</t>
   </si>
   <si>
@@ -332,12 +380,12 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>10WP</t>
+  </si>
+  <si>
     <t>4WM</t>
   </si>
   <si>
-    <t>10WP</t>
-  </si>
-  <si>
     <t>Front Crash</t>
   </si>
   <si>
@@ -350,6 +398,9 @@
     <t>Luggage crash</t>
   </si>
   <si>
+    <t>ECE14</t>
+  </si>
+  <si>
     <t xml:space="preserve"> D95</t>
   </si>
   <si>
@@ -359,6 +410,12 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t xml:space="preserve"> D05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E14</t>
+  </si>
+  <si>
     <t>K04-0</t>
   </si>
   <si>
@@ -386,6 +443,9 @@
     <t>Unknown</t>
   </si>
   <si>
+    <t>Tracks:front most</t>
+  </si>
+  <si>
     <t>Tracks:rear most - 1 notch</t>
   </si>
   <si>
@@ -395,18 +455,27 @@
     <t xml:space="preserve"> HA:middle</t>
   </si>
   <si>
+    <t xml:space="preserve"> HA:upper most</t>
+  </si>
+  <si>
     <t xml:space="preserve"> HA:no_adjm</t>
   </si>
   <si>
     <t xml:space="preserve"> EuroNCAP40mph</t>
   </si>
   <si>
+    <t xml:space="preserve"> SPA2PULSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SPA2-RD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EC17</t>
+  </si>
+  <si>
     <t xml:space="preserve"> FW56-Sinus</t>
   </si>
   <si>
-    <t xml:space="preserve"> SPA2-RD8</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Luggage-010</t>
   </si>
   <si>
@@ -437,18 +506,36 @@
     <t>__ _</t>
   </si>
   <si>
+    <t>FC95 MpDm</t>
+  </si>
+  <si>
+    <t>FC05 FmMp</t>
+  </si>
+  <si>
+    <t>RC95 RmDm</t>
+  </si>
+  <si>
+    <t>RC50 MpDm</t>
+  </si>
+  <si>
+    <t>LUG_ Rm-1nDm</t>
+  </si>
+  <si>
+    <t>FC05 MpUm</t>
+  </si>
+  <si>
+    <t>FC05 FmUm</t>
+  </si>
+  <si>
+    <t>FC50 RmUm</t>
+  </si>
+  <si>
+    <t>ECE14  RmDm</t>
+  </si>
+  <si>
     <t>FC50 Mp</t>
   </si>
   <si>
-    <t>RC50 MpDm</t>
-  </si>
-  <si>
-    <t>LUG_ Rm-1nDm</t>
-  </si>
-  <si>
-    <t>FC95 MpDm</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -521,6 +608,42 @@
     <t>08-01-2021 18:56:13</t>
   </si>
   <si>
+    <t>11-01-2021 09:17:44</t>
+  </si>
+  <si>
+    <t>11-01-2021 09:18:04</t>
+  </si>
+  <si>
+    <t>11-01-2021 09:26:32</t>
+  </si>
+  <si>
+    <t>11-01-2021 09:38:21</t>
+  </si>
+  <si>
+    <t>11-01-2021 09:50:36</t>
+  </si>
+  <si>
+    <t>11-01-2021 09:52:35</t>
+  </si>
+  <si>
+    <t>11-01-2021 09:53:40</t>
+  </si>
+  <si>
+    <t>11-01-2021 09:56:43</t>
+  </si>
+  <si>
+    <t>11-01-2021 09:59:59</t>
+  </si>
+  <si>
+    <t>11-01-2021 10:00:54</t>
+  </si>
+  <si>
+    <t>11-01-2021 10:02:14</t>
+  </si>
+  <si>
+    <t>11-01-2021 10:02:47</t>
+  </si>
+  <si>
     <t>GR206929,GR207006,GR207090</t>
   </si>
   <si>
@@ -528,6 +651,9 @@
   </si>
   <si>
     <t>GR206405,GR208962,GR208964</t>
+  </si>
+  <si>
+    <t>GR206405,GR206929,GR207006,GR207090,GR208060,GR208381,GR208384,GR208388,GR208396,GR208527,GR208528,GR208530,GR208564,GR208591,GR208595,GR208960,GR208961,GR208962,GR208964</t>
   </si>
 </sst>
 </file>
@@ -575,9 +701,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FEA" displayName="FEA" ref="A1:CE11" totalsRowShown="0">
-  <autoFilter ref="A1:CE11"/>
-  <tableColumns count="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FEA" displayName="FEA" ref="A1:CH24" totalsRowShown="0">
+  <autoFilter ref="A1:CH24"/>
+  <tableColumns count="86">
     <tableColumn id="1" name="RunID"/>
     <tableColumn id="2" name="OEM"/>
     <tableColumn id="3" name="project_name"/>
@@ -607,68 +733,71 @@
     <tableColumn id="27" name="Tilt Shear Force"/>
     <tableColumn id="28" name="Track sliding DS"/>
     <tableColumn id="29" name="Track sliding TS"/>
-    <tableColumn id="30" name="Backrest dynamic angle DS"/>
-    <tableColumn id="31" name="Backrest dynamic angle TS"/>
-    <tableColumn id="32" name="Backrest static angle DS"/>
-    <tableColumn id="33" name="Backrest static angle TS"/>
-    <tableColumn id="34" name="Pinion torque"/>
-    <tableColumn id="35" name="Res_F C_ROLLER_1-C_CAM"/>
-    <tableColumn id="36" name="Res_F C_ROLLER_2-C_CAM"/>
-    <tableColumn id="37" name="Res_F C_ROLLER_3-C_CAM"/>
-    <tableColumn id="38" name="Res_F C_ROLLER_4-C_CAM"/>
-    <tableColumn id="39" name="Res_F C_ROLLER_5-C_CAM"/>
-    <tableColumn id="40" name="Res_F C_ROLLER_6-C_CAM"/>
-    <tableColumn id="41" name="Res_F L_ROLLER_10-PINION"/>
-    <tableColumn id="42" name="Res_F L_ROLLER_9-PINION"/>
-    <tableColumn id="43" name="Res_F L_ROLLER_8-PINION"/>
-    <tableColumn id="44" name="Res_F L_ROLLER_7-PINION"/>
-    <tableColumn id="45" name="Res_F L_ROLLER_6-PINION"/>
-    <tableColumn id="46" name="Res_F L_ROLLER_5-PINION"/>
-    <tableColumn id="47" name="Res_F L_ROLLER_4-PINION"/>
-    <tableColumn id="48" name="Res_F L_ROLLER_3-PINION"/>
-    <tableColumn id="49" name="Res_F L_ROLLER_2-PINION"/>
-    <tableColumn id="50" name="Res_F L_ROLLER_1-PINION"/>
-    <tableColumn id="51" name="Res_F L_ROLLER_6-L_RING"/>
-    <tableColumn id="52" name="Res_F L_ROLLER_5-L_RING"/>
-    <tableColumn id="53" name="Res_F L_ROLLER_4-L_RING"/>
-    <tableColumn id="54" name="Res_F L_ROLLER_3-L_RING"/>
-    <tableColumn id="55" name="Res_F L_ROLLER_2-L_RING"/>
-    <tableColumn id="56" name="Res_F L_ROLLER_1-L_RING"/>
-    <tableColumn id="57" name="Res_F Pinion-Collar-1"/>
-    <tableColumn id="58" name="Res_F Pinion-Collar-2"/>
-    <tableColumn id="59" name="Torque MX on pinions section"/>
-    <tableColumn id="60" name="Res Force C_ROLLER_1-C_CAM"/>
-    <tableColumn id="61" name="Res Force C_ROLLER_2-C_CAM"/>
-    <tableColumn id="62" name="Res Force C_ROLLER_3-C_CAM"/>
-    <tableColumn id="63" name="Res Force C_ROLLER_4-C_CAM"/>
-    <tableColumn id="64" name="Res Force C_ROLLER_5-C_CAM"/>
-    <tableColumn id="65" name="Res Force C_ROLLER_6-C_CAM"/>
-    <tableColumn id="66" name="Res Force L_ROLLER_10-PINION"/>
-    <tableColumn id="67" name="Res Force L_ROLLER_9-PINION"/>
-    <tableColumn id="68" name="Res Force L_ROLLER_8-PINION"/>
-    <tableColumn id="69" name="Res Force L_ROLLER_7-PINION"/>
-    <tableColumn id="70" name="Res Force L_ROLLER_6-PINION"/>
-    <tableColumn id="71" name="Res Force L_ROLLER_5-PINION"/>
-    <tableColumn id="72" name="Res Force L_ROLLER_4-PINION"/>
-    <tableColumn id="73" name="Res Force L_ROLLER_3-PINION"/>
-    <tableColumn id="74" name="Res Force L_ROLLER_2-PINION"/>
-    <tableColumn id="75" name="Res Force L_ROLLER_1-PINION"/>
-    <tableColumn id="76" name="Res Force L_ROLLER_6-L_RING"/>
-    <tableColumn id="77" name="Res Force L_ROLLER_5-L_RING"/>
-    <tableColumn id="78" name="Res Force L_ROLLER_4-L_RING"/>
-    <tableColumn id="79" name="Res Force L_ROLLER_3-L_RING"/>
-    <tableColumn id="80" name="Res Force L_ROLLER_2-L_RING"/>
-    <tableColumn id="81" name="Res Force L_ROLLER_1-L_RING"/>
-    <tableColumn id="82" name="Res Force Pinion-Collar-1"/>
-    <tableColumn id="83" name="Res Force Pinion-Collar-2"/>
+    <tableColumn id="30" name="Front bracket force DS"/>
+    <tableColumn id="31" name="Front bracket force TS"/>
+    <tableColumn id="32" name="Belt bracket force"/>
+    <tableColumn id="33" name="Backrest dynamic angle DS"/>
+    <tableColumn id="34" name="Backrest dynamic angle TS"/>
+    <tableColumn id="35" name="Backrest static angle DS"/>
+    <tableColumn id="36" name="Backrest static angle TS"/>
+    <tableColumn id="37" name="Pinion torque"/>
+    <tableColumn id="38" name="Res_F C_ROLLER_1-C_CAM"/>
+    <tableColumn id="39" name="Res_F C_ROLLER_2-C_CAM"/>
+    <tableColumn id="40" name="Res_F C_ROLLER_3-C_CAM"/>
+    <tableColumn id="41" name="Res_F C_ROLLER_4-C_CAM"/>
+    <tableColumn id="42" name="Res_F C_ROLLER_5-C_CAM"/>
+    <tableColumn id="43" name="Res_F C_ROLLER_6-C_CAM"/>
+    <tableColumn id="44" name="Res_F L_ROLLER_10-PINION"/>
+    <tableColumn id="45" name="Res_F L_ROLLER_9-PINION"/>
+    <tableColumn id="46" name="Res_F L_ROLLER_8-PINION"/>
+    <tableColumn id="47" name="Res_F L_ROLLER_7-PINION"/>
+    <tableColumn id="48" name="Res_F L_ROLLER_6-PINION"/>
+    <tableColumn id="49" name="Res_F L_ROLLER_5-PINION"/>
+    <tableColumn id="50" name="Res_F L_ROLLER_4-PINION"/>
+    <tableColumn id="51" name="Res_F L_ROLLER_3-PINION"/>
+    <tableColumn id="52" name="Res_F L_ROLLER_2-PINION"/>
+    <tableColumn id="53" name="Res_F L_ROLLER_1-PINION"/>
+    <tableColumn id="54" name="Res_F L_ROLLER_6-L_RING"/>
+    <tableColumn id="55" name="Res_F L_ROLLER_5-L_RING"/>
+    <tableColumn id="56" name="Res_F L_ROLLER_4-L_RING"/>
+    <tableColumn id="57" name="Res_F L_ROLLER_3-L_RING"/>
+    <tableColumn id="58" name="Res_F L_ROLLER_2-L_RING"/>
+    <tableColumn id="59" name="Res_F L_ROLLER_1-L_RING"/>
+    <tableColumn id="60" name="Res_F Pinion-Collar-1"/>
+    <tableColumn id="61" name="Res_F Pinion-Collar-2"/>
+    <tableColumn id="62" name="Torque MX on pinions section"/>
+    <tableColumn id="63" name="Res Force C_ROLLER_1-C_CAM"/>
+    <tableColumn id="64" name="Res Force C_ROLLER_2-C_CAM"/>
+    <tableColumn id="65" name="Res Force C_ROLLER_3-C_CAM"/>
+    <tableColumn id="66" name="Res Force C_ROLLER_4-C_CAM"/>
+    <tableColumn id="67" name="Res Force C_ROLLER_5-C_CAM"/>
+    <tableColumn id="68" name="Res Force C_ROLLER_6-C_CAM"/>
+    <tableColumn id="69" name="Res Force L_ROLLER_10-PINION"/>
+    <tableColumn id="70" name="Res Force L_ROLLER_9-PINION"/>
+    <tableColumn id="71" name="Res Force L_ROLLER_8-PINION"/>
+    <tableColumn id="72" name="Res Force L_ROLLER_7-PINION"/>
+    <tableColumn id="73" name="Res Force L_ROLLER_6-PINION"/>
+    <tableColumn id="74" name="Res Force L_ROLLER_5-PINION"/>
+    <tableColumn id="75" name="Res Force L_ROLLER_4-PINION"/>
+    <tableColumn id="76" name="Res Force L_ROLLER_3-PINION"/>
+    <tableColumn id="77" name="Res Force L_ROLLER_2-PINION"/>
+    <tableColumn id="78" name="Res Force L_ROLLER_1-PINION"/>
+    <tableColumn id="79" name="Res Force L_ROLLER_6-L_RING"/>
+    <tableColumn id="80" name="Res Force L_ROLLER_5-L_RING"/>
+    <tableColumn id="81" name="Res Force L_ROLLER_4-L_RING"/>
+    <tableColumn id="82" name="Res Force L_ROLLER_3-L_RING"/>
+    <tableColumn id="83" name="Res Force L_ROLLER_2-L_RING"/>
+    <tableColumn id="84" name="Res Force L_ROLLER_1-L_RING"/>
+    <tableColumn id="85" name="Res Force Pinion-Collar-1"/>
+    <tableColumn id="86" name="Res Force Pinion-Collar-2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="History__" displayName="History__" ref="A1:B23" totalsRowShown="0">
-  <autoFilter ref="A1:B23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="History__" displayName="History__" ref="A1:B35" totalsRowShown="0">
+  <autoFilter ref="A1:B35"/>
   <tableColumns count="2">
     <tableColumn id="1" name="time"/>
     <tableColumn id="2" name="runID"/>
@@ -962,13 +1091,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CE11"/>
+  <dimension ref="A1:CH24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:83">
+    <row r="1" spans="1:86">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1218,46 +1347,55 @@
       <c r="CE1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:83">
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:86">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="J2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="L2" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="M2" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="N2">
         <v>17.5</v>
@@ -1305,45 +1443,45 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="3" spans="1:83">
+    <row r="3" spans="1:86">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="L3" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="M3" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="N3">
         <v>16.3</v>
@@ -1394,45 +1532,45 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="4" spans="1:83">
+    <row r="4" spans="1:86">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="H4" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="L4" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="M4" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="N4">
         <v>18</v>
@@ -1474,575 +1612,1675 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="5" spans="1:83">
+    <row r="5" spans="1:86">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:86">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N6">
+        <v>15.6</v>
+      </c>
+      <c r="O6">
+        <v>20.1</v>
+      </c>
+      <c r="P6">
+        <v>1081.9</v>
+      </c>
+      <c r="Q6">
+        <v>998.8</v>
+      </c>
+      <c r="R6">
+        <v>65.5</v>
+      </c>
+      <c r="S6">
+        <v>67.7</v>
+      </c>
+      <c r="U6">
+        <v>14.2</v>
+      </c>
+      <c r="V6">
+        <v>348.1</v>
+      </c>
+      <c r="W6">
+        <v>179.1</v>
+      </c>
+      <c r="X6">
+        <v>214.3</v>
+      </c>
+      <c r="Y6">
+        <v>18.3</v>
+      </c>
+      <c r="Z6">
+        <v>2.3</v>
+      </c>
+      <c r="AA6">
+        <v>0.297</v>
+      </c>
+      <c r="AB6">
+        <v>8.92</v>
+      </c>
+      <c r="AC6">
+        <v>12.6</v>
+      </c>
+      <c r="AD6">
+        <v>10</v>
+      </c>
+      <c r="AE6">
+        <v>7.5</v>
+      </c>
+      <c r="AF6">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:86">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" t="s">
+        <v>163</v>
+      </c>
+      <c r="N7">
+        <v>18</v>
+      </c>
+      <c r="O7">
+        <v>22.3</v>
+      </c>
+      <c r="P7">
+        <v>1073.6</v>
+      </c>
+      <c r="Q7">
+        <v>1034.4</v>
+      </c>
+      <c r="R7">
+        <v>47.4</v>
+      </c>
+      <c r="S7">
+        <v>54.6</v>
+      </c>
+      <c r="U7">
+        <v>16.1</v>
+      </c>
+      <c r="V7">
+        <v>327.6</v>
+      </c>
+      <c r="W7">
+        <v>125.4</v>
+      </c>
+      <c r="X7">
+        <v>220.6</v>
+      </c>
+      <c r="Y7">
+        <v>24.2</v>
+      </c>
+      <c r="Z7">
+        <v>2.11</v>
+      </c>
+      <c r="AA7">
+        <v>0.312</v>
+      </c>
+      <c r="AB7">
+        <v>10.6</v>
+      </c>
+      <c r="AC7">
+        <v>13.5</v>
+      </c>
+      <c r="AD7">
+        <v>15.4</v>
+      </c>
+      <c r="AE7">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="AF7">
+        <v>16.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:86">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" t="s">
+        <v>160</v>
+      </c>
+      <c r="N8">
+        <v>16.6</v>
+      </c>
+      <c r="O8">
+        <v>18.6</v>
+      </c>
+      <c r="P8">
+        <v>1227.9</v>
+      </c>
+      <c r="Q8">
+        <v>1068.1</v>
+      </c>
+      <c r="R8">
+        <v>42.9</v>
+      </c>
+      <c r="S8">
+        <v>39.9</v>
+      </c>
+      <c r="T8">
+        <v>1.97</v>
+      </c>
+      <c r="U8">
+        <v>11.7</v>
+      </c>
+      <c r="V8">
+        <v>312.1</v>
+      </c>
+      <c r="W8">
+        <v>138.1</v>
+      </c>
+      <c r="X8">
+        <v>198</v>
+      </c>
+      <c r="Y8">
+        <v>24.9</v>
+      </c>
+      <c r="Z8">
+        <v>0.534</v>
+      </c>
+      <c r="AA8">
+        <v>0.449</v>
+      </c>
+      <c r="AB8">
+        <v>9.52</v>
+      </c>
+      <c r="AC8">
+        <v>11.2</v>
+      </c>
+      <c r="AD8">
+        <v>10.1</v>
+      </c>
+      <c r="AE8">
+        <v>6.59</v>
+      </c>
+      <c r="AF8">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:86">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" t="s">
+        <v>157</v>
+      </c>
+      <c r="M9" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9">
+        <v>1.46</v>
+      </c>
+      <c r="O9">
+        <v>4.55</v>
+      </c>
+      <c r="P9">
+        <v>1295.7</v>
+      </c>
+      <c r="Q9">
+        <v>1153</v>
+      </c>
+      <c r="R9">
+        <v>25.4</v>
+      </c>
+      <c r="S9">
+        <v>36.9</v>
+      </c>
+      <c r="U9">
+        <v>6.3</v>
+      </c>
+      <c r="V9">
+        <v>225.4</v>
+      </c>
+      <c r="W9">
+        <v>153.8</v>
+      </c>
+      <c r="X9">
+        <v>165.8</v>
+      </c>
+      <c r="Y9">
+        <v>33</v>
+      </c>
+      <c r="Z9">
+        <v>0.172</v>
+      </c>
+      <c r="AA9">
+        <v>0.136</v>
+      </c>
+      <c r="AB9">
+        <v>4.77</v>
+      </c>
+      <c r="AC9">
+        <v>6.46</v>
+      </c>
+      <c r="AD9">
+        <v>8.19</v>
+      </c>
+      <c r="AE9">
+        <v>6.11</v>
+      </c>
+      <c r="AF9">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:86">
+      <c r="A10" t="s">
         <v>94</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" t="s">
+        <v>159</v>
+      </c>
+      <c r="N10">
+        <v>19.2</v>
+      </c>
+      <c r="O10">
+        <v>22.7</v>
+      </c>
+      <c r="P10">
+        <v>1194.6</v>
+      </c>
+      <c r="Q10">
+        <v>1168.1</v>
+      </c>
+      <c r="R10">
+        <v>50.7</v>
+      </c>
+      <c r="S10">
+        <v>47.3</v>
+      </c>
+      <c r="U10">
+        <v>15</v>
+      </c>
+      <c r="V10">
+        <v>326.7</v>
+      </c>
+      <c r="W10">
+        <v>132.9</v>
+      </c>
+      <c r="X10">
+        <v>199.5</v>
+      </c>
+      <c r="Y10">
+        <v>11.9</v>
+      </c>
+      <c r="Z10">
+        <v>1.4</v>
+      </c>
+      <c r="AA10">
+        <v>0.504</v>
+      </c>
+      <c r="AB10">
+        <v>11.8</v>
+      </c>
+      <c r="AC10">
+        <v>13</v>
+      </c>
+      <c r="AD10">
+        <v>15.6</v>
+      </c>
+      <c r="AE10">
+        <v>10.7</v>
+      </c>
+      <c r="AF10">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:86">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O11">
+        <v>7.12</v>
+      </c>
+      <c r="P11">
+        <v>1795.3</v>
+      </c>
+      <c r="Q11">
+        <v>1958.1</v>
+      </c>
+      <c r="V11">
+        <v>69.7</v>
+      </c>
+      <c r="X11">
+        <v>187.2</v>
+      </c>
+      <c r="Y11">
+        <v>23.1</v>
+      </c>
+      <c r="AD11">
+        <v>16</v>
+      </c>
+      <c r="AE11">
+        <v>13.9</v>
+      </c>
+      <c r="AF11">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:86">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" t="s">
+        <v>166</v>
+      </c>
+      <c r="N12">
+        <v>14.9</v>
+      </c>
+      <c r="O12">
+        <v>13.9</v>
+      </c>
+      <c r="P12">
+        <v>2142.9</v>
+      </c>
+      <c r="Q12">
+        <v>2125.9</v>
+      </c>
+      <c r="V12">
+        <v>42.3</v>
+      </c>
+      <c r="X12">
+        <v>229.5</v>
+      </c>
+      <c r="Y12">
+        <v>28.2</v>
+      </c>
+      <c r="Z12">
+        <v>1.69</v>
+      </c>
+      <c r="AA12">
+        <v>0.349</v>
+      </c>
+      <c r="AD12">
+        <v>14.3</v>
+      </c>
+      <c r="AE12">
+        <v>15.2</v>
+      </c>
+      <c r="AF12">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:86">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" t="s">
+        <v>155</v>
+      </c>
+      <c r="M13" t="s">
+        <v>167</v>
+      </c>
+      <c r="N13">
+        <v>5.65</v>
+      </c>
+      <c r="O13">
+        <v>5.98</v>
+      </c>
+      <c r="P13">
+        <v>2006.6</v>
+      </c>
+      <c r="Q13">
+        <v>1796.9</v>
+      </c>
+      <c r="V13">
+        <v>156.2</v>
+      </c>
+      <c r="W13">
+        <v>255.5</v>
+      </c>
+      <c r="Z13">
+        <v>0.249</v>
+      </c>
+      <c r="AA13">
+        <v>0.111</v>
+      </c>
+      <c r="AD13">
+        <v>11.6</v>
+      </c>
+      <c r="AE13">
+        <v>10.8</v>
+      </c>
+      <c r="AF13">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:86">
+      <c r="A14" t="s">
         <v>98</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14">
+        <v>14</v>
+      </c>
+      <c r="O14">
+        <v>16</v>
+      </c>
+      <c r="P14">
+        <v>1219</v>
+      </c>
+      <c r="Q14">
+        <v>1092.7</v>
+      </c>
+      <c r="R14">
+        <v>26.8</v>
+      </c>
+      <c r="S14">
+        <v>38.4</v>
+      </c>
+      <c r="T14">
+        <v>2.2</v>
+      </c>
+      <c r="U14">
+        <v>8.24</v>
+      </c>
+      <c r="V14">
+        <v>121.8</v>
+      </c>
+      <c r="W14">
+        <v>133.4</v>
+      </c>
+      <c r="X14">
+        <v>168</v>
+      </c>
+      <c r="Y14">
+        <v>20.9</v>
+      </c>
+      <c r="Z14">
+        <v>1.44</v>
+      </c>
+      <c r="AA14">
+        <v>0.168</v>
+      </c>
+      <c r="AB14">
+        <v>7.09</v>
+      </c>
+      <c r="AC14">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AD14">
+        <v>11.4</v>
+      </c>
+      <c r="AE14">
+        <v>6.52</v>
+      </c>
+      <c r="AF14">
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:86">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="s">
+        <v>169</v>
+      </c>
+      <c r="N15">
+        <v>3.28</v>
+      </c>
+      <c r="O15">
+        <v>4.24</v>
+      </c>
+      <c r="P15">
+        <v>1110.5</v>
+      </c>
+      <c r="Q15">
+        <v>1158.7</v>
+      </c>
+      <c r="R15">
+        <v>21.6</v>
+      </c>
+      <c r="S15">
+        <v>36.7</v>
+      </c>
+      <c r="U15">
+        <v>6.06</v>
+      </c>
+      <c r="V15">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="W15">
+        <v>144.3</v>
+      </c>
+      <c r="X15">
+        <v>176.8</v>
+      </c>
+      <c r="Y15">
+        <v>47</v>
+      </c>
+      <c r="Z15">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AA15">
+        <v>0.149</v>
+      </c>
+      <c r="AB15">
+        <v>5.08</v>
+      </c>
+      <c r="AC15">
+        <v>6.25</v>
+      </c>
+      <c r="AD15">
+        <v>7.74</v>
+      </c>
+      <c r="AE15">
+        <v>5.25</v>
+      </c>
+      <c r="AF15">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:86">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" t="s">
+        <v>170</v>
+      </c>
+      <c r="N16">
+        <v>14.8</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>1088.5</v>
+      </c>
+      <c r="Q16">
+        <v>1027.9</v>
+      </c>
+      <c r="R16">
+        <v>55.4</v>
+      </c>
+      <c r="S16">
+        <v>62.3</v>
+      </c>
+      <c r="T16">
+        <v>2.38</v>
+      </c>
+      <c r="U16">
+        <v>11.8</v>
+      </c>
+      <c r="V16">
+        <v>135.4</v>
+      </c>
+      <c r="W16">
+        <v>171.8</v>
+      </c>
+      <c r="X16">
+        <v>217.7</v>
+      </c>
+      <c r="Y16">
+        <v>30.8</v>
+      </c>
+      <c r="Z16">
+        <v>0.713</v>
+      </c>
+      <c r="AA16">
+        <v>0.412</v>
+      </c>
+      <c r="AB16">
+        <v>7.37</v>
+      </c>
+      <c r="AC16">
+        <v>9.43</v>
+      </c>
+      <c r="AD16">
+        <v>10.3</v>
+      </c>
+      <c r="AE16">
+        <v>4.87</v>
+      </c>
+      <c r="AF16">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="s">
+        <v>171</v>
+      </c>
+      <c r="N17">
+        <v>10.5</v>
+      </c>
+      <c r="O17">
+        <v>12.9</v>
+      </c>
+      <c r="P17">
+        <v>423.9</v>
+      </c>
+      <c r="Q17">
+        <v>324.6</v>
+      </c>
+      <c r="V17">
+        <v>264.3</v>
+      </c>
+      <c r="Z17">
+        <v>2.2</v>
+      </c>
+      <c r="AA17">
+        <v>0.218</v>
+      </c>
+      <c r="AD17">
+        <v>9.24</v>
+      </c>
+      <c r="AE17">
+        <v>1.82</v>
+      </c>
+      <c r="AF17">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="s">
+        <v>172</v>
+      </c>
+      <c r="X19">
+        <v>161.3</v>
+      </c>
+      <c r="Y19">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62">
+      <c r="A20" t="s">
         <v>104</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20" t="s">
+        <v>166</v>
+      </c>
+      <c r="N20">
+        <v>14.9</v>
+      </c>
+      <c r="O20">
+        <v>14.5</v>
+      </c>
+      <c r="P20">
+        <v>2182.8</v>
+      </c>
+      <c r="Q20">
+        <v>2279.4</v>
+      </c>
+      <c r="V20">
+        <v>50.3</v>
+      </c>
+      <c r="X20">
+        <v>231.3</v>
+      </c>
+      <c r="Y20">
+        <v>31.6</v>
+      </c>
+      <c r="Z20">
+        <v>3.69</v>
+      </c>
+      <c r="AA20">
+        <v>0.38</v>
+      </c>
+      <c r="AG20">
+        <v>22.6</v>
+      </c>
+      <c r="AH20">
+        <v>19.4</v>
+      </c>
+      <c r="AI20">
+        <v>12.6</v>
+      </c>
+      <c r="AJ20">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" t="s">
+        <v>158</v>
+      </c>
+      <c r="M21" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK21">
+        <v>63.7</v>
+      </c>
+      <c r="AL21">
+        <v>0.101</v>
+      </c>
+      <c r="AM21">
+        <v>0.076</v>
+      </c>
+      <c r="AN21">
+        <v>0.068</v>
+      </c>
+      <c r="AO21">
+        <v>0.124</v>
+      </c>
+      <c r="AP21">
+        <v>0.056</v>
+      </c>
+      <c r="AQ21">
+        <v>0.081</v>
+      </c>
+      <c r="BB21">
+        <v>6.78</v>
+      </c>
+      <c r="BC21">
+        <v>0.468</v>
+      </c>
+      <c r="BD21">
+        <v>6.64</v>
+      </c>
+      <c r="BE21">
+        <v>0.061</v>
+      </c>
+      <c r="BF21">
+        <v>4.12</v>
+      </c>
+      <c r="BG21">
+        <v>0.654</v>
+      </c>
+      <c r="BI21">
+        <v>3.61</v>
+      </c>
+      <c r="BJ21">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L22" t="s">
+        <v>154</v>
+      </c>
+      <c r="M22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK22">
+        <v>81.8</v>
+      </c>
+      <c r="AL22">
+        <v>0.227</v>
+      </c>
+      <c r="AM22">
+        <v>0.186</v>
+      </c>
+      <c r="AN22">
+        <v>0.621</v>
+      </c>
+      <c r="AO22">
+        <v>0.424</v>
+      </c>
+      <c r="AP22">
+        <v>0.194</v>
+      </c>
+      <c r="AQ22">
+        <v>0.247</v>
+      </c>
+      <c r="AR22">
+        <v>5.59</v>
+      </c>
+      <c r="AS22">
+        <v>0.576</v>
+      </c>
+      <c r="AT22">
+        <v>7.13</v>
+      </c>
+      <c r="AU22">
+        <v>0.531</v>
+      </c>
+      <c r="AV22">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AW22">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="AX22">
+        <v>7.76</v>
+      </c>
+      <c r="AY22">
+        <v>0.569</v>
+      </c>
+      <c r="AZ22">
+        <v>5.19</v>
+      </c>
+      <c r="BA22">
+        <v>5.59</v>
+      </c>
+      <c r="BB22">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="BC22">
+        <v>0.58</v>
+      </c>
+      <c r="BD22">
+        <v>7.76</v>
+      </c>
+      <c r="BE22">
+        <v>0.573</v>
+      </c>
+      <c r="BG22">
+        <v>0.136</v>
+      </c>
+      <c r="BH22">
+        <v>1.3</v>
+      </c>
+      <c r="BI22">
+        <v>5.19</v>
+      </c>
+      <c r="BJ22">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" t="s">
+        <v>154</v>
+      </c>
+      <c r="L23" t="s">
+        <v>157</v>
+      </c>
+      <c r="M23" t="s">
+        <v>163</v>
+      </c>
+      <c r="N23">
+        <v>22.6</v>
+      </c>
+      <c r="O23">
+        <v>24.9</v>
+      </c>
+      <c r="P23">
+        <v>1056.8</v>
+      </c>
+      <c r="Q23">
+        <v>1063.9</v>
+      </c>
+      <c r="R23">
+        <v>56.1</v>
+      </c>
+      <c r="S23">
+        <v>65.2</v>
+      </c>
+      <c r="U23">
+        <v>18.8</v>
+      </c>
+      <c r="V23">
+        <v>279.7</v>
+      </c>
+      <c r="W23">
+        <v>160.4</v>
+      </c>
+      <c r="X23">
+        <v>252.3</v>
+      </c>
+      <c r="Y23">
+        <v>17.3</v>
+      </c>
+      <c r="Z23">
+        <v>1.92</v>
+      </c>
+      <c r="AA23">
+        <v>0.649</v>
+      </c>
+      <c r="AB23">
+        <v>11.9</v>
+      </c>
+      <c r="AC23">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62">
+      <c r="A24" t="s">
         <v>108</v>
       </c>
-      <c r="F5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
         <v>122</v>
       </c>
-      <c r="I5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" t="s">
-        <v>133</v>
-      </c>
-      <c r="L5" t="s">
-        <v>133</v>
-      </c>
-      <c r="M5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:83">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="E24" t="s">
         <v>126</v>
       </c>
-      <c r="J6" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6" t="s">
-        <v>133</v>
-      </c>
-      <c r="M6" t="s">
-        <v>140</v>
-      </c>
-      <c r="X6">
-        <v>161.3</v>
-      </c>
-      <c r="Y6">
-        <v>74.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:83">
-      <c r="A7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N7">
-        <v>14.9</v>
-      </c>
-      <c r="O7">
-        <v>14.5</v>
-      </c>
-      <c r="P7">
-        <v>2182.8</v>
-      </c>
-      <c r="Q7">
-        <v>2279.4</v>
-      </c>
-      <c r="V7">
-        <v>50.3</v>
-      </c>
-      <c r="X7">
-        <v>231.3</v>
-      </c>
-      <c r="Y7">
-        <v>31.6</v>
-      </c>
-      <c r="Z7">
-        <v>3.69</v>
-      </c>
-      <c r="AA7">
-        <v>0.38</v>
-      </c>
-      <c r="AD7">
-        <v>22.6</v>
-      </c>
-      <c r="AE7">
-        <v>19.4</v>
-      </c>
-      <c r="AF7">
-        <v>12.6</v>
-      </c>
-      <c r="AG7">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:83">
-      <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="F24" t="s">
         <v>130</v>
       </c>
-      <c r="K8" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8" t="s">
-        <v>135</v>
-      </c>
-      <c r="M8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH8">
-        <v>63.7</v>
-      </c>
-      <c r="AI8">
-        <v>0.101</v>
-      </c>
-      <c r="AJ8">
-        <v>0.076</v>
-      </c>
-      <c r="AK8">
-        <v>0.068</v>
-      </c>
-      <c r="AL8">
-        <v>0.124</v>
-      </c>
-      <c r="AM8">
-        <v>0.056</v>
-      </c>
-      <c r="AN8">
-        <v>0.081</v>
-      </c>
-      <c r="AY8">
-        <v>6.78</v>
-      </c>
-      <c r="AZ8">
-        <v>0.468</v>
-      </c>
-      <c r="BA8">
-        <v>6.64</v>
-      </c>
-      <c r="BB8">
-        <v>0.061</v>
-      </c>
-      <c r="BC8">
-        <v>4.12</v>
-      </c>
-      <c r="BD8">
-        <v>0.654</v>
-      </c>
-      <c r="BF8">
-        <v>3.61</v>
-      </c>
-      <c r="BG8">
-        <v>63.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:83">
-      <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" t="s">
-        <v>124</v>
-      </c>
-      <c r="J9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" t="s">
-        <v>131</v>
-      </c>
-      <c r="M9" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH9">
-        <v>81.8</v>
-      </c>
-      <c r="AI9">
-        <v>0.227</v>
-      </c>
-      <c r="AJ9">
-        <v>0.186</v>
-      </c>
-      <c r="AK9">
-        <v>0.621</v>
-      </c>
-      <c r="AL9">
-        <v>0.424</v>
-      </c>
-      <c r="AM9">
-        <v>0.194</v>
-      </c>
-      <c r="AN9">
-        <v>0.247</v>
-      </c>
-      <c r="AO9">
-        <v>5.59</v>
-      </c>
-      <c r="AP9">
-        <v>0.576</v>
-      </c>
-      <c r="AQ9">
-        <v>7.13</v>
-      </c>
-      <c r="AR9">
-        <v>0.531</v>
-      </c>
-      <c r="AS9">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AT9">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="AU9">
-        <v>7.76</v>
-      </c>
-      <c r="AV9">
-        <v>0.569</v>
-      </c>
-      <c r="AW9">
-        <v>5.19</v>
-      </c>
-      <c r="AX9">
-        <v>5.59</v>
-      </c>
-      <c r="AY9">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AZ9">
-        <v>0.58</v>
-      </c>
-      <c r="BA9">
-        <v>7.76</v>
-      </c>
-      <c r="BB9">
-        <v>0.573</v>
-      </c>
-      <c r="BD9">
-        <v>0.136</v>
-      </c>
-      <c r="BE9">
-        <v>1.3</v>
-      </c>
-      <c r="BF9">
-        <v>5.19</v>
-      </c>
-      <c r="BG9">
-        <v>81.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:83">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" t="s">
-        <v>119</v>
-      </c>
-      <c r="H10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" t="s">
-        <v>127</v>
-      </c>
-      <c r="K10" t="s">
-        <v>131</v>
-      </c>
-      <c r="L10" t="s">
-        <v>134</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="G24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" t="s">
         <v>143</v>
       </c>
-      <c r="N10">
-        <v>22.6</v>
-      </c>
-      <c r="O10">
-        <v>24.9</v>
-      </c>
-      <c r="P10">
-        <v>1056.8</v>
-      </c>
-      <c r="Q10">
-        <v>1063.9</v>
-      </c>
-      <c r="R10">
-        <v>56.1</v>
-      </c>
-      <c r="S10">
-        <v>65.2</v>
-      </c>
-      <c r="U10">
-        <v>18.8</v>
-      </c>
-      <c r="V10">
-        <v>279.7</v>
-      </c>
-      <c r="W10">
-        <v>160.4</v>
-      </c>
-      <c r="X10">
-        <v>252.3</v>
-      </c>
-      <c r="Y10">
-        <v>17.3</v>
-      </c>
-      <c r="Z10">
-        <v>1.92</v>
-      </c>
-      <c r="AA10">
-        <v>0.649</v>
-      </c>
-      <c r="AB10">
-        <v>11.9</v>
-      </c>
-      <c r="AC10">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:83">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" t="s">
-        <v>131</v>
-      </c>
-      <c r="L11" t="s">
-        <v>131</v>
-      </c>
-      <c r="M11" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH11">
+      <c r="I24" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" t="s">
+        <v>154</v>
+      </c>
+      <c r="M24" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK24">
         <v>78.90000000000001</v>
       </c>
-      <c r="AI11">
+      <c r="AL24">
         <v>0.161</v>
       </c>
-      <c r="AJ11">
+      <c r="AM24">
         <v>0.291</v>
       </c>
-      <c r="AK11">
+      <c r="AN24">
         <v>0.514</v>
       </c>
-      <c r="AL11">
+      <c r="AO24">
         <v>0.47</v>
       </c>
-      <c r="AM11">
+      <c r="AP24">
         <v>0.066</v>
       </c>
-      <c r="AN11">
+      <c r="AQ24">
         <v>0.305</v>
       </c>
-      <c r="AO11">
+      <c r="AR24">
         <v>5.32</v>
       </c>
-      <c r="AP11">
+      <c r="AS24">
         <v>0.656</v>
       </c>
-      <c r="AQ11">
+      <c r="AT24">
         <v>6.85</v>
       </c>
-      <c r="AR11">
+      <c r="AU24">
         <v>0.572</v>
       </c>
-      <c r="AS11">
+      <c r="AV24">
         <v>7.85</v>
       </c>
-      <c r="AT11">
+      <c r="AW24">
         <v>0.591</v>
       </c>
-      <c r="AU11">
+      <c r="AX24">
         <v>7.43</v>
       </c>
-      <c r="AV11">
+      <c r="AY24">
         <v>0.589</v>
       </c>
-      <c r="AW11">
+      <c r="AZ24">
         <v>4.76</v>
       </c>
-      <c r="AX11">
+      <c r="BA24">
         <v>5.32</v>
       </c>
-      <c r="AY11">
+      <c r="BB24">
         <v>7.85</v>
       </c>
-      <c r="AZ11">
+      <c r="BC24">
         <v>0.608</v>
       </c>
-      <c r="BA11">
+      <c r="BD24">
         <v>7.43</v>
       </c>
-      <c r="BB11">
+      <c r="BE24">
         <v>0.589</v>
       </c>
-      <c r="BD11">
+      <c r="BG24">
         <v>0.173</v>
       </c>
-      <c r="BE11">
+      <c r="BH24">
         <v>0.173</v>
       </c>
-      <c r="BF11">
+      <c r="BI24">
         <v>4.65</v>
       </c>
-      <c r="BG11">
+      <c r="BJ24">
         <v>78.90000000000001</v>
       </c>
     </row>
@@ -2056,7 +3294,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2068,186 +3306,282 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/database/MIT_database.xlsx
+++ b/database/MIT_database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="397">
   <si>
     <t>RunID</t>
   </si>
@@ -77,6 +77,33 @@
     <t>Rear bracket force DS</t>
   </si>
   <si>
+    <t>Lap bracket force</t>
+  </si>
+  <si>
+    <t>HA torque</t>
+  </si>
+  <si>
+    <t>Backrest x displ</t>
+  </si>
+  <si>
+    <t>PELVIS DX</t>
+  </si>
+  <si>
+    <t>PELVIS DZ</t>
+  </si>
+  <si>
+    <t>Tilt Axial Force</t>
+  </si>
+  <si>
+    <t>Tilt Shear Force</t>
+  </si>
+  <si>
+    <t>Track sliding DS</t>
+  </si>
+  <si>
+    <t>Track sliding TS</t>
+  </si>
+  <si>
     <t>Front bracket force DS</t>
   </si>
   <si>
@@ -86,12 +113,6 @@
     <t>Belt bracket force</t>
   </si>
   <si>
-    <t>Lap bracket force</t>
-  </si>
-  <si>
-    <t>HA torque</t>
-  </si>
-  <si>
     <t>Backrest dynamic angle DS</t>
   </si>
   <si>
@@ -104,27 +125,6 @@
     <t>Backrest static angle TS</t>
   </si>
   <si>
-    <t>Backrest x displ</t>
-  </si>
-  <si>
-    <t>PELVIS DX</t>
-  </si>
-  <si>
-    <t>PELVIS DZ</t>
-  </si>
-  <si>
-    <t>Tilt Axial Force</t>
-  </si>
-  <si>
-    <t>Tilt Shear Force</t>
-  </si>
-  <si>
-    <t>Track sliding DS</t>
-  </si>
-  <si>
-    <t>Track sliding TS</t>
-  </si>
-  <si>
     <t>Jack pulling force - TRK sub</t>
   </si>
   <si>
@@ -293,18 +293,18 @@
     <t>Res Force Pinion-Collar-2</t>
   </si>
   <si>
+    <t>GR206929</t>
+  </si>
+  <si>
+    <t>GR207006</t>
+  </si>
+  <si>
+    <t>GR207090</t>
+  </si>
+  <si>
     <t>GR206405</t>
   </si>
   <si>
-    <t>GR206929</t>
-  </si>
-  <si>
-    <t>GR207006</t>
-  </si>
-  <si>
-    <t>GR207090</t>
-  </si>
-  <si>
     <t>GR208060</t>
   </si>
   <si>
@@ -596,12 +596,12 @@
     <t>GR206436</t>
   </si>
   <si>
+    <t>VOLVO</t>
+  </si>
+  <si>
     <t>GM</t>
   </si>
   <si>
-    <t>VOLVO</t>
-  </si>
-  <si>
     <t>NIS</t>
   </si>
   <si>
@@ -614,12 +614,12 @@
     <t>PSA</t>
   </si>
   <si>
+    <t xml:space="preserve"> SPA2-F</t>
+  </si>
+  <si>
     <t xml:space="preserve"> L233</t>
   </si>
   <si>
-    <t xml:space="preserve"> SPA2-F</t>
-  </si>
-  <si>
     <t xml:space="preserve"> P33B</t>
   </si>
   <si>
@@ -638,15 +638,15 @@
     <t xml:space="preserve"> C4</t>
   </si>
   <si>
+    <t>8WP</t>
+  </si>
+  <si>
+    <t>8WPP</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>8WP</t>
-  </si>
-  <si>
-    <t>8WPP</t>
-  </si>
-  <si>
     <t>10WP</t>
   </si>
   <si>
@@ -656,12 +656,12 @@
     <t>6WP</t>
   </si>
   <si>
+    <t>Front Crash</t>
+  </si>
+  <si>
     <t>Mechanisms SubSys</t>
   </si>
   <si>
-    <t>Front Crash</t>
-  </si>
-  <si>
     <t>Rear Crash</t>
   </si>
   <si>
@@ -704,15 +704,15 @@
     <t>TopTether</t>
   </si>
   <si>
+    <t xml:space="preserve"> D95</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D50</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> D95</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D50</t>
-  </si>
-  <si>
     <t xml:space="preserve"> D05</t>
   </si>
   <si>
@@ -731,12 +731,12 @@
     <t xml:space="preserve"> IFX</t>
   </si>
   <si>
+    <t>K04-0</t>
+  </si>
+  <si>
     <t>RC70</t>
   </si>
   <si>
-    <t>K04-0</t>
-  </si>
-  <si>
     <t>PV-phase-N</t>
   </si>
   <si>
@@ -761,15 +761,15 @@
     <t>F05</t>
   </si>
   <si>
+    <t>Tracks:rear most</t>
+  </si>
+  <si>
+    <t>Tracks:middle</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>Tracks:rear most</t>
-  </si>
-  <si>
-    <t>Tracks:middle</t>
-  </si>
-  <si>
     <t>Tracks:front most</t>
   </si>
   <si>
@@ -839,33 +839,33 @@
     <t xml:space="preserve"> Luggage-010</t>
   </si>
   <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>OK Limit</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>OK Limit</t>
-  </si>
-  <si>
     <t>NOK Limit</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
+    <t>FC95 RmDm</t>
+  </si>
+  <si>
+    <t>FC50 MpMp</t>
+  </si>
+  <si>
+    <t>FC95 RmMp</t>
+  </si>
+  <si>
     <t>__ _</t>
   </si>
   <si>
-    <t>FC95 RmDm</t>
-  </si>
-  <si>
-    <t>FC50 MpMp</t>
-  </si>
-  <si>
-    <t>FC95 RmMp</t>
-  </si>
-  <si>
     <t>FC95 MpDm</t>
   </si>
   <si>
@@ -1170,6 +1170,15 @@
   </si>
   <si>
     <t>12-01-2021 12:06:51</t>
+  </si>
+  <si>
+    <t>12-01-2021 13:45:01</t>
+  </si>
+  <si>
+    <t>12-01-2021 13:45:54</t>
+  </si>
+  <si>
+    <t>12-01-2021 13:46:28</t>
   </si>
   <si>
     <t>GR206929,GR207006,GR207090</t>
@@ -1267,22 +1276,22 @@
     <tableColumn id="18" name="Belt displacement DS"/>
     <tableColumn id="19" name="Belt displacement TS"/>
     <tableColumn id="20" name="Rear bracket force DS"/>
-    <tableColumn id="21" name="Front bracket force DS"/>
-    <tableColumn id="22" name="Front bracket force TS"/>
-    <tableColumn id="23" name="Belt bracket force"/>
-    <tableColumn id="24" name="Lap bracket force"/>
-    <tableColumn id="25" name="HA torque"/>
-    <tableColumn id="26" name="Backrest dynamic angle DS"/>
-    <tableColumn id="27" name="Backrest dynamic angle TS"/>
-    <tableColumn id="28" name="Backrest static angle DS"/>
-    <tableColumn id="29" name="Backrest static angle TS"/>
-    <tableColumn id="30" name="Backrest x displ"/>
-    <tableColumn id="31" name="PELVIS DX"/>
-    <tableColumn id="32" name="PELVIS DZ"/>
-    <tableColumn id="33" name="Tilt Axial Force"/>
-    <tableColumn id="34" name="Tilt Shear Force"/>
-    <tableColumn id="35" name="Track sliding DS"/>
-    <tableColumn id="36" name="Track sliding TS"/>
+    <tableColumn id="21" name="Lap bracket force"/>
+    <tableColumn id="22" name="HA torque"/>
+    <tableColumn id="23" name="Backrest x displ"/>
+    <tableColumn id="24" name="PELVIS DX"/>
+    <tableColumn id="25" name="PELVIS DZ"/>
+    <tableColumn id="26" name="Tilt Axial Force"/>
+    <tableColumn id="27" name="Tilt Shear Force"/>
+    <tableColumn id="28" name="Track sliding DS"/>
+    <tableColumn id="29" name="Track sliding TS"/>
+    <tableColumn id="30" name="Front bracket force DS"/>
+    <tableColumn id="31" name="Front bracket force TS"/>
+    <tableColumn id="32" name="Belt bracket force"/>
+    <tableColumn id="33" name="Backrest dynamic angle DS"/>
+    <tableColumn id="34" name="Backrest dynamic angle TS"/>
+    <tableColumn id="35" name="Backrest static angle DS"/>
+    <tableColumn id="36" name="Backrest static angle TS"/>
     <tableColumn id="37" name="Jack pulling force - TRK sub"/>
     <tableColumn id="38" name="Recliner axial force DS"/>
     <tableColumn id="39" name="Recliner axial force TS"/>
@@ -1345,8 +1354,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="History__" displayName="History__" ref="A1:B70" totalsRowShown="0">
-  <autoFilter ref="A1:B70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="History__" displayName="History__" ref="A1:B73" totalsRowShown="0">
+  <autoFilter ref="A1:B73"/>
   <tableColumns count="2">
     <tableColumn id="1" name="time"/>
     <tableColumn id="2" name="runID"/>
@@ -1950,10 +1959,10 @@
         <v>248</v>
       </c>
       <c r="I2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="J2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="K2" t="s">
         <v>274</v>
@@ -1963,6 +1972,51 @@
       </c>
       <c r="M2" t="s">
         <v>279</v>
+      </c>
+      <c r="N2">
+        <v>17.5</v>
+      </c>
+      <c r="O2">
+        <v>22.7</v>
+      </c>
+      <c r="P2">
+        <v>1226.8</v>
+      </c>
+      <c r="Q2">
+        <v>1148.5</v>
+      </c>
+      <c r="R2">
+        <v>52.1</v>
+      </c>
+      <c r="S2">
+        <v>49.3</v>
+      </c>
+      <c r="U2">
+        <v>15</v>
+      </c>
+      <c r="V2">
+        <v>347.7</v>
+      </c>
+      <c r="W2">
+        <v>134.7</v>
+      </c>
+      <c r="X2">
+        <v>204.4</v>
+      </c>
+      <c r="Y2">
+        <v>14.4</v>
+      </c>
+      <c r="Z2">
+        <v>1.11</v>
+      </c>
+      <c r="AA2">
+        <v>0.586</v>
+      </c>
+      <c r="AB2">
+        <v>10.7</v>
+      </c>
+      <c r="AC2">
+        <v>12.7</v>
       </c>
     </row>
     <row r="3" spans="1:92">
@@ -1970,28 +2024,28 @@
         <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
         <v>230</v>
       </c>
       <c r="G3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H3" t="s">
         <v>249</v>
       </c>
       <c r="I3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J3" t="s">
         <v>260</v>
@@ -2000,55 +2054,58 @@
         <v>275</v>
       </c>
       <c r="L3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M3" t="s">
         <v>280</v>
       </c>
       <c r="N3">
-        <v>17.5</v>
+        <v>16.3</v>
       </c>
       <c r="O3">
-        <v>22.7</v>
+        <v>17.3</v>
       </c>
       <c r="P3">
-        <v>1226.8</v>
+        <v>1155.5</v>
       </c>
       <c r="Q3">
-        <v>1148.5</v>
+        <v>1029.7</v>
       </c>
       <c r="R3">
-        <v>52.1</v>
+        <v>42.6</v>
       </c>
       <c r="S3">
-        <v>49.3</v>
+        <v>39.3</v>
+      </c>
+      <c r="T3">
+        <v>1.88</v>
+      </c>
+      <c r="U3">
+        <v>11.5</v>
+      </c>
+      <c r="V3">
+        <v>305.8</v>
+      </c>
+      <c r="W3">
+        <v>137.3</v>
       </c>
       <c r="X3">
-        <v>15</v>
+        <v>209.2</v>
       </c>
       <c r="Y3">
-        <v>347.7</v>
-      </c>
-      <c r="AD3">
-        <v>134.7</v>
-      </c>
-      <c r="AE3">
-        <v>204.4</v>
-      </c>
-      <c r="AF3">
-        <v>14.4</v>
-      </c>
-      <c r="AG3">
-        <v>1.11</v>
-      </c>
-      <c r="AH3">
-        <v>0.586</v>
-      </c>
-      <c r="AI3">
-        <v>10.7</v>
-      </c>
-      <c r="AJ3">
-        <v>12.7</v>
+        <v>26.2</v>
+      </c>
+      <c r="Z3">
+        <v>0.732</v>
+      </c>
+      <c r="AA3">
+        <v>0.387</v>
+      </c>
+      <c r="AB3">
+        <v>9.25</v>
+      </c>
+      <c r="AC3">
+        <v>10.6</v>
       </c>
     </row>
     <row r="4" spans="1:92">
@@ -2056,25 +2113,25 @@
         <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
         <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I4" t="s">
         <v>256</v>
@@ -2083,7 +2140,7 @@
         <v>260</v>
       </c>
       <c r="K4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L4" t="s">
         <v>277</v>
@@ -2092,51 +2149,42 @@
         <v>281</v>
       </c>
       <c r="N4">
-        <v>16.3</v>
+        <v>18</v>
       </c>
       <c r="O4">
-        <v>17.3</v>
+        <v>22.8</v>
       </c>
       <c r="P4">
-        <v>1155.5</v>
+        <v>1006.4</v>
       </c>
       <c r="Q4">
-        <v>1029.7</v>
+        <v>1011.8</v>
       </c>
       <c r="R4">
-        <v>42.6</v>
+        <v>65.3</v>
       </c>
       <c r="S4">
-        <v>39.3</v>
-      </c>
-      <c r="T4">
-        <v>1.88</v>
+        <v>63.1</v>
+      </c>
+      <c r="U4">
+        <v>14.3</v>
+      </c>
+      <c r="V4">
+        <v>332</v>
+      </c>
+      <c r="W4">
+        <v>173.6</v>
       </c>
       <c r="X4">
-        <v>11.5</v>
+        <v>224.4</v>
       </c>
       <c r="Y4">
-        <v>305.8</v>
-      </c>
-      <c r="AD4">
-        <v>137.3</v>
-      </c>
-      <c r="AE4">
-        <v>209.2</v>
-      </c>
-      <c r="AF4">
-        <v>26.2</v>
-      </c>
-      <c r="AG4">
-        <v>0.732</v>
-      </c>
-      <c r="AH4">
-        <v>0.387</v>
-      </c>
-      <c r="AI4">
-        <v>9.25</v>
-      </c>
-      <c r="AJ4">
+        <v>14.7</v>
+      </c>
+      <c r="AB4">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="AC4">
         <v>10.6</v>
       </c>
     </row>
@@ -2157,67 +2205,28 @@
         <v>214</v>
       </c>
       <c r="F5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G5" t="s">
         <v>239</v>
       </c>
       <c r="H5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="J5" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="K5" t="s">
         <v>276</v>
       </c>
       <c r="L5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M5" t="s">
         <v>282</v>
-      </c>
-      <c r="N5">
-        <v>18</v>
-      </c>
-      <c r="O5">
-        <v>22.8</v>
-      </c>
-      <c r="P5">
-        <v>1006.4</v>
-      </c>
-      <c r="Q5">
-        <v>1011.8</v>
-      </c>
-      <c r="R5">
-        <v>65.3</v>
-      </c>
-      <c r="S5">
-        <v>63.1</v>
-      </c>
-      <c r="X5">
-        <v>14.3</v>
-      </c>
-      <c r="Y5">
-        <v>332</v>
-      </c>
-      <c r="AD5">
-        <v>173.6</v>
-      </c>
-      <c r="AE5">
-        <v>224.4</v>
-      </c>
-      <c r="AF5">
-        <v>14.7</v>
-      </c>
-      <c r="AI5">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="AJ5">
-        <v>10.6</v>
       </c>
     </row>
     <row r="6" spans="1:92">
@@ -2225,25 +2234,25 @@
         <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
         <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I6" t="s">
         <v>256</v>
@@ -2255,10 +2264,10 @@
         <v>277</v>
       </c>
       <c r="L6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N6">
         <v>15.6</v>
@@ -2279,40 +2288,40 @@
         <v>67.7</v>
       </c>
       <c r="U6">
+        <v>14.2</v>
+      </c>
+      <c r="V6">
+        <v>348.1</v>
+      </c>
+      <c r="W6">
+        <v>179.1</v>
+      </c>
+      <c r="X6">
+        <v>214.3</v>
+      </c>
+      <c r="Y6">
+        <v>18.3</v>
+      </c>
+      <c r="Z6">
+        <v>2.3</v>
+      </c>
+      <c r="AA6">
+        <v>0.297</v>
+      </c>
+      <c r="AB6">
+        <v>8.92</v>
+      </c>
+      <c r="AC6">
+        <v>12.6</v>
+      </c>
+      <c r="AD6">
         <v>10</v>
       </c>
-      <c r="V6">
+      <c r="AE6">
         <v>7.5</v>
       </c>
-      <c r="W6">
+      <c r="AF6">
         <v>14.5</v>
-      </c>
-      <c r="X6">
-        <v>14.2</v>
-      </c>
-      <c r="Y6">
-        <v>348.1</v>
-      </c>
-      <c r="AD6">
-        <v>179.1</v>
-      </c>
-      <c r="AE6">
-        <v>214.3</v>
-      </c>
-      <c r="AF6">
-        <v>18.3</v>
-      </c>
-      <c r="AG6">
-        <v>2.3</v>
-      </c>
-      <c r="AH6">
-        <v>0.297</v>
-      </c>
-      <c r="AI6">
-        <v>8.92</v>
-      </c>
-      <c r="AJ6">
-        <v>12.6</v>
       </c>
     </row>
     <row r="7" spans="1:92">
@@ -2320,25 +2329,25 @@
         <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
         <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I7" t="s">
         <v>255</v>
@@ -2347,10 +2356,10 @@
         <v>260</v>
       </c>
       <c r="K7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M7" t="s">
         <v>283</v>
@@ -2374,40 +2383,40 @@
         <v>54.6</v>
       </c>
       <c r="U7">
+        <v>16.1</v>
+      </c>
+      <c r="V7">
+        <v>327.6</v>
+      </c>
+      <c r="W7">
+        <v>125.4</v>
+      </c>
+      <c r="X7">
+        <v>220.6</v>
+      </c>
+      <c r="Y7">
+        <v>24.2</v>
+      </c>
+      <c r="Z7">
+        <v>2.11</v>
+      </c>
+      <c r="AA7">
+        <v>0.312</v>
+      </c>
+      <c r="AB7">
+        <v>10.6</v>
+      </c>
+      <c r="AC7">
+        <v>13.5</v>
+      </c>
+      <c r="AD7">
         <v>15.4</v>
       </c>
-      <c r="V7">
+      <c r="AE7">
         <v>9.720000000000001</v>
       </c>
-      <c r="W7">
+      <c r="AF7">
         <v>16.1</v>
-      </c>
-      <c r="X7">
-        <v>16.1</v>
-      </c>
-      <c r="Y7">
-        <v>327.6</v>
-      </c>
-      <c r="AD7">
-        <v>125.4</v>
-      </c>
-      <c r="AE7">
-        <v>220.6</v>
-      </c>
-      <c r="AF7">
-        <v>24.2</v>
-      </c>
-      <c r="AG7">
-        <v>2.11</v>
-      </c>
-      <c r="AH7">
-        <v>0.312</v>
-      </c>
-      <c r="AI7">
-        <v>10.6</v>
-      </c>
-      <c r="AJ7">
-        <v>13.5</v>
       </c>
     </row>
     <row r="8" spans="1:92">
@@ -2415,25 +2424,25 @@
         <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I8" t="s">
         <v>256</v>
@@ -2442,13 +2451,13 @@
         <v>260</v>
       </c>
       <c r="K8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L8" t="s">
         <v>277</v>
       </c>
       <c r="M8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N8">
         <v>16.6</v>
@@ -2472,40 +2481,40 @@
         <v>1.97</v>
       </c>
       <c r="U8">
+        <v>11.7</v>
+      </c>
+      <c r="V8">
+        <v>312.1</v>
+      </c>
+      <c r="W8">
+        <v>138.1</v>
+      </c>
+      <c r="X8">
+        <v>198</v>
+      </c>
+      <c r="Y8">
+        <v>24.9</v>
+      </c>
+      <c r="Z8">
+        <v>0.534</v>
+      </c>
+      <c r="AA8">
+        <v>0.449</v>
+      </c>
+      <c r="AB8">
+        <v>9.52</v>
+      </c>
+      <c r="AC8">
+        <v>11.2</v>
+      </c>
+      <c r="AD8">
         <v>10.1</v>
       </c>
-      <c r="V8">
+      <c r="AE8">
         <v>6.59</v>
       </c>
-      <c r="W8">
+      <c r="AF8">
         <v>12.3</v>
-      </c>
-      <c r="X8">
-        <v>11.7</v>
-      </c>
-      <c r="Y8">
-        <v>312.1</v>
-      </c>
-      <c r="AD8">
-        <v>138.1</v>
-      </c>
-      <c r="AE8">
-        <v>198</v>
-      </c>
-      <c r="AF8">
-        <v>24.9</v>
-      </c>
-      <c r="AG8">
-        <v>0.534</v>
-      </c>
-      <c r="AH8">
-        <v>0.449</v>
-      </c>
-      <c r="AI8">
-        <v>9.52</v>
-      </c>
-      <c r="AJ8">
-        <v>11.2</v>
       </c>
     </row>
     <row r="9" spans="1:92">
@@ -2513,22 +2522,22 @@
         <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F9" t="s">
         <v>232</v>
       </c>
       <c r="G9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H9" t="s">
         <v>251</v>
@@ -2540,7 +2549,7 @@
         <v>260</v>
       </c>
       <c r="K9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L9" t="s">
         <v>277</v>
@@ -2567,40 +2576,40 @@
         <v>36.9</v>
       </c>
       <c r="U9">
+        <v>6.3</v>
+      </c>
+      <c r="V9">
+        <v>225.4</v>
+      </c>
+      <c r="W9">
+        <v>153.8</v>
+      </c>
+      <c r="X9">
+        <v>165.8</v>
+      </c>
+      <c r="Y9">
+        <v>33</v>
+      </c>
+      <c r="Z9">
+        <v>0.172</v>
+      </c>
+      <c r="AA9">
+        <v>0.136</v>
+      </c>
+      <c r="AB9">
+        <v>4.77</v>
+      </c>
+      <c r="AC9">
+        <v>6.46</v>
+      </c>
+      <c r="AD9">
         <v>8.19</v>
       </c>
-      <c r="V9">
+      <c r="AE9">
         <v>6.11</v>
       </c>
-      <c r="W9">
+      <c r="AF9">
         <v>7.31</v>
-      </c>
-      <c r="X9">
-        <v>6.3</v>
-      </c>
-      <c r="Y9">
-        <v>225.4</v>
-      </c>
-      <c r="AD9">
-        <v>153.8</v>
-      </c>
-      <c r="AE9">
-        <v>165.8</v>
-      </c>
-      <c r="AF9">
-        <v>33</v>
-      </c>
-      <c r="AG9">
-        <v>0.172</v>
-      </c>
-      <c r="AH9">
-        <v>0.136</v>
-      </c>
-      <c r="AI9">
-        <v>4.77</v>
-      </c>
-      <c r="AJ9">
-        <v>6.46</v>
       </c>
     </row>
     <row r="10" spans="1:92">
@@ -2608,25 +2617,25 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I10" t="s">
         <v>255</v>
@@ -2635,13 +2644,13 @@
         <v>260</v>
       </c>
       <c r="K10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N10">
         <v>19.2</v>
@@ -2662,40 +2671,40 @@
         <v>47.3</v>
       </c>
       <c r="U10">
+        <v>15</v>
+      </c>
+      <c r="V10">
+        <v>326.7</v>
+      </c>
+      <c r="W10">
+        <v>132.9</v>
+      </c>
+      <c r="X10">
+        <v>199.5</v>
+      </c>
+      <c r="Y10">
+        <v>11.9</v>
+      </c>
+      <c r="Z10">
+        <v>1.4</v>
+      </c>
+      <c r="AA10">
+        <v>0.504</v>
+      </c>
+      <c r="AB10">
+        <v>11.8</v>
+      </c>
+      <c r="AC10">
+        <v>13</v>
+      </c>
+      <c r="AD10">
         <v>15.6</v>
       </c>
-      <c r="V10">
+      <c r="AE10">
         <v>10.7</v>
       </c>
-      <c r="W10">
+      <c r="AF10">
         <v>14.7</v>
-      </c>
-      <c r="X10">
-        <v>15</v>
-      </c>
-      <c r="Y10">
-        <v>326.7</v>
-      </c>
-      <c r="AD10">
-        <v>132.9</v>
-      </c>
-      <c r="AE10">
-        <v>199.5</v>
-      </c>
-      <c r="AF10">
-        <v>11.9</v>
-      </c>
-      <c r="AG10">
-        <v>1.4</v>
-      </c>
-      <c r="AH10">
-        <v>0.504</v>
-      </c>
-      <c r="AI10">
-        <v>11.8</v>
-      </c>
-      <c r="AJ10">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:92">
@@ -2703,10 +2712,10 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
         <v>210</v>
@@ -2715,13 +2724,13 @@
         <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I11" t="s">
         <v>255</v>
@@ -2733,7 +2742,7 @@
         <v>277</v>
       </c>
       <c r="L11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M11" t="s">
         <v>285</v>
@@ -2747,23 +2756,23 @@
       <c r="Q11">
         <v>1958.1</v>
       </c>
-      <c r="U11">
+      <c r="V11">
+        <v>69.7</v>
+      </c>
+      <c r="X11">
+        <v>187.2</v>
+      </c>
+      <c r="Y11">
+        <v>23.1</v>
+      </c>
+      <c r="AD11">
         <v>16</v>
       </c>
-      <c r="V11">
+      <c r="AE11">
         <v>13.9</v>
       </c>
-      <c r="W11">
+      <c r="AF11">
         <v>3.07</v>
-      </c>
-      <c r="Y11">
-        <v>69.7</v>
-      </c>
-      <c r="AE11">
-        <v>187.2</v>
-      </c>
-      <c r="AF11">
-        <v>23.1</v>
       </c>
     </row>
     <row r="12" spans="1:92">
@@ -2771,25 +2780,25 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" t="s">
         <v>215</v>
       </c>
       <c r="F12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I12" t="s">
         <v>255</v>
@@ -2801,7 +2810,7 @@
         <v>277</v>
       </c>
       <c r="L12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M12" t="s">
         <v>286</v>
@@ -2818,29 +2827,29 @@
       <c r="Q12">
         <v>2125.9</v>
       </c>
-      <c r="U12">
+      <c r="V12">
+        <v>42.3</v>
+      </c>
+      <c r="X12">
+        <v>229.5</v>
+      </c>
+      <c r="Y12">
+        <v>28.2</v>
+      </c>
+      <c r="Z12">
+        <v>1.69</v>
+      </c>
+      <c r="AA12">
+        <v>0.349</v>
+      </c>
+      <c r="AD12">
         <v>14.3</v>
       </c>
-      <c r="V12">
+      <c r="AE12">
         <v>15.2</v>
       </c>
-      <c r="W12">
+      <c r="AF12">
         <v>2.62</v>
-      </c>
-      <c r="Y12">
-        <v>42.3</v>
-      </c>
-      <c r="AE12">
-        <v>229.5</v>
-      </c>
-      <c r="AF12">
-        <v>28.2</v>
-      </c>
-      <c r="AG12">
-        <v>1.69</v>
-      </c>
-      <c r="AH12">
-        <v>0.349</v>
       </c>
     </row>
     <row r="13" spans="1:92">
@@ -2848,22 +2857,22 @@
         <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
         <v>216</v>
       </c>
       <c r="F13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H13" t="s">
         <v>252</v>
@@ -2875,10 +2884,10 @@
         <v>263</v>
       </c>
       <c r="K13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M13" t="s">
         <v>287</v>
@@ -2895,26 +2904,26 @@
       <c r="Q13">
         <v>1796.9</v>
       </c>
-      <c r="U13">
+      <c r="V13">
+        <v>156.2</v>
+      </c>
+      <c r="W13">
+        <v>255.5</v>
+      </c>
+      <c r="Z13">
+        <v>0.249</v>
+      </c>
+      <c r="AA13">
+        <v>0.111</v>
+      </c>
+      <c r="AD13">
         <v>11.6</v>
       </c>
-      <c r="V13">
+      <c r="AE13">
         <v>10.8</v>
       </c>
-      <c r="W13">
+      <c r="AF13">
         <v>1.39</v>
-      </c>
-      <c r="Y13">
-        <v>156.2</v>
-      </c>
-      <c r="AD13">
-        <v>255.5</v>
-      </c>
-      <c r="AG13">
-        <v>0.249</v>
-      </c>
-      <c r="AH13">
-        <v>0.111</v>
       </c>
     </row>
     <row r="14" spans="1:92">
@@ -2922,25 +2931,25 @@
         <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
         <v>210</v>
       </c>
       <c r="E14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14" t="s">
         <v>232</v>
       </c>
       <c r="G14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I14" t="s">
         <v>257</v>
@@ -2949,10 +2958,10 @@
         <v>260</v>
       </c>
       <c r="K14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M14" t="s">
         <v>288</v>
@@ -2979,40 +2988,40 @@
         <v>2.2</v>
       </c>
       <c r="U14">
+        <v>8.24</v>
+      </c>
+      <c r="V14">
+        <v>121.8</v>
+      </c>
+      <c r="W14">
+        <v>133.4</v>
+      </c>
+      <c r="X14">
+        <v>168</v>
+      </c>
+      <c r="Y14">
+        <v>20.9</v>
+      </c>
+      <c r="Z14">
+        <v>1.44</v>
+      </c>
+      <c r="AA14">
+        <v>0.168</v>
+      </c>
+      <c r="AB14">
+        <v>7.09</v>
+      </c>
+      <c r="AC14">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="AD14">
         <v>11.4</v>
       </c>
-      <c r="V14">
+      <c r="AE14">
         <v>6.52</v>
       </c>
-      <c r="W14">
+      <c r="AF14">
         <v>8.359999999999999</v>
-      </c>
-      <c r="X14">
-        <v>8.24</v>
-      </c>
-      <c r="Y14">
-        <v>121.8</v>
-      </c>
-      <c r="AD14">
-        <v>133.4</v>
-      </c>
-      <c r="AE14">
-        <v>168</v>
-      </c>
-      <c r="AF14">
-        <v>20.9</v>
-      </c>
-      <c r="AG14">
-        <v>1.44</v>
-      </c>
-      <c r="AH14">
-        <v>0.168</v>
-      </c>
-      <c r="AI14">
-        <v>7.09</v>
-      </c>
-      <c r="AJ14">
-        <v>9.789999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:92">
@@ -3020,22 +3029,22 @@
         <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D15" t="s">
         <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F15" t="s">
         <v>232</v>
       </c>
       <c r="G15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H15" t="s">
         <v>251</v>
@@ -3047,10 +3056,10 @@
         <v>260</v>
       </c>
       <c r="K15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M15" t="s">
         <v>289</v>
@@ -3074,40 +3083,40 @@
         <v>36.7</v>
       </c>
       <c r="U15">
+        <v>6.06</v>
+      </c>
+      <c r="V15">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="W15">
+        <v>144.3</v>
+      </c>
+      <c r="X15">
+        <v>176.8</v>
+      </c>
+      <c r="Y15">
+        <v>47</v>
+      </c>
+      <c r="Z15">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AA15">
+        <v>0.149</v>
+      </c>
+      <c r="AB15">
+        <v>5.08</v>
+      </c>
+      <c r="AC15">
+        <v>6.25</v>
+      </c>
+      <c r="AD15">
         <v>7.74</v>
       </c>
-      <c r="V15">
+      <c r="AE15">
         <v>5.25</v>
       </c>
-      <c r="W15">
+      <c r="AF15">
         <v>6.97</v>
-      </c>
-      <c r="X15">
-        <v>6.06</v>
-      </c>
-      <c r="Y15">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="AD15">
-        <v>144.3</v>
-      </c>
-      <c r="AE15">
-        <v>176.8</v>
-      </c>
-      <c r="AF15">
-        <v>47</v>
-      </c>
-      <c r="AG15">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AH15">
-        <v>0.149</v>
-      </c>
-      <c r="AI15">
-        <v>5.08</v>
-      </c>
-      <c r="AJ15">
-        <v>6.25</v>
       </c>
     </row>
     <row r="16" spans="1:92">
@@ -3115,25 +3124,25 @@
         <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I16" t="s">
         <v>257</v>
@@ -3172,40 +3181,40 @@
         <v>2.38</v>
       </c>
       <c r="U16">
+        <v>11.8</v>
+      </c>
+      <c r="V16">
+        <v>135.4</v>
+      </c>
+      <c r="W16">
+        <v>171.8</v>
+      </c>
+      <c r="X16">
+        <v>217.7</v>
+      </c>
+      <c r="Y16">
+        <v>30.8</v>
+      </c>
+      <c r="Z16">
+        <v>0.713</v>
+      </c>
+      <c r="AA16">
+        <v>0.412</v>
+      </c>
+      <c r="AB16">
+        <v>7.37</v>
+      </c>
+      <c r="AC16">
+        <v>9.43</v>
+      </c>
+      <c r="AD16">
         <v>10.3</v>
       </c>
-      <c r="V16">
+      <c r="AE16">
         <v>4.87</v>
       </c>
-      <c r="W16">
+      <c r="AF16">
         <v>12.4</v>
-      </c>
-      <c r="X16">
-        <v>11.8</v>
-      </c>
-      <c r="Y16">
-        <v>135.4</v>
-      </c>
-      <c r="AD16">
-        <v>171.8</v>
-      </c>
-      <c r="AE16">
-        <v>217.7</v>
-      </c>
-      <c r="AF16">
-        <v>30.8</v>
-      </c>
-      <c r="AG16">
-        <v>0.713</v>
-      </c>
-      <c r="AH16">
-        <v>0.412</v>
-      </c>
-      <c r="AI16">
-        <v>7.37</v>
-      </c>
-      <c r="AJ16">
-        <v>9.43</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -3213,10 +3222,10 @@
         <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D17" t="s">
         <v>210</v>
@@ -3228,22 +3237,22 @@
         <v>233</v>
       </c>
       <c r="G17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I17" t="s">
         <v>255</v>
       </c>
       <c r="J17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K17" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M17" t="s">
         <v>291</v>
@@ -3260,23 +3269,23 @@
       <c r="Q17">
         <v>324.6</v>
       </c>
-      <c r="U17">
+      <c r="V17">
+        <v>264.3</v>
+      </c>
+      <c r="Z17">
+        <v>2.2</v>
+      </c>
+      <c r="AA17">
+        <v>0.218</v>
+      </c>
+      <c r="AD17">
         <v>9.24</v>
       </c>
-      <c r="V17">
+      <c r="AE17">
         <v>1.82</v>
       </c>
-      <c r="W17">
+      <c r="AF17">
         <v>8.35</v>
-      </c>
-      <c r="Y17">
-        <v>264.3</v>
-      </c>
-      <c r="AG17">
-        <v>2.2</v>
-      </c>
-      <c r="AH17">
-        <v>0.218</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -3284,40 +3293,40 @@
         <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K18" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L18" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M18" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -3334,16 +3343,16 @@
         <v>211</v>
       </c>
       <c r="E19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G19" t="s">
         <v>240</v>
       </c>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I19" t="s">
         <v>258</v>
@@ -3352,18 +3361,18 @@
         <v>264</v>
       </c>
       <c r="K19" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L19" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M19" t="s">
         <v>292</v>
       </c>
-      <c r="AE19">
+      <c r="X19">
         <v>161.3</v>
       </c>
-      <c r="AF19">
+      <c r="Y19">
         <v>74.3</v>
       </c>
     </row>
@@ -3372,25 +3381,25 @@
         <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
         <v>215</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I20" t="s">
         <v>255</v>
@@ -3402,7 +3411,7 @@
         <v>277</v>
       </c>
       <c r="L20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M20" t="s">
         <v>286</v>
@@ -3419,32 +3428,32 @@
       <c r="Q20">
         <v>2279.4</v>
       </c>
+      <c r="V20">
+        <v>50.3</v>
+      </c>
+      <c r="X20">
+        <v>231.3</v>
+      </c>
       <c r="Y20">
-        <v>50.3</v>
+        <v>31.6</v>
       </c>
       <c r="Z20">
+        <v>3.69</v>
+      </c>
+      <c r="AA20">
+        <v>0.38</v>
+      </c>
+      <c r="AG20">
         <v>22.6</v>
       </c>
-      <c r="AA20">
+      <c r="AH20">
         <v>19.4</v>
       </c>
-      <c r="AB20">
+      <c r="AI20">
         <v>12.6</v>
       </c>
-      <c r="AC20">
+      <c r="AJ20">
         <v>10.1</v>
-      </c>
-      <c r="AE20">
-        <v>231.3</v>
-      </c>
-      <c r="AF20">
-        <v>31.6</v>
-      </c>
-      <c r="AG20">
-        <v>3.69</v>
-      </c>
-      <c r="AH20">
-        <v>0.38</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -3458,31 +3467,31 @@
         <v>202</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E21" t="s">
         <v>218</v>
       </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J21" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L21" t="s">
         <v>278</v>
       </c>
       <c r="M21" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N21">
         <v>1.15</v>
@@ -3505,7 +3514,7 @@
         <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
         <v>219</v>
@@ -3523,16 +3532,16 @@
         <v>258</v>
       </c>
       <c r="J22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L22" t="s">
         <v>278</v>
       </c>
       <c r="M22" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -3540,10 +3549,10 @@
         <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D23" t="s">
         <v>210</v>
@@ -3558,19 +3567,19 @@
         <v>242</v>
       </c>
       <c r="H23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I23" t="s">
         <v>255</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K23" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L23" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M23" t="s">
         <v>291</v>
@@ -3590,23 +3599,23 @@
       <c r="T23">
         <v>13.5</v>
       </c>
-      <c r="U23">
+      <c r="V23">
+        <v>253.8</v>
+      </c>
+      <c r="Z23">
+        <v>1.39</v>
+      </c>
+      <c r="AA23">
+        <v>0.074</v>
+      </c>
+      <c r="AD23">
         <v>10.7</v>
       </c>
-      <c r="V23">
+      <c r="AE23">
         <v>1.83</v>
       </c>
-      <c r="W23">
+      <c r="AF23">
         <v>9.720000000000001</v>
-      </c>
-      <c r="Y23">
-        <v>253.8</v>
-      </c>
-      <c r="AG23">
-        <v>1.39</v>
-      </c>
-      <c r="AH23">
-        <v>0.074</v>
       </c>
       <c r="AN23">
         <v>19.5</v>
@@ -3635,13 +3644,13 @@
         <v>243</v>
       </c>
       <c r="H24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I24" t="s">
         <v>255</v>
       </c>
       <c r="J24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
         <v>278</v>
@@ -3667,16 +3676,16 @@
         <v>212</v>
       </c>
       <c r="E25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G25" t="s">
         <v>243</v>
       </c>
       <c r="H25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I25" t="s">
         <v>257</v>
@@ -3708,29 +3717,29 @@
       <c r="T25">
         <v>7.14</v>
       </c>
-      <c r="U25">
+      <c r="V25">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="W25">
+        <v>125.7</v>
+      </c>
+      <c r="X25">
+        <v>276.3</v>
+      </c>
+      <c r="Y25">
+        <v>63.8</v>
+      </c>
+      <c r="Z25">
+        <v>1.15</v>
+      </c>
+      <c r="AA25">
+        <v>0.353</v>
+      </c>
+      <c r="AD25">
         <v>11.2</v>
       </c>
-      <c r="V25">
+      <c r="AE25">
         <v>8.800000000000001</v>
-      </c>
-      <c r="Y25">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="AD25">
-        <v>125.7</v>
-      </c>
-      <c r="AE25">
-        <v>276.3</v>
-      </c>
-      <c r="AF25">
-        <v>63.8</v>
-      </c>
-      <c r="AG25">
-        <v>1.15</v>
-      </c>
-      <c r="AH25">
-        <v>0.353</v>
       </c>
       <c r="AL25">
         <v>1.18</v>
@@ -3759,13 +3768,13 @@
         <v>215</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
         <v>243</v>
       </c>
       <c r="H26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I26" t="s">
         <v>256</v>
@@ -3774,7 +3783,7 @@
         <v>266</v>
       </c>
       <c r="K26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s">
         <v>278</v>
@@ -3797,23 +3806,23 @@
       <c r="T26">
         <v>7.17</v>
       </c>
-      <c r="U26">
+      <c r="V26">
+        <v>159.5</v>
+      </c>
+      <c r="W26">
+        <v>0.003</v>
+      </c>
+      <c r="Z26">
+        <v>1.16</v>
+      </c>
+      <c r="AA26">
+        <v>0.191</v>
+      </c>
+      <c r="AD26">
         <v>16.6</v>
       </c>
-      <c r="V26">
+      <c r="AE26">
         <v>15.8</v>
-      </c>
-      <c r="Y26">
-        <v>159.5</v>
-      </c>
-      <c r="AD26">
-        <v>0.003</v>
-      </c>
-      <c r="AG26">
-        <v>1.16</v>
-      </c>
-      <c r="AH26">
-        <v>0.191</v>
       </c>
       <c r="AL26">
         <v>6.23</v>
@@ -3842,7 +3851,7 @@
         <v>216</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
         <v>243</v>
@@ -3857,7 +3866,7 @@
         <v>263</v>
       </c>
       <c r="K27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L27" t="s">
         <v>278</v>
@@ -3880,23 +3889,23 @@
       <c r="T27">
         <v>5.76</v>
       </c>
-      <c r="U27">
+      <c r="V27">
+        <v>78.8</v>
+      </c>
+      <c r="W27">
+        <v>597.4</v>
+      </c>
+      <c r="Z27">
+        <v>0.13</v>
+      </c>
+      <c r="AA27">
+        <v>0.058</v>
+      </c>
+      <c r="AD27">
         <v>7.72</v>
       </c>
-      <c r="V27">
+      <c r="AE27">
         <v>7.76</v>
-      </c>
-      <c r="Y27">
-        <v>78.8</v>
-      </c>
-      <c r="AD27">
-        <v>597.4</v>
-      </c>
-      <c r="AG27">
-        <v>0.13</v>
-      </c>
-      <c r="AH27">
-        <v>0.058</v>
       </c>
       <c r="AL27">
         <v>3.57</v>
@@ -3913,10 +3922,10 @@
         <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D28" t="s">
         <v>210</v>
@@ -3931,19 +3940,19 @@
         <v>242</v>
       </c>
       <c r="H28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I28" t="s">
         <v>255</v>
       </c>
       <c r="J28" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s">
         <v>291</v>
@@ -3967,31 +3976,31 @@
         <v>13.7</v>
       </c>
       <c r="U28">
+        <v>9.75</v>
+      </c>
+      <c r="V28">
+        <v>254</v>
+      </c>
+      <c r="W28">
+        <v>67.8</v>
+      </c>
+      <c r="Z28">
+        <v>1.12</v>
+      </c>
+      <c r="AA28">
+        <v>0.064</v>
+      </c>
+      <c r="AB28">
+        <v>4.8</v>
+      </c>
+      <c r="AC28">
+        <v>6.58</v>
+      </c>
+      <c r="AD28">
         <v>9.109999999999999</v>
       </c>
-      <c r="V28">
+      <c r="AE28">
         <v>1.07</v>
-      </c>
-      <c r="X28">
-        <v>9.75</v>
-      </c>
-      <c r="Y28">
-        <v>254</v>
-      </c>
-      <c r="AD28">
-        <v>67.8</v>
-      </c>
-      <c r="AG28">
-        <v>1.12</v>
-      </c>
-      <c r="AH28">
-        <v>0.064</v>
-      </c>
-      <c r="AI28">
-        <v>4.8</v>
-      </c>
-      <c r="AJ28">
-        <v>6.58</v>
       </c>
       <c r="AN28">
         <v>19.5</v>
@@ -4002,10 +4011,10 @@
         <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D29" t="s">
         <v>210</v>
@@ -4026,13 +4035,13 @@
         <v>257</v>
       </c>
       <c r="J29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s">
         <v>295</v>
@@ -4052,23 +4061,23 @@
       <c r="T29">
         <v>13.8</v>
       </c>
-      <c r="U29">
+      <c r="V29">
+        <v>30.4</v>
+      </c>
+      <c r="Z29">
+        <v>1.09</v>
+      </c>
+      <c r="AA29">
+        <v>0.11</v>
+      </c>
+      <c r="AD29">
         <v>6.17</v>
       </c>
-      <c r="V29">
+      <c r="AE29">
         <v>1.79</v>
       </c>
-      <c r="W29">
+      <c r="AF29">
         <v>11.8</v>
-      </c>
-      <c r="Y29">
-        <v>30.4</v>
-      </c>
-      <c r="AG29">
-        <v>1.09</v>
-      </c>
-      <c r="AH29">
-        <v>0.11</v>
       </c>
       <c r="AN29">
         <v>15</v>
@@ -4079,10 +4088,10 @@
         <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D30" t="s">
         <v>210</v>
@@ -4103,13 +4112,13 @@
         <v>257</v>
       </c>
       <c r="J30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s">
         <v>295</v>
@@ -4133,34 +4142,34 @@
         <v>13.5</v>
       </c>
       <c r="U30">
+        <v>10.6</v>
+      </c>
+      <c r="V30">
+        <v>38</v>
+      </c>
+      <c r="W30">
+        <v>105.6</v>
+      </c>
+      <c r="Z30">
+        <v>0.775</v>
+      </c>
+      <c r="AA30">
+        <v>0.11</v>
+      </c>
+      <c r="AB30">
+        <v>267</v>
+      </c>
+      <c r="AC30">
+        <v>268.3</v>
+      </c>
+      <c r="AD30">
         <v>5.07</v>
       </c>
-      <c r="V30">
+      <c r="AE30">
         <v>1.61</v>
       </c>
-      <c r="W30">
+      <c r="AF30">
         <v>11.5</v>
-      </c>
-      <c r="X30">
-        <v>10.6</v>
-      </c>
-      <c r="Y30">
-        <v>38</v>
-      </c>
-      <c r="AD30">
-        <v>105.6</v>
-      </c>
-      <c r="AG30">
-        <v>0.775</v>
-      </c>
-      <c r="AH30">
-        <v>0.11</v>
-      </c>
-      <c r="AI30">
-        <v>267</v>
-      </c>
-      <c r="AJ30">
-        <v>268.3</v>
       </c>
       <c r="AN30">
         <v>15.2</v>
@@ -4171,10 +4180,10 @@
         <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D31" t="s">
         <v>210</v>
@@ -4189,19 +4198,19 @@
         <v>242</v>
       </c>
       <c r="H31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I31" t="s">
         <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K31" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s">
         <v>296</v>
@@ -4224,29 +4233,29 @@
       <c r="T31">
         <v>0.364</v>
       </c>
-      <c r="U31">
+      <c r="V31">
+        <v>32.6</v>
+      </c>
+      <c r="W31">
+        <v>40.6</v>
+      </c>
+      <c r="Z31">
+        <v>0.425</v>
+      </c>
+      <c r="AA31">
+        <v>0.042</v>
+      </c>
+      <c r="AB31">
+        <v>0.879</v>
+      </c>
+      <c r="AC31">
+        <v>2.59</v>
+      </c>
+      <c r="AD31">
         <v>4.52</v>
       </c>
-      <c r="V31">
+      <c r="AE31">
         <v>5.14</v>
-      </c>
-      <c r="Y31">
-        <v>32.6</v>
-      </c>
-      <c r="AD31">
-        <v>40.6</v>
-      </c>
-      <c r="AG31">
-        <v>0.425</v>
-      </c>
-      <c r="AH31">
-        <v>0.042</v>
-      </c>
-      <c r="AI31">
-        <v>0.879</v>
-      </c>
-      <c r="AJ31">
-        <v>2.59</v>
       </c>
       <c r="AN31">
         <v>3.48</v>
@@ -4257,25 +4266,25 @@
         <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
         <v>210</v>
       </c>
       <c r="E32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G32" t="s">
         <v>242</v>
       </c>
       <c r="H32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I32" t="s">
         <v>257</v>
@@ -4284,10 +4293,10 @@
         <v>260</v>
       </c>
       <c r="K32" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s">
         <v>290</v>
@@ -4311,40 +4320,40 @@
         <v>18.3</v>
       </c>
       <c r="U32">
+        <v>12.1</v>
+      </c>
+      <c r="V32">
+        <v>122.8</v>
+      </c>
+      <c r="W32">
+        <v>169.5</v>
+      </c>
+      <c r="X32">
+        <v>238.3</v>
+      </c>
+      <c r="Y32">
+        <v>57.3</v>
+      </c>
+      <c r="Z32">
+        <v>1.79</v>
+      </c>
+      <c r="AA32">
+        <v>0.431</v>
+      </c>
+      <c r="AB32">
+        <v>6.2</v>
+      </c>
+      <c r="AC32">
+        <v>9.58</v>
+      </c>
+      <c r="AD32">
         <v>11.9</v>
       </c>
-      <c r="V32">
+      <c r="AE32">
         <v>6.22</v>
       </c>
-      <c r="W32">
+      <c r="AF32">
         <v>13.1</v>
-      </c>
-      <c r="X32">
-        <v>12.1</v>
-      </c>
-      <c r="Y32">
-        <v>122.8</v>
-      </c>
-      <c r="AD32">
-        <v>169.5</v>
-      </c>
-      <c r="AE32">
-        <v>238.3</v>
-      </c>
-      <c r="AF32">
-        <v>57.3</v>
-      </c>
-      <c r="AG32">
-        <v>1.79</v>
-      </c>
-      <c r="AH32">
-        <v>0.431</v>
-      </c>
-      <c r="AI32">
-        <v>6.2</v>
-      </c>
-      <c r="AJ32">
-        <v>9.58</v>
       </c>
       <c r="AN32">
         <v>21.9</v>
@@ -4355,25 +4364,25 @@
         <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33" t="s">
         <v>210</v>
       </c>
       <c r="E33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G33" t="s">
         <v>242</v>
       </c>
       <c r="H33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I33" t="s">
         <v>256</v>
@@ -4382,13 +4391,13 @@
         <v>260</v>
       </c>
       <c r="K33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s">
         <v>277</v>
       </c>
       <c r="M33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N33">
         <v>18.3</v>
@@ -4412,40 +4421,40 @@
         <v>16.8</v>
       </c>
       <c r="U33">
+        <v>12.4</v>
+      </c>
+      <c r="V33">
+        <v>274.3</v>
+      </c>
+      <c r="W33">
+        <v>125.3</v>
+      </c>
+      <c r="X33">
+        <v>239.2</v>
+      </c>
+      <c r="Y33">
+        <v>48.4</v>
+      </c>
+      <c r="Z33">
+        <v>2.03</v>
+      </c>
+      <c r="AA33">
+        <v>0.554</v>
+      </c>
+      <c r="AB33">
+        <v>10.1</v>
+      </c>
+      <c r="AC33">
+        <v>10.6</v>
+      </c>
+      <c r="AD33">
         <v>12.6</v>
       </c>
-      <c r="V33">
+      <c r="AE33">
         <v>7.39</v>
       </c>
-      <c r="W33">
+      <c r="AF33">
         <v>14.3</v>
-      </c>
-      <c r="X33">
-        <v>12.4</v>
-      </c>
-      <c r="Y33">
-        <v>274.3</v>
-      </c>
-      <c r="AD33">
-        <v>125.3</v>
-      </c>
-      <c r="AE33">
-        <v>239.2</v>
-      </c>
-      <c r="AF33">
-        <v>48.4</v>
-      </c>
-      <c r="AG33">
-        <v>2.03</v>
-      </c>
-      <c r="AH33">
-        <v>0.554</v>
-      </c>
-      <c r="AI33">
-        <v>10.1</v>
-      </c>
-      <c r="AJ33">
-        <v>10.6</v>
       </c>
       <c r="AN33">
         <v>18.7</v>
@@ -4456,25 +4465,25 @@
         <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D34" t="s">
         <v>210</v>
       </c>
       <c r="E34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G34" t="s">
         <v>242</v>
       </c>
       <c r="H34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I34" t="s">
         <v>256</v>
@@ -4483,13 +4492,13 @@
         <v>267</v>
       </c>
       <c r="K34" t="s">
+        <v>275</v>
+      </c>
+      <c r="L34" t="s">
         <v>276</v>
       </c>
-      <c r="L34" t="s">
-        <v>274</v>
-      </c>
       <c r="M34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N34">
         <v>12.9</v>
@@ -4513,40 +4522,40 @@
         <v>11.2</v>
       </c>
       <c r="U34">
+        <v>8.32</v>
+      </c>
+      <c r="V34">
+        <v>190</v>
+      </c>
+      <c r="W34">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="X34">
+        <v>186.3</v>
+      </c>
+      <c r="Y34">
+        <v>44</v>
+      </c>
+      <c r="Z34">
+        <v>1.17</v>
+      </c>
+      <c r="AA34">
+        <v>0.484</v>
+      </c>
+      <c r="AB34">
+        <v>5.71</v>
+      </c>
+      <c r="AC34">
+        <v>6.71</v>
+      </c>
+      <c r="AD34">
         <v>9.24</v>
       </c>
-      <c r="V34">
+      <c r="AE34">
         <v>5.34</v>
       </c>
-      <c r="W34">
+      <c r="AF34">
         <v>9.359999999999999</v>
-      </c>
-      <c r="X34">
-        <v>8.32</v>
-      </c>
-      <c r="Y34">
-        <v>190</v>
-      </c>
-      <c r="AD34">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="AE34">
-        <v>186.3</v>
-      </c>
-      <c r="AF34">
-        <v>44</v>
-      </c>
-      <c r="AG34">
-        <v>1.17</v>
-      </c>
-      <c r="AH34">
-        <v>0.484</v>
-      </c>
-      <c r="AI34">
-        <v>5.71</v>
-      </c>
-      <c r="AJ34">
-        <v>6.71</v>
       </c>
       <c r="AN34">
         <v>14.1</v>
@@ -4557,10 +4566,10 @@
         <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D35" t="s">
         <v>210</v>
@@ -4569,13 +4578,13 @@
         <v>215</v>
       </c>
       <c r="F35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G35" t="s">
         <v>242</v>
       </c>
       <c r="H35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I35" t="s">
         <v>255</v>
@@ -4584,10 +4593,10 @@
         <v>261</v>
       </c>
       <c r="K35" t="s">
+        <v>275</v>
+      </c>
+      <c r="L35" t="s">
         <v>276</v>
-      </c>
-      <c r="L35" t="s">
-        <v>274</v>
       </c>
       <c r="M35" t="s">
         <v>285</v>
@@ -4607,26 +4616,26 @@
       <c r="T35">
         <v>4.17</v>
       </c>
-      <c r="U35">
+      <c r="V35">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="X35">
+        <v>191</v>
+      </c>
+      <c r="Y35">
+        <v>30</v>
+      </c>
+      <c r="Z35">
+        <v>0.797</v>
+      </c>
+      <c r="AA35">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="AD35">
         <v>16.2</v>
       </c>
-      <c r="V35">
+      <c r="AE35">
         <v>17.1</v>
-      </c>
-      <c r="Y35">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="AE35">
-        <v>191</v>
-      </c>
-      <c r="AF35">
-        <v>30</v>
-      </c>
-      <c r="AG35">
-        <v>0.797</v>
-      </c>
-      <c r="AH35">
-        <v>0.08699999999999999</v>
       </c>
       <c r="AN35">
         <v>14.1</v>
@@ -4637,10 +4646,10 @@
         <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
         <v>210</v>
@@ -4649,7 +4658,7 @@
         <v>216</v>
       </c>
       <c r="F36" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G36" t="s">
         <v>242</v>
@@ -4667,7 +4676,7 @@
         <v>277</v>
       </c>
       <c r="L36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s">
         <v>287</v>
@@ -4687,23 +4696,23 @@
       <c r="T36">
         <v>5.42</v>
       </c>
-      <c r="U36">
+      <c r="V36">
+        <v>166.3</v>
+      </c>
+      <c r="W36">
+        <v>238.6</v>
+      </c>
+      <c r="Z36">
+        <v>0.598</v>
+      </c>
+      <c r="AA36">
+        <v>0.139</v>
+      </c>
+      <c r="AD36">
         <v>12.8</v>
       </c>
-      <c r="V36">
+      <c r="AE36">
         <v>11.1</v>
-      </c>
-      <c r="Y36">
-        <v>166.3</v>
-      </c>
-      <c r="AD36">
-        <v>238.6</v>
-      </c>
-      <c r="AG36">
-        <v>0.598</v>
-      </c>
-      <c r="AH36">
-        <v>0.139</v>
       </c>
       <c r="AN36">
         <v>18.6</v>
@@ -4714,16 +4723,16 @@
         <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
         <v>210</v>
       </c>
       <c r="E37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F37" t="s">
         <v>232</v>
@@ -4732,7 +4741,7 @@
         <v>242</v>
       </c>
       <c r="H37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I37" t="s">
         <v>256</v>
@@ -4741,10 +4750,10 @@
         <v>260</v>
       </c>
       <c r="K37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s">
         <v>297</v>
@@ -4771,37 +4780,37 @@
         <v>14.8</v>
       </c>
       <c r="U37">
+        <v>10.1</v>
+      </c>
+      <c r="V37">
+        <v>198</v>
+      </c>
+      <c r="W37">
+        <v>100.1</v>
+      </c>
+      <c r="X37">
+        <v>145</v>
+      </c>
+      <c r="Y37">
+        <v>18.8</v>
+      </c>
+      <c r="Z37">
+        <v>1.27</v>
+      </c>
+      <c r="AA37">
+        <v>0.143</v>
+      </c>
+      <c r="AB37">
+        <v>7.76</v>
+      </c>
+      <c r="AC37">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="AD37">
         <v>13.4</v>
       </c>
-      <c r="W37">
+      <c r="AF37">
         <v>11.2</v>
-      </c>
-      <c r="X37">
-        <v>10.1</v>
-      </c>
-      <c r="Y37">
-        <v>198</v>
-      </c>
-      <c r="AD37">
-        <v>100.1</v>
-      </c>
-      <c r="AE37">
-        <v>145</v>
-      </c>
-      <c r="AF37">
-        <v>18.8</v>
-      </c>
-      <c r="AG37">
-        <v>1.27</v>
-      </c>
-      <c r="AH37">
-        <v>0.143</v>
-      </c>
-      <c r="AI37">
-        <v>7.76</v>
-      </c>
-      <c r="AJ37">
-        <v>8.640000000000001</v>
       </c>
       <c r="AN37">
         <v>16</v>
@@ -4812,25 +4821,25 @@
         <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D38" t="s">
         <v>210</v>
       </c>
       <c r="E38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G38" t="s">
         <v>242</v>
       </c>
       <c r="H38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I38" t="s">
         <v>255</v>
@@ -4842,7 +4851,7 @@
         <v>277</v>
       </c>
       <c r="L38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M38" t="s">
         <v>283</v>
@@ -4869,40 +4878,40 @@
         <v>1.15</v>
       </c>
       <c r="U38">
+        <v>18.9</v>
+      </c>
+      <c r="V38">
+        <v>318.2</v>
+      </c>
+      <c r="W38">
+        <v>112.8</v>
+      </c>
+      <c r="X38">
+        <v>268.4</v>
+      </c>
+      <c r="Y38">
+        <v>23</v>
+      </c>
+      <c r="Z38">
+        <v>3.72</v>
+      </c>
+      <c r="AA38">
+        <v>0.43</v>
+      </c>
+      <c r="AB38">
+        <v>10.9</v>
+      </c>
+      <c r="AC38">
+        <v>13.5</v>
+      </c>
+      <c r="AD38">
         <v>17.1</v>
       </c>
-      <c r="V38">
+      <c r="AE38">
         <v>10.5</v>
       </c>
-      <c r="W38">
+      <c r="AF38">
         <v>19</v>
-      </c>
-      <c r="X38">
-        <v>18.9</v>
-      </c>
-      <c r="Y38">
-        <v>318.2</v>
-      </c>
-      <c r="AD38">
-        <v>112.8</v>
-      </c>
-      <c r="AE38">
-        <v>268.4</v>
-      </c>
-      <c r="AF38">
-        <v>23</v>
-      </c>
-      <c r="AG38">
-        <v>3.72</v>
-      </c>
-      <c r="AH38">
-        <v>0.43</v>
-      </c>
-      <c r="AI38">
-        <v>10.9</v>
-      </c>
-      <c r="AJ38">
-        <v>13.5</v>
       </c>
       <c r="AN38">
         <v>22.3</v>
@@ -4913,25 +4922,25 @@
         <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D39" t="s">
         <v>210</v>
       </c>
       <c r="E39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G39" t="s">
         <v>242</v>
       </c>
       <c r="H39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I39" t="s">
         <v>256</v>
@@ -4943,10 +4952,10 @@
         <v>277</v>
       </c>
       <c r="L39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N39">
         <v>16.2</v>
@@ -4970,40 +4979,40 @@
         <v>1.11</v>
       </c>
       <c r="U39">
+        <v>15.5</v>
+      </c>
+      <c r="V39">
+        <v>313.4</v>
+      </c>
+      <c r="W39">
+        <v>123.8</v>
+      </c>
+      <c r="X39">
+        <v>238.8</v>
+      </c>
+      <c r="Y39">
+        <v>16.4</v>
+      </c>
+      <c r="Z39">
+        <v>2.3</v>
+      </c>
+      <c r="AA39">
+        <v>0.404</v>
+      </c>
+      <c r="AB39">
+        <v>10.4</v>
+      </c>
+      <c r="AC39">
+        <v>12.9</v>
+      </c>
+      <c r="AD39">
         <v>12.3</v>
       </c>
-      <c r="V39">
+      <c r="AE39">
         <v>7.57</v>
       </c>
-      <c r="W39">
+      <c r="AF39">
         <v>15.6</v>
-      </c>
-      <c r="X39">
-        <v>15.5</v>
-      </c>
-      <c r="Y39">
-        <v>313.4</v>
-      </c>
-      <c r="AD39">
-        <v>123.8</v>
-      </c>
-      <c r="AE39">
-        <v>238.8</v>
-      </c>
-      <c r="AF39">
-        <v>16.4</v>
-      </c>
-      <c r="AG39">
-        <v>2.3</v>
-      </c>
-      <c r="AH39">
-        <v>0.404</v>
-      </c>
-      <c r="AI39">
-        <v>10.4</v>
-      </c>
-      <c r="AJ39">
-        <v>12.9</v>
       </c>
       <c r="AN39">
         <v>23.5</v>
@@ -5014,25 +5023,25 @@
         <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D40" t="s">
         <v>210</v>
       </c>
       <c r="E40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G40" t="s">
         <v>242</v>
       </c>
       <c r="H40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I40" t="s">
         <v>255</v>
@@ -5041,13 +5050,13 @@
         <v>260</v>
       </c>
       <c r="K40" t="s">
+        <v>276</v>
+      </c>
+      <c r="L40" t="s">
         <v>274</v>
       </c>
-      <c r="L40" t="s">
-        <v>275</v>
-      </c>
       <c r="M40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N40">
         <v>18.7</v>
@@ -5071,40 +5080,40 @@
         <v>6.39</v>
       </c>
       <c r="U40">
+        <v>16.2</v>
+      </c>
+      <c r="V40">
+        <v>294.7</v>
+      </c>
+      <c r="W40">
+        <v>122.1</v>
+      </c>
+      <c r="X40">
+        <v>223.3</v>
+      </c>
+      <c r="Y40">
+        <v>15.7</v>
+      </c>
+      <c r="Z40">
+        <v>2.49</v>
+      </c>
+      <c r="AA40">
+        <v>0.43</v>
+      </c>
+      <c r="AB40">
+        <v>11.9</v>
+      </c>
+      <c r="AC40">
+        <v>12.8</v>
+      </c>
+      <c r="AD40">
         <v>16.1</v>
       </c>
-      <c r="V40">
+      <c r="AE40">
         <v>10.6</v>
       </c>
-      <c r="W40">
+      <c r="AF40">
         <v>16</v>
-      </c>
-      <c r="X40">
-        <v>16.2</v>
-      </c>
-      <c r="Y40">
-        <v>294.7</v>
-      </c>
-      <c r="AD40">
-        <v>122.1</v>
-      </c>
-      <c r="AE40">
-        <v>223.3</v>
-      </c>
-      <c r="AF40">
-        <v>15.7</v>
-      </c>
-      <c r="AG40">
-        <v>2.49</v>
-      </c>
-      <c r="AH40">
-        <v>0.43</v>
-      </c>
-      <c r="AI40">
-        <v>11.9</v>
-      </c>
-      <c r="AJ40">
-        <v>12.8</v>
       </c>
       <c r="AN40">
         <v>22.5</v>
@@ -5115,10 +5124,10 @@
         <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D41" t="s">
         <v>210</v>
@@ -5127,10 +5136,10 @@
         <v>216</v>
       </c>
       <c r="F41" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H41" t="s">
         <v>252</v>
@@ -5142,10 +5151,10 @@
         <v>263</v>
       </c>
       <c r="K41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M41" t="s">
         <v>287</v>
@@ -5162,16 +5171,16 @@
       <c r="Q41">
         <v>1822.5</v>
       </c>
-      <c r="Y41">
+      <c r="V41">
         <v>166.3</v>
       </c>
-      <c r="AD41">
+      <c r="W41">
         <v>258.1</v>
       </c>
-      <c r="AG41">
+      <c r="Z41">
         <v>0.801</v>
       </c>
-      <c r="AH41">
+      <c r="AA41">
         <v>0.119</v>
       </c>
     </row>
@@ -5180,10 +5189,10 @@
         <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D42" t="s">
         <v>210</v>
@@ -5192,10 +5201,10 @@
         <v>216</v>
       </c>
       <c r="F42" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H42" t="s">
         <v>252</v>
@@ -5210,7 +5219,7 @@
         <v>277</v>
       </c>
       <c r="L42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M42" t="s">
         <v>287</v>
@@ -5227,16 +5236,16 @@
       <c r="Q42">
         <v>1817.4</v>
       </c>
-      <c r="Y42">
+      <c r="V42">
         <v>182.9</v>
       </c>
-      <c r="AD42">
+      <c r="W42">
         <v>261.4</v>
       </c>
-      <c r="AG42">
+      <c r="Z42">
         <v>0.675</v>
       </c>
-      <c r="AH42">
+      <c r="AA42">
         <v>0.121</v>
       </c>
     </row>
@@ -5245,10 +5254,10 @@
         <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s">
         <v>210</v>
@@ -5257,13 +5266,13 @@
         <v>215</v>
       </c>
       <c r="F43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G43" t="s">
         <v>242</v>
       </c>
       <c r="H43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I43" t="s">
         <v>256</v>
@@ -5272,10 +5281,10 @@
         <v>261</v>
       </c>
       <c r="K43" t="s">
+        <v>275</v>
+      </c>
+      <c r="L43" t="s">
         <v>276</v>
-      </c>
-      <c r="L43" t="s">
-        <v>274</v>
       </c>
       <c r="M43" t="s">
         <v>298</v>
@@ -5292,26 +5301,26 @@
       <c r="Q43">
         <v>1970.5</v>
       </c>
-      <c r="Y43">
+      <c r="V43">
         <v>186.6</v>
       </c>
       <c r="Z43">
+        <v>1.14</v>
+      </c>
+      <c r="AA43">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="AG43">
         <v>18.8</v>
       </c>
-      <c r="AA43">
+      <c r="AH43">
         <v>15.4</v>
       </c>
-      <c r="AB43">
+      <c r="AI43">
         <v>9</v>
       </c>
-      <c r="AC43">
+      <c r="AJ43">
         <v>5.7</v>
-      </c>
-      <c r="AG43">
-        <v>1.14</v>
-      </c>
-      <c r="AH43">
-        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:40">
@@ -5319,10 +5328,10 @@
         <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D44" t="s">
         <v>210</v>
@@ -5334,22 +5343,22 @@
         <v>233</v>
       </c>
       <c r="G44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I44" t="s">
         <v>255</v>
       </c>
       <c r="J44" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K44" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M44" t="s">
         <v>291</v>
@@ -5366,13 +5375,13 @@
       <c r="Q44">
         <v>350.5</v>
       </c>
-      <c r="Y44">
+      <c r="V44">
         <v>285.1</v>
       </c>
-      <c r="AG44">
+      <c r="Z44">
         <v>2.12</v>
       </c>
-      <c r="AH44">
+      <c r="AA44">
         <v>0.235</v>
       </c>
     </row>
@@ -5381,10 +5390,10 @@
         <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
         <v>210</v>
@@ -5396,7 +5405,7 @@
         <v>233</v>
       </c>
       <c r="G45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H45" t="s">
         <v>251</v>
@@ -5405,13 +5414,13 @@
         <v>257</v>
       </c>
       <c r="J45" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K45" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L45" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M45" t="s">
         <v>295</v>
@@ -5428,13 +5437,13 @@
       <c r="Q45">
         <v>281.1</v>
       </c>
-      <c r="Y45">
+      <c r="V45">
         <v>209.5</v>
       </c>
-      <c r="AG45">
+      <c r="Z45">
         <v>1.48</v>
       </c>
-      <c r="AH45">
+      <c r="AA45">
         <v>0.233</v>
       </c>
     </row>
@@ -5443,25 +5452,25 @@
         <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D46" t="s">
         <v>210</v>
       </c>
       <c r="E46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H46" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I46" t="s">
         <v>257</v>
@@ -5470,10 +5479,10 @@
         <v>260</v>
       </c>
       <c r="K46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M46" t="s">
         <v>290</v>
@@ -5499,31 +5508,31 @@
       <c r="T46">
         <v>2.64</v>
       </c>
+      <c r="U46">
+        <v>12.8</v>
+      </c>
+      <c r="V46">
+        <v>144.5</v>
+      </c>
+      <c r="W46">
+        <v>265.8</v>
+      </c>
       <c r="X46">
-        <v>12.8</v>
+        <v>237.2</v>
       </c>
       <c r="Y46">
-        <v>144.5</v>
-      </c>
-      <c r="AD46">
-        <v>265.8</v>
-      </c>
-      <c r="AE46">
-        <v>237.2</v>
-      </c>
-      <c r="AF46">
         <v>62.7</v>
       </c>
-      <c r="AG46">
+      <c r="Z46">
         <v>0.962</v>
       </c>
-      <c r="AH46">
+      <c r="AA46">
         <v>0.171</v>
       </c>
-      <c r="AI46">
+      <c r="AB46">
         <v>7.6</v>
       </c>
-      <c r="AJ46">
+      <c r="AC46">
         <v>10.3</v>
       </c>
     </row>
@@ -5532,25 +5541,25 @@
         <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D47" t="s">
         <v>210</v>
       </c>
       <c r="E47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I47" t="s">
         <v>256</v>
@@ -5559,13 +5568,13 @@
         <v>260</v>
       </c>
       <c r="K47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N47">
         <v>14.8</v>
@@ -5585,31 +5594,31 @@
       <c r="S47">
         <v>90</v>
       </c>
+      <c r="U47">
+        <v>14.5</v>
+      </c>
+      <c r="V47">
+        <v>359.1</v>
+      </c>
+      <c r="W47">
+        <v>192.6</v>
+      </c>
       <c r="X47">
-        <v>14.5</v>
+        <v>230.6</v>
       </c>
       <c r="Y47">
-        <v>359.1</v>
-      </c>
-      <c r="AD47">
-        <v>192.6</v>
-      </c>
-      <c r="AE47">
-        <v>230.6</v>
-      </c>
-      <c r="AF47">
         <v>24.6</v>
       </c>
-      <c r="AG47">
+      <c r="Z47">
         <v>1.59</v>
       </c>
-      <c r="AH47">
+      <c r="AA47">
         <v>0.308</v>
       </c>
-      <c r="AI47">
+      <c r="AB47">
         <v>7.99</v>
       </c>
-      <c r="AJ47">
+      <c r="AC47">
         <v>13.1</v>
       </c>
     </row>
@@ -5618,25 +5627,25 @@
         <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D48" t="s">
         <v>210</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F48" t="s">
         <v>232</v>
       </c>
       <c r="G48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I48" t="s">
         <v>257</v>
@@ -5648,7 +5657,7 @@
         <v>277</v>
       </c>
       <c r="L48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M48" t="s">
         <v>288</v>
@@ -5674,31 +5683,31 @@
       <c r="T48">
         <v>1.95</v>
       </c>
+      <c r="U48">
+        <v>6.48</v>
+      </c>
+      <c r="V48">
+        <v>248.9</v>
+      </c>
+      <c r="W48">
+        <v>147.3</v>
+      </c>
       <c r="X48">
-        <v>6.48</v>
+        <v>143</v>
       </c>
       <c r="Y48">
-        <v>248.9</v>
-      </c>
-      <c r="AD48">
-        <v>147.3</v>
-      </c>
-      <c r="AE48">
-        <v>143</v>
-      </c>
-      <c r="AF48">
         <v>32.5</v>
       </c>
-      <c r="AG48">
+      <c r="Z48">
         <v>0.529</v>
       </c>
-      <c r="AH48">
+      <c r="AA48">
         <v>0.186</v>
       </c>
-      <c r="AI48">
+      <c r="AB48">
         <v>4.94</v>
       </c>
-      <c r="AJ48">
+      <c r="AC48">
         <v>7.53</v>
       </c>
     </row>
@@ -5707,25 +5716,25 @@
         <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s">
         <v>210</v>
       </c>
       <c r="E49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I49" t="s">
         <v>255</v>
@@ -5737,7 +5746,7 @@
         <v>277</v>
       </c>
       <c r="L49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M49" t="s">
         <v>283</v>
@@ -5760,31 +5769,31 @@
       <c r="S49">
         <v>52.2</v>
       </c>
+      <c r="U49">
+        <v>15.7</v>
+      </c>
+      <c r="V49">
+        <v>343.9</v>
+      </c>
+      <c r="W49">
+        <v>125.7</v>
+      </c>
       <c r="X49">
-        <v>15.7</v>
+        <v>211.7</v>
       </c>
       <c r="Y49">
-        <v>343.9</v>
-      </c>
-      <c r="AD49">
-        <v>125.7</v>
-      </c>
-      <c r="AE49">
-        <v>211.7</v>
-      </c>
-      <c r="AF49">
         <v>24.5</v>
       </c>
-      <c r="AG49">
+      <c r="Z49">
         <v>1.79</v>
       </c>
-      <c r="AH49">
+      <c r="AA49">
         <v>0.432</v>
       </c>
-      <c r="AI49">
+      <c r="AB49">
         <v>10.2</v>
       </c>
-      <c r="AJ49">
+      <c r="AC49">
         <v>12.7</v>
       </c>
     </row>
@@ -5793,22 +5802,22 @@
         <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D50" t="s">
         <v>210</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F50" t="s">
         <v>232</v>
       </c>
       <c r="G50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H50" t="s">
         <v>251</v>
@@ -5820,7 +5829,7 @@
         <v>260</v>
       </c>
       <c r="K50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L50" t="s">
         <v>277</v>
@@ -5849,31 +5858,31 @@
       <c r="T50">
         <v>2.32</v>
       </c>
+      <c r="U50">
+        <v>6.17</v>
+      </c>
+      <c r="V50">
+        <v>257</v>
+      </c>
+      <c r="W50">
+        <v>171.3</v>
+      </c>
       <c r="X50">
-        <v>6.17</v>
+        <v>137.1</v>
       </c>
       <c r="Y50">
-        <v>257</v>
-      </c>
-      <c r="AD50">
-        <v>171.3</v>
-      </c>
-      <c r="AE50">
-        <v>137.1</v>
-      </c>
-      <c r="AF50">
         <v>18.9</v>
       </c>
-      <c r="AG50">
+      <c r="Z50">
         <v>0.614</v>
       </c>
-      <c r="AH50">
+      <c r="AA50">
         <v>0.149</v>
       </c>
-      <c r="AI50">
+      <c r="AB50">
         <v>135.6</v>
       </c>
-      <c r="AJ50">
+      <c r="AC50">
         <v>137.7</v>
       </c>
     </row>
@@ -5882,25 +5891,25 @@
         <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D51" t="s">
         <v>210</v>
       </c>
       <c r="E51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F51" t="s">
         <v>232</v>
       </c>
       <c r="G51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I51" t="s">
         <v>257</v>
@@ -5912,7 +5921,7 @@
         <v>277</v>
       </c>
       <c r="L51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M51" t="s">
         <v>288</v>
@@ -5938,31 +5947,31 @@
       <c r="T51">
         <v>1.65</v>
       </c>
+      <c r="U51">
+        <v>8.19</v>
+      </c>
+      <c r="V51">
+        <v>265</v>
+      </c>
+      <c r="W51">
+        <v>179.9</v>
+      </c>
       <c r="X51">
-        <v>8.19</v>
+        <v>162.8</v>
       </c>
       <c r="Y51">
-        <v>265</v>
-      </c>
-      <c r="AD51">
-        <v>179.9</v>
-      </c>
-      <c r="AE51">
-        <v>162.8</v>
-      </c>
-      <c r="AF51">
         <v>32.5</v>
       </c>
-      <c r="AG51">
+      <c r="Z51">
         <v>1.15</v>
       </c>
-      <c r="AH51">
+      <c r="AA51">
         <v>0.226</v>
       </c>
-      <c r="AI51">
+      <c r="AB51">
         <v>4.62</v>
       </c>
-      <c r="AJ51">
+      <c r="AC51">
         <v>7.89</v>
       </c>
     </row>
@@ -5971,25 +5980,25 @@
         <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D52" t="s">
         <v>210</v>
       </c>
       <c r="E52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F52" t="s">
         <v>232</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I52" t="s">
         <v>256</v>
@@ -5998,10 +6007,10 @@
         <v>260</v>
       </c>
       <c r="K52" t="s">
+        <v>275</v>
+      </c>
+      <c r="L52" t="s">
         <v>276</v>
-      </c>
-      <c r="L52" t="s">
-        <v>274</v>
       </c>
       <c r="M52" t="s">
         <v>297</v>
@@ -6027,31 +6036,31 @@
       <c r="T52">
         <v>1.88</v>
       </c>
+      <c r="U52">
+        <v>7.7</v>
+      </c>
+      <c r="V52">
+        <v>237.5</v>
+      </c>
+      <c r="W52">
+        <v>104</v>
+      </c>
       <c r="X52">
-        <v>7.7</v>
+        <v>125.7</v>
       </c>
       <c r="Y52">
-        <v>237.5</v>
-      </c>
-      <c r="AD52">
-        <v>104</v>
-      </c>
-      <c r="AE52">
-        <v>125.7</v>
-      </c>
-      <c r="AF52">
         <v>16.7</v>
       </c>
-      <c r="AG52">
+      <c r="Z52">
         <v>2.06</v>
       </c>
-      <c r="AH52">
+      <c r="AA52">
         <v>0.194</v>
       </c>
-      <c r="AI52">
+      <c r="AB52">
         <v>6.33</v>
       </c>
-      <c r="AJ52">
+      <c r="AC52">
         <v>8.59</v>
       </c>
     </row>
@@ -6060,22 +6069,22 @@
         <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D53" t="s">
         <v>210</v>
       </c>
       <c r="E53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F53" t="s">
         <v>232</v>
       </c>
       <c r="G53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H53" t="s">
         <v>251</v>
@@ -6090,7 +6099,7 @@
         <v>277</v>
       </c>
       <c r="L53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M53" t="s">
         <v>289</v>
@@ -6113,31 +6122,31 @@
       <c r="S53">
         <v>41.8</v>
       </c>
+      <c r="U53">
+        <v>6.53</v>
+      </c>
+      <c r="V53">
+        <v>215.1</v>
+      </c>
+      <c r="W53">
+        <v>203.3</v>
+      </c>
       <c r="X53">
-        <v>6.53</v>
+        <v>218.4</v>
       </c>
       <c r="Y53">
-        <v>215.1</v>
-      </c>
-      <c r="AD53">
-        <v>203.3</v>
-      </c>
-      <c r="AE53">
-        <v>218.4</v>
-      </c>
-      <c r="AF53">
         <v>52.5</v>
       </c>
-      <c r="AG53">
+      <c r="Z53">
         <v>0.778</v>
       </c>
-      <c r="AH53">
+      <c r="AA53">
         <v>0.177</v>
       </c>
-      <c r="AI53">
+      <c r="AB53">
         <v>4.45</v>
       </c>
-      <c r="AJ53">
+      <c r="AC53">
         <v>6.45</v>
       </c>
     </row>
@@ -6146,25 +6155,25 @@
         <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F54" t="s">
         <v>232</v>
       </c>
       <c r="G54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I54" t="s">
         <v>255</v>
@@ -6173,10 +6182,10 @@
         <v>267</v>
       </c>
       <c r="K54" t="s">
+        <v>276</v>
+      </c>
+      <c r="L54" t="s">
         <v>274</v>
-      </c>
-      <c r="L54" t="s">
-        <v>275</v>
       </c>
       <c r="M54" t="s">
         <v>299</v>
@@ -6199,31 +6208,31 @@
       <c r="S54">
         <v>21</v>
       </c>
+      <c r="U54">
+        <v>5.32</v>
+      </c>
+      <c r="V54">
+        <v>162</v>
+      </c>
+      <c r="W54">
+        <v>63.7</v>
+      </c>
       <c r="X54">
-        <v>5.32</v>
+        <v>103.7</v>
       </c>
       <c r="Y54">
-        <v>162</v>
-      </c>
-      <c r="AD54">
-        <v>63.7</v>
-      </c>
-      <c r="AE54">
-        <v>103.7</v>
-      </c>
-      <c r="AF54">
         <v>17.7</v>
       </c>
-      <c r="AG54">
+      <c r="Z54">
         <v>0.154</v>
       </c>
-      <c r="AH54">
+      <c r="AA54">
         <v>0.117</v>
       </c>
-      <c r="AI54">
+      <c r="AB54">
         <v>4.1</v>
       </c>
-      <c r="AJ54">
+      <c r="AC54">
         <v>5</v>
       </c>
     </row>
@@ -6244,7 +6253,7 @@
         <v>216</v>
       </c>
       <c r="F55" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G55" t="s">
         <v>243</v>
@@ -6259,7 +6268,7 @@
         <v>263</v>
       </c>
       <c r="K55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L55" t="s">
         <v>277</v>
@@ -6282,23 +6291,23 @@
       <c r="T55">
         <v>5.84</v>
       </c>
-      <c r="U55">
+      <c r="V55">
+        <v>69.7</v>
+      </c>
+      <c r="W55">
+        <v>593.3</v>
+      </c>
+      <c r="Z55">
+        <v>0.119</v>
+      </c>
+      <c r="AA55">
+        <v>0.051</v>
+      </c>
+      <c r="AD55">
         <v>6.11</v>
       </c>
-      <c r="V55">
+      <c r="AE55">
         <v>7.95</v>
-      </c>
-      <c r="Y55">
-        <v>69.7</v>
-      </c>
-      <c r="AD55">
-        <v>593.3</v>
-      </c>
-      <c r="AG55">
-        <v>0.119</v>
-      </c>
-      <c r="AH55">
-        <v>0.051</v>
       </c>
       <c r="AL55">
         <v>3.55</v>
@@ -6333,13 +6342,13 @@
         <v>215</v>
       </c>
       <c r="F56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G56" t="s">
         <v>243</v>
       </c>
       <c r="H56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I56" t="s">
         <v>256</v>
@@ -6348,10 +6357,10 @@
         <v>266</v>
       </c>
       <c r="K56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M56" t="s">
         <v>294</v>
@@ -6371,23 +6380,23 @@
       <c r="T56">
         <v>8.58</v>
       </c>
-      <c r="U56">
+      <c r="V56">
+        <v>123.9</v>
+      </c>
+      <c r="W56">
+        <v>0.003</v>
+      </c>
+      <c r="Z56">
+        <v>1.19</v>
+      </c>
+      <c r="AA56">
+        <v>0.206</v>
+      </c>
+      <c r="AD56">
         <v>17.2</v>
       </c>
-      <c r="V56">
+      <c r="AE56">
         <v>16.9</v>
-      </c>
-      <c r="Y56">
-        <v>123.9</v>
-      </c>
-      <c r="AD56">
-        <v>0.003</v>
-      </c>
-      <c r="AG56">
-        <v>1.19</v>
-      </c>
-      <c r="AH56">
-        <v>0.206</v>
       </c>
       <c r="AL56">
         <v>5.26</v>
@@ -6422,13 +6431,13 @@
         <v>215</v>
       </c>
       <c r="F57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G57" t="s">
         <v>243</v>
       </c>
       <c r="H57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I57" t="s">
         <v>257</v>
@@ -6437,10 +6446,10 @@
         <v>266</v>
       </c>
       <c r="K57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M57" t="s">
         <v>300</v>
@@ -6460,23 +6469,23 @@
       <c r="T57">
         <v>9.619999999999999</v>
       </c>
-      <c r="U57">
+      <c r="V57">
+        <v>135.3</v>
+      </c>
+      <c r="W57">
+        <v>0.003</v>
+      </c>
+      <c r="Z57">
+        <v>1.03</v>
+      </c>
+      <c r="AA57">
+        <v>0.249</v>
+      </c>
+      <c r="AD57">
         <v>13.7</v>
       </c>
-      <c r="V57">
+      <c r="AE57">
         <v>19.1</v>
-      </c>
-      <c r="Y57">
-        <v>135.3</v>
-      </c>
-      <c r="AD57">
-        <v>0.003</v>
-      </c>
-      <c r="AG57">
-        <v>1.03</v>
-      </c>
-      <c r="AH57">
-        <v>0.249</v>
       </c>
       <c r="AL57">
         <v>3.3</v>
@@ -6511,13 +6520,13 @@
         <v>215</v>
       </c>
       <c r="F58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G58" t="s">
         <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I58" t="s">
         <v>255</v>
@@ -6526,10 +6535,10 @@
         <v>266</v>
       </c>
       <c r="K58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M58" t="s">
         <v>285</v>
@@ -6549,23 +6558,23 @@
       <c r="T58">
         <v>5.72</v>
       </c>
-      <c r="U58">
+      <c r="V58">
+        <v>64.2</v>
+      </c>
+      <c r="W58">
+        <v>0.003</v>
+      </c>
+      <c r="Z58">
+        <v>1.34</v>
+      </c>
+      <c r="AA58">
+        <v>0.229</v>
+      </c>
+      <c r="AD58">
         <v>18.1</v>
       </c>
-      <c r="V58">
+      <c r="AE58">
         <v>19.4</v>
-      </c>
-      <c r="Y58">
-        <v>64.2</v>
-      </c>
-      <c r="AD58">
-        <v>0.003</v>
-      </c>
-      <c r="AG58">
-        <v>1.34</v>
-      </c>
-      <c r="AH58">
-        <v>0.229</v>
       </c>
       <c r="AL58">
         <v>5.42</v>
@@ -6606,19 +6615,19 @@
         <v>243</v>
       </c>
       <c r="H59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I59" t="s">
         <v>255</v>
       </c>
       <c r="J59" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K59" t="s">
         <v>277</v>
       </c>
       <c r="L59" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M59" t="s">
         <v>291</v>
@@ -6638,23 +6647,23 @@
       <c r="T59">
         <v>5.63</v>
       </c>
-      <c r="U59">
+      <c r="V59">
+        <v>74.7</v>
+      </c>
+      <c r="W59">
+        <v>77.8</v>
+      </c>
+      <c r="Z59">
+        <v>0.529</v>
+      </c>
+      <c r="AA59">
+        <v>0.04</v>
+      </c>
+      <c r="AD59">
         <v>12.6</v>
       </c>
-      <c r="V59">
+      <c r="AE59">
         <v>5.9</v>
-      </c>
-      <c r="Y59">
-        <v>74.7</v>
-      </c>
-      <c r="AD59">
-        <v>77.8</v>
-      </c>
-      <c r="AG59">
-        <v>0.529</v>
-      </c>
-      <c r="AH59">
-        <v>0.04</v>
       </c>
       <c r="AL59">
         <v>1.44</v>
@@ -6686,16 +6695,16 @@
         <v>212</v>
       </c>
       <c r="E60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G60" t="s">
         <v>243</v>
       </c>
       <c r="H60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I60" t="s">
         <v>257</v>
@@ -6707,7 +6716,7 @@
         <v>277</v>
       </c>
       <c r="L60" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M60" t="s">
         <v>293</v>
@@ -6727,29 +6736,29 @@
       <c r="T60">
         <v>7.06</v>
       </c>
-      <c r="U60">
+      <c r="V60">
+        <v>93.5</v>
+      </c>
+      <c r="W60">
+        <v>123</v>
+      </c>
+      <c r="X60">
+        <v>270.2</v>
+      </c>
+      <c r="Y60">
+        <v>62.8</v>
+      </c>
+      <c r="Z60">
+        <v>1.23</v>
+      </c>
+      <c r="AA60">
+        <v>0.315</v>
+      </c>
+      <c r="AD60">
         <v>11.4</v>
       </c>
-      <c r="V60">
+      <c r="AE60">
         <v>9.51</v>
-      </c>
-      <c r="Y60">
-        <v>93.5</v>
-      </c>
-      <c r="AD60">
-        <v>123</v>
-      </c>
-      <c r="AE60">
-        <v>270.2</v>
-      </c>
-      <c r="AF60">
-        <v>62.8</v>
-      </c>
-      <c r="AG60">
-        <v>1.23</v>
-      </c>
-      <c r="AH60">
-        <v>0.315</v>
       </c>
       <c r="AL60">
         <v>1.5</v>
@@ -6781,16 +6790,16 @@
         <v>212</v>
       </c>
       <c r="E61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G61" t="s">
         <v>243</v>
       </c>
       <c r="H61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I61" t="s">
         <v>255</v>
@@ -6799,13 +6808,13 @@
         <v>265</v>
       </c>
       <c r="K61" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N61">
         <v>18.2</v>
@@ -6822,26 +6831,26 @@
       <c r="T61">
         <v>7.18</v>
       </c>
-      <c r="U61">
+      <c r="V61">
+        <v>83.5</v>
+      </c>
+      <c r="X61">
+        <v>227.9</v>
+      </c>
+      <c r="Y61">
+        <v>39</v>
+      </c>
+      <c r="Z61">
+        <v>1.4</v>
+      </c>
+      <c r="AA61">
+        <v>0.329</v>
+      </c>
+      <c r="AD61">
         <v>14.1</v>
       </c>
-      <c r="V61">
+      <c r="AE61">
         <v>11.1</v>
-      </c>
-      <c r="Y61">
-        <v>83.5</v>
-      </c>
-      <c r="AE61">
-        <v>227.9</v>
-      </c>
-      <c r="AF61">
-        <v>39</v>
-      </c>
-      <c r="AG61">
-        <v>1.4</v>
-      </c>
-      <c r="AH61">
-        <v>0.329</v>
       </c>
       <c r="AL61">
         <v>1.51</v>
@@ -6873,16 +6882,16 @@
         <v>212</v>
       </c>
       <c r="E62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G62" t="s">
         <v>243</v>
       </c>
       <c r="H62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I62" t="s">
         <v>255</v>
@@ -6891,10 +6900,10 @@
         <v>265</v>
       </c>
       <c r="K62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M62" t="s">
         <v>301</v>
@@ -6920,29 +6929,29 @@
       <c r="T62">
         <v>4.46</v>
       </c>
-      <c r="U62">
+      <c r="V62">
+        <v>73.5</v>
+      </c>
+      <c r="W62">
+        <v>102</v>
+      </c>
+      <c r="X62">
+        <v>234.7</v>
+      </c>
+      <c r="Y62">
+        <v>46.2</v>
+      </c>
+      <c r="Z62">
+        <v>1.63</v>
+      </c>
+      <c r="AA62">
+        <v>0.326</v>
+      </c>
+      <c r="AD62">
         <v>8.67</v>
       </c>
-      <c r="V62">
+      <c r="AE62">
         <v>7.94</v>
-      </c>
-      <c r="Y62">
-        <v>73.5</v>
-      </c>
-      <c r="AD62">
-        <v>102</v>
-      </c>
-      <c r="AE62">
-        <v>234.7</v>
-      </c>
-      <c r="AF62">
-        <v>46.2</v>
-      </c>
-      <c r="AG62">
-        <v>1.63</v>
-      </c>
-      <c r="AH62">
-        <v>0.326</v>
       </c>
       <c r="AL62">
         <v>1.79</v>
@@ -6965,10 +6974,10 @@
         <v>153</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D63" t="s">
         <v>210</v>
@@ -6983,16 +6992,16 @@
         <v>242</v>
       </c>
       <c r="H63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I63" t="s">
         <v>255</v>
       </c>
       <c r="J63" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K63" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L63" t="s">
         <v>277</v>
@@ -7018,29 +7027,29 @@
       <c r="T63">
         <v>3.28</v>
       </c>
-      <c r="U63">
+      <c r="V63">
+        <v>34.4</v>
+      </c>
+      <c r="W63">
+        <v>20.3</v>
+      </c>
+      <c r="Z63">
+        <v>0.396</v>
+      </c>
+      <c r="AA63">
+        <v>0.052</v>
+      </c>
+      <c r="AB63">
+        <v>0.83</v>
+      </c>
+      <c r="AC63">
+        <v>2.37</v>
+      </c>
+      <c r="AD63">
         <v>2.4</v>
       </c>
-      <c r="V63">
+      <c r="AE63">
         <v>5.34</v>
-      </c>
-      <c r="Y63">
-        <v>34.4</v>
-      </c>
-      <c r="AD63">
-        <v>20.3</v>
-      </c>
-      <c r="AG63">
-        <v>0.396</v>
-      </c>
-      <c r="AH63">
-        <v>0.052</v>
-      </c>
-      <c r="AI63">
-        <v>0.83</v>
-      </c>
-      <c r="AJ63">
-        <v>2.37</v>
       </c>
       <c r="AN63">
         <v>4.31</v>
@@ -7051,10 +7060,10 @@
         <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
         <v>210</v>
@@ -7063,13 +7072,13 @@
         <v>215</v>
       </c>
       <c r="F64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G64" t="s">
         <v>242</v>
       </c>
       <c r="H64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I64" t="s">
         <v>257</v>
@@ -7078,10 +7087,10 @@
         <v>261</v>
       </c>
       <c r="K64" t="s">
+        <v>275</v>
+      </c>
+      <c r="L64" t="s">
         <v>276</v>
-      </c>
-      <c r="L64" t="s">
-        <v>274</v>
       </c>
       <c r="M64" t="s">
         <v>302</v>
@@ -7101,23 +7110,23 @@
       <c r="T64">
         <v>2.26</v>
       </c>
-      <c r="U64">
+      <c r="V64">
+        <v>156.3</v>
+      </c>
+      <c r="Z64">
+        <v>1.39</v>
+      </c>
+      <c r="AA64">
+        <v>0.144</v>
+      </c>
+      <c r="AD64">
         <v>7.91</v>
       </c>
-      <c r="V64">
+      <c r="AE64">
         <v>6.82</v>
       </c>
-      <c r="W64">
+      <c r="AF64">
         <v>1.59</v>
-      </c>
-      <c r="Y64">
-        <v>156.3</v>
-      </c>
-      <c r="AG64">
-        <v>1.39</v>
-      </c>
-      <c r="AH64">
-        <v>0.144</v>
       </c>
       <c r="AN64">
         <v>12.6</v>
@@ -7128,10 +7137,10 @@
         <v>155</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D65" t="s">
         <v>210</v>
@@ -7140,13 +7149,13 @@
         <v>221</v>
       </c>
       <c r="F65" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G65" t="s">
         <v>242</v>
       </c>
       <c r="H65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I65" t="s">
         <v>256</v>
@@ -7155,10 +7164,10 @@
         <v>268</v>
       </c>
       <c r="K65" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L65" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M65" t="s">
         <v>303</v>
@@ -7166,14 +7175,14 @@
       <c r="T65">
         <v>2.13</v>
       </c>
-      <c r="U65">
+      <c r="V65">
+        <v>42.1</v>
+      </c>
+      <c r="AD65">
         <v>1.37</v>
       </c>
-      <c r="V65">
+      <c r="AE65">
         <v>2.77</v>
-      </c>
-      <c r="Y65">
-        <v>42.1</v>
       </c>
       <c r="AN65">
         <v>6.08</v>
@@ -7184,16 +7193,16 @@
         <v>156</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" t="s">
         <v>210</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F66" t="s">
         <v>232</v>
@@ -7211,10 +7220,10 @@
         <v>267</v>
       </c>
       <c r="K66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M66" t="s">
         <v>284</v>
@@ -7241,40 +7250,40 @@
         <v>8.44</v>
       </c>
       <c r="U66">
+        <v>5.28</v>
+      </c>
+      <c r="V66">
+        <v>135.8</v>
+      </c>
+      <c r="W66">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="X66">
+        <v>170.7</v>
+      </c>
+      <c r="Y66">
+        <v>22.6</v>
+      </c>
+      <c r="Z66">
+        <v>0.798</v>
+      </c>
+      <c r="AA66">
+        <v>0.419</v>
+      </c>
+      <c r="AB66">
+        <v>3.14</v>
+      </c>
+      <c r="AC66">
+        <v>4.3</v>
+      </c>
+      <c r="AD66">
         <v>6.43</v>
       </c>
-      <c r="V66">
+      <c r="AE66">
         <v>4.36</v>
       </c>
-      <c r="W66">
+      <c r="AF66">
         <v>6.59</v>
-      </c>
-      <c r="X66">
-        <v>5.28</v>
-      </c>
-      <c r="Y66">
-        <v>135.8</v>
-      </c>
-      <c r="AD66">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="AE66">
-        <v>170.7</v>
-      </c>
-      <c r="AF66">
-        <v>22.6</v>
-      </c>
-      <c r="AG66">
-        <v>0.798</v>
-      </c>
-      <c r="AH66">
-        <v>0.419</v>
-      </c>
-      <c r="AI66">
-        <v>3.14</v>
-      </c>
-      <c r="AJ66">
-        <v>4.3</v>
       </c>
       <c r="AN66">
         <v>10.1</v>
@@ -7285,10 +7294,10 @@
         <v>157</v>
       </c>
       <c r="B67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" t="s">
         <v>210</v>
@@ -7297,13 +7306,13 @@
         <v>215</v>
       </c>
       <c r="F67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G67" t="s">
         <v>242</v>
       </c>
       <c r="H67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I67" t="s">
         <v>255</v>
@@ -7315,7 +7324,7 @@
         <v>277</v>
       </c>
       <c r="L67" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M67" t="s">
         <v>286</v>
@@ -7335,32 +7344,32 @@
       <c r="T67">
         <v>3.13</v>
       </c>
-      <c r="U67">
+      <c r="V67">
+        <v>32.9</v>
+      </c>
+      <c r="X67">
+        <v>231.6</v>
+      </c>
+      <c r="Y67">
+        <v>37.1</v>
+      </c>
+      <c r="Z67">
+        <v>1.26</v>
+      </c>
+      <c r="AA67">
+        <v>0.112</v>
+      </c>
+      <c r="AD67">
         <v>14.8</v>
       </c>
-      <c r="V67">
+      <c r="AE67">
         <v>17.6</v>
       </c>
-      <c r="Y67">
-        <v>32.9</v>
-      </c>
-      <c r="Z67">
+      <c r="AG67">
         <v>0.02</v>
       </c>
-      <c r="AB67">
+      <c r="AI67">
         <v>0.02</v>
-      </c>
-      <c r="AE67">
-        <v>231.6</v>
-      </c>
-      <c r="AF67">
-        <v>37.1</v>
-      </c>
-      <c r="AG67">
-        <v>1.26</v>
-      </c>
-      <c r="AH67">
-        <v>0.112</v>
       </c>
       <c r="AN67">
         <v>5.84</v>
@@ -7371,10 +7380,10 @@
         <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" t="s">
         <v>210</v>
@@ -7383,13 +7392,13 @@
         <v>215</v>
       </c>
       <c r="F68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G68" t="s">
         <v>242</v>
       </c>
       <c r="H68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I68" t="s">
         <v>256</v>
@@ -7398,10 +7407,10 @@
         <v>261</v>
       </c>
       <c r="K68" t="s">
+        <v>275</v>
+      </c>
+      <c r="L68" t="s">
         <v>276</v>
-      </c>
-      <c r="L68" t="s">
-        <v>274</v>
       </c>
       <c r="M68" t="s">
         <v>298</v>
@@ -7421,20 +7430,20 @@
       <c r="T68">
         <v>2.7</v>
       </c>
-      <c r="U68">
+      <c r="V68">
+        <v>174.9</v>
+      </c>
+      <c r="Z68">
+        <v>1.35</v>
+      </c>
+      <c r="AA68">
+        <v>0.119</v>
+      </c>
+      <c r="AD68">
         <v>8.65</v>
       </c>
-      <c r="V68">
+      <c r="AE68">
         <v>8.74</v>
-      </c>
-      <c r="Y68">
-        <v>174.9</v>
-      </c>
-      <c r="AG68">
-        <v>1.35</v>
-      </c>
-      <c r="AH68">
-        <v>0.119</v>
       </c>
       <c r="AN68">
         <v>15.4</v>
@@ -7445,16 +7454,16 @@
         <v>159</v>
       </c>
       <c r="B69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" t="s">
         <v>210</v>
       </c>
       <c r="E69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F69" t="s">
         <v>232</v>
@@ -7463,7 +7472,7 @@
         <v>242</v>
       </c>
       <c r="H69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I69" t="s">
         <v>257</v>
@@ -7472,10 +7481,10 @@
         <v>260</v>
       </c>
       <c r="K69" t="s">
+        <v>276</v>
+      </c>
+      <c r="L69" t="s">
         <v>274</v>
-      </c>
-      <c r="L69" t="s">
-        <v>275</v>
       </c>
       <c r="M69" t="s">
         <v>288</v>
@@ -7502,34 +7511,34 @@
         <v>12.4</v>
       </c>
       <c r="U69">
+        <v>9.69</v>
+      </c>
+      <c r="V69">
+        <v>60.8</v>
+      </c>
+      <c r="W69">
+        <v>140.1</v>
+      </c>
+      <c r="X69">
+        <v>166.5</v>
+      </c>
+      <c r="Y69">
+        <v>24.8</v>
+      </c>
+      <c r="Z69">
+        <v>0.929</v>
+      </c>
+      <c r="AA69">
+        <v>0.101</v>
+      </c>
+      <c r="AB69">
+        <v>5.72</v>
+      </c>
+      <c r="AC69">
+        <v>7.72</v>
+      </c>
+      <c r="AD69">
         <v>9.73</v>
-      </c>
-      <c r="X69">
-        <v>9.69</v>
-      </c>
-      <c r="Y69">
-        <v>60.8</v>
-      </c>
-      <c r="AD69">
-        <v>140.1</v>
-      </c>
-      <c r="AE69">
-        <v>166.5</v>
-      </c>
-      <c r="AF69">
-        <v>24.8</v>
-      </c>
-      <c r="AG69">
-        <v>0.929</v>
-      </c>
-      <c r="AH69">
-        <v>0.101</v>
-      </c>
-      <c r="AI69">
-        <v>5.72</v>
-      </c>
-      <c r="AJ69">
-        <v>7.72</v>
       </c>
       <c r="AN69">
         <v>17.5</v>
@@ -7540,10 +7549,10 @@
         <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" t="s">
         <v>210</v>
@@ -7552,7 +7561,7 @@
         <v>216</v>
       </c>
       <c r="F70" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G70" t="s">
         <v>242</v>
@@ -7570,7 +7579,7 @@
         <v>277</v>
       </c>
       <c r="L70" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M70" t="s">
         <v>287</v>
@@ -7590,23 +7599,23 @@
       <c r="T70">
         <v>1.57</v>
       </c>
-      <c r="U70">
+      <c r="V70">
+        <v>161.5</v>
+      </c>
+      <c r="W70">
+        <v>203.7</v>
+      </c>
+      <c r="Z70">
+        <v>0.372</v>
+      </c>
+      <c r="AA70">
+        <v>0.065</v>
+      </c>
+      <c r="AD70">
         <v>7.63</v>
       </c>
-      <c r="V70">
+      <c r="AE70">
         <v>10.9</v>
-      </c>
-      <c r="Y70">
-        <v>161.5</v>
-      </c>
-      <c r="AD70">
-        <v>203.7</v>
-      </c>
-      <c r="AG70">
-        <v>0.372</v>
-      </c>
-      <c r="AH70">
-        <v>0.065</v>
       </c>
       <c r="AN70">
         <v>19.1</v>
@@ -7617,16 +7626,16 @@
         <v>161</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D71" t="s">
         <v>210</v>
       </c>
       <c r="E71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F71" t="s">
         <v>232</v>
@@ -7644,10 +7653,10 @@
         <v>260</v>
       </c>
       <c r="K71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M71" t="s">
         <v>289</v>
@@ -7674,37 +7683,37 @@
         <v>9.720000000000001</v>
       </c>
       <c r="U71">
+        <v>7.4</v>
+      </c>
+      <c r="V71">
+        <v>50.4</v>
+      </c>
+      <c r="W71">
+        <v>166</v>
+      </c>
+      <c r="X71">
+        <v>193.3</v>
+      </c>
+      <c r="Y71">
+        <v>50.9</v>
+      </c>
+      <c r="Z71">
+        <v>0.757</v>
+      </c>
+      <c r="AA71">
+        <v>0.147</v>
+      </c>
+      <c r="AB71">
+        <v>4.54</v>
+      </c>
+      <c r="AC71">
+        <v>6.19</v>
+      </c>
+      <c r="AD71">
         <v>5.42</v>
       </c>
-      <c r="W71">
+      <c r="AF71">
         <v>8.390000000000001</v>
-      </c>
-      <c r="X71">
-        <v>7.4</v>
-      </c>
-      <c r="Y71">
-        <v>50.4</v>
-      </c>
-      <c r="AD71">
-        <v>166</v>
-      </c>
-      <c r="AE71">
-        <v>193.3</v>
-      </c>
-      <c r="AF71">
-        <v>50.9</v>
-      </c>
-      <c r="AG71">
-        <v>0.757</v>
-      </c>
-      <c r="AH71">
-        <v>0.147</v>
-      </c>
-      <c r="AI71">
-        <v>4.54</v>
-      </c>
-      <c r="AJ71">
-        <v>6.19</v>
       </c>
       <c r="AN71">
         <v>14</v>
@@ -7715,10 +7724,10 @@
         <v>162</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D72" t="s">
         <v>210</v>
@@ -7727,13 +7736,13 @@
         <v>221</v>
       </c>
       <c r="F72" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G72" t="s">
         <v>242</v>
       </c>
       <c r="H72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I72" t="s">
         <v>256</v>
@@ -7742,7 +7751,7 @@
         <v>268</v>
       </c>
       <c r="K72" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L72" t="s">
         <v>277</v>
@@ -7753,14 +7762,14 @@
       <c r="T72">
         <v>2.84</v>
       </c>
-      <c r="U72">
+      <c r="V72">
+        <v>12.2</v>
+      </c>
+      <c r="AD72">
         <v>2.14</v>
       </c>
-      <c r="V72">
+      <c r="AE72">
         <v>0.621</v>
-      </c>
-      <c r="Y72">
-        <v>12.2</v>
       </c>
       <c r="AN72">
         <v>2.85</v>
@@ -7771,16 +7780,16 @@
         <v>163</v>
       </c>
       <c r="B73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D73" t="s">
         <v>210</v>
       </c>
       <c r="E73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F73" t="s">
         <v>232</v>
@@ -7798,10 +7807,10 @@
         <v>260</v>
       </c>
       <c r="K73" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L73" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M73" t="s">
         <v>284</v>
@@ -7828,37 +7837,37 @@
         <v>11.6</v>
       </c>
       <c r="U73">
+        <v>7.37</v>
+      </c>
+      <c r="V73">
+        <v>216.3</v>
+      </c>
+      <c r="W73">
+        <v>158</v>
+      </c>
+      <c r="X73">
+        <v>158.2</v>
+      </c>
+      <c r="Y73">
+        <v>25.7</v>
+      </c>
+      <c r="Z73">
+        <v>0.885</v>
+      </c>
+      <c r="AA73">
+        <v>0.226</v>
+      </c>
+      <c r="AB73">
+        <v>4.66</v>
+      </c>
+      <c r="AC73">
+        <v>6.18</v>
+      </c>
+      <c r="AD73">
         <v>8.93</v>
       </c>
-      <c r="W73">
+      <c r="AF73">
         <v>9.74</v>
-      </c>
-      <c r="X73">
-        <v>7.37</v>
-      </c>
-      <c r="Y73">
-        <v>216.3</v>
-      </c>
-      <c r="AD73">
-        <v>158</v>
-      </c>
-      <c r="AE73">
-        <v>158.2</v>
-      </c>
-      <c r="AF73">
-        <v>25.7</v>
-      </c>
-      <c r="AG73">
-        <v>0.885</v>
-      </c>
-      <c r="AH73">
-        <v>0.226</v>
-      </c>
-      <c r="AI73">
-        <v>4.66</v>
-      </c>
-      <c r="AJ73">
-        <v>6.18</v>
       </c>
       <c r="AN73">
         <v>14.5</v>
@@ -7869,10 +7878,10 @@
         <v>164</v>
       </c>
       <c r="B74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D74" t="s">
         <v>210</v>
@@ -7881,13 +7890,13 @@
         <v>222</v>
       </c>
       <c r="F74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G74" t="s">
         <v>244</v>
       </c>
       <c r="H74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I74" t="s">
         <v>256</v>
@@ -7896,7 +7905,7 @@
         <v>269</v>
       </c>
       <c r="K74" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L74" t="s">
         <v>277</v>
@@ -7919,29 +7928,29 @@
       <c r="T74">
         <v>0.6879999999999999</v>
       </c>
-      <c r="U74">
+      <c r="V74">
+        <v>148.5</v>
+      </c>
+      <c r="W74">
+        <v>0.091</v>
+      </c>
+      <c r="X74">
+        <v>10.7</v>
+      </c>
+      <c r="Y74">
+        <v>0.623</v>
+      </c>
+      <c r="Z74">
+        <v>1.37</v>
+      </c>
+      <c r="AA74">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="AD74">
         <v>5.6</v>
       </c>
-      <c r="V74">
+      <c r="AE74">
         <v>3.75</v>
-      </c>
-      <c r="Y74">
-        <v>148.5</v>
-      </c>
-      <c r="AD74">
-        <v>0.091</v>
-      </c>
-      <c r="AE74">
-        <v>10.7</v>
-      </c>
-      <c r="AF74">
-        <v>0.623</v>
-      </c>
-      <c r="AG74">
-        <v>1.37</v>
-      </c>
-      <c r="AH74">
-        <v>0.08400000000000001</v>
       </c>
       <c r="AN74">
         <v>12.7</v>
@@ -7952,10 +7961,10 @@
         <v>165</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D75" t="s">
         <v>210</v>
@@ -7970,7 +7979,7 @@
         <v>244</v>
       </c>
       <c r="H75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I75" t="s">
         <v>256</v>
@@ -7979,10 +7988,10 @@
         <v>270</v>
       </c>
       <c r="K75" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L75" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M75" t="s">
         <v>305</v>
@@ -8002,29 +8011,29 @@
       <c r="T75">
         <v>1.87</v>
       </c>
-      <c r="U75">
+      <c r="V75">
+        <v>110.3</v>
+      </c>
+      <c r="W75">
+        <v>0.016</v>
+      </c>
+      <c r="Z75">
+        <v>0.234</v>
+      </c>
+      <c r="AA75">
+        <v>0.041</v>
+      </c>
+      <c r="AD75">
         <v>5.45</v>
       </c>
-      <c r="V75">
+      <c r="AE75">
         <v>5.66</v>
       </c>
-      <c r="Y75">
-        <v>110.3</v>
-      </c>
-      <c r="Z75">
+      <c r="AG75">
         <v>0.028</v>
       </c>
-      <c r="AB75">
+      <c r="AI75">
         <v>0.028</v>
-      </c>
-      <c r="AD75">
-        <v>0.016</v>
-      </c>
-      <c r="AG75">
-        <v>0.234</v>
-      </c>
-      <c r="AH75">
-        <v>0.041</v>
       </c>
       <c r="AN75">
         <v>10.7</v>
@@ -8035,10 +8044,10 @@
         <v>166</v>
       </c>
       <c r="B76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D76" t="s">
         <v>210</v>
@@ -8053,7 +8062,7 @@
         <v>244</v>
       </c>
       <c r="H76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I76" t="s">
         <v>256</v>
@@ -8062,10 +8071,10 @@
         <v>271</v>
       </c>
       <c r="K76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M76" t="s">
         <v>305</v>
@@ -8085,35 +8094,35 @@
       <c r="T76">
         <v>2.62</v>
       </c>
-      <c r="U76">
+      <c r="V76">
+        <v>136.1</v>
+      </c>
+      <c r="W76">
+        <v>0.006</v>
+      </c>
+      <c r="Z76">
+        <v>0.876</v>
+      </c>
+      <c r="AA76">
+        <v>0.077</v>
+      </c>
+      <c r="AD76">
         <v>8.09</v>
       </c>
-      <c r="V76">
+      <c r="AE76">
         <v>7.91</v>
       </c>
-      <c r="Y76">
-        <v>136.1</v>
-      </c>
-      <c r="Z76">
+      <c r="AG76">
         <v>9.94</v>
       </c>
-      <c r="AA76">
+      <c r="AH76">
         <v>9.470000000000001</v>
       </c>
-      <c r="AB76">
+      <c r="AI76">
         <v>1.88</v>
       </c>
-      <c r="AC76">
+      <c r="AJ76">
         <v>1.87</v>
-      </c>
-      <c r="AD76">
-        <v>0.006</v>
-      </c>
-      <c r="AG76">
-        <v>0.876</v>
-      </c>
-      <c r="AH76">
-        <v>0.077</v>
       </c>
       <c r="AN76">
         <v>13.3</v>
@@ -8124,10 +8133,10 @@
         <v>167</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D77" t="s">
         <v>210</v>
@@ -8142,7 +8151,7 @@
         <v>244</v>
       </c>
       <c r="H77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I77" t="s">
         <v>256</v>
@@ -8151,10 +8160,10 @@
         <v>272</v>
       </c>
       <c r="K77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M77" t="s">
         <v>305</v>
@@ -8174,29 +8183,29 @@
       <c r="T77">
         <v>2.41</v>
       </c>
-      <c r="U77">
+      <c r="V77">
+        <v>129.9</v>
+      </c>
+      <c r="W77">
+        <v>0.066</v>
+      </c>
+      <c r="Z77">
+        <v>0.454</v>
+      </c>
+      <c r="AA77">
+        <v>0.03</v>
+      </c>
+      <c r="AD77">
         <v>6.97</v>
       </c>
-      <c r="V77">
+      <c r="AE77">
         <v>7.02</v>
       </c>
-      <c r="Y77">
-        <v>129.9</v>
-      </c>
-      <c r="Z77">
+      <c r="AG77">
         <v>0.028</v>
       </c>
-      <c r="AB77">
+      <c r="AI77">
         <v>0.028</v>
-      </c>
-      <c r="AD77">
-        <v>0.066</v>
-      </c>
-      <c r="AG77">
-        <v>0.454</v>
-      </c>
-      <c r="AH77">
-        <v>0.03</v>
       </c>
       <c r="AN77">
         <v>12.5</v>
@@ -8207,10 +8216,10 @@
         <v>168</v>
       </c>
       <c r="B78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C78" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D78" t="s">
         <v>210</v>
@@ -8219,13 +8228,13 @@
         <v>222</v>
       </c>
       <c r="F78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I78" t="s">
         <v>256</v>
@@ -8234,10 +8243,10 @@
         <v>269</v>
       </c>
       <c r="K78" t="s">
+        <v>276</v>
+      </c>
+      <c r="L78" t="s">
         <v>274</v>
-      </c>
-      <c r="L78" t="s">
-        <v>275</v>
       </c>
       <c r="M78" t="s">
         <v>304</v>
@@ -8254,35 +8263,35 @@
       <c r="Q78">
         <v>312.2</v>
       </c>
+      <c r="V78">
+        <v>163.9</v>
+      </c>
+      <c r="W78">
+        <v>0.011</v>
+      </c>
+      <c r="X78">
+        <v>19.8</v>
+      </c>
       <c r="Y78">
-        <v>163.9</v>
+        <v>6</v>
       </c>
       <c r="Z78">
+        <v>1.3</v>
+      </c>
+      <c r="AA78">
+        <v>0.175</v>
+      </c>
+      <c r="AG78">
         <v>4.26</v>
       </c>
-      <c r="AA78">
+      <c r="AH78">
         <v>3.48</v>
       </c>
-      <c r="AB78">
+      <c r="AI78">
         <v>0.604</v>
       </c>
-      <c r="AC78">
+      <c r="AJ78">
         <v>0.556</v>
-      </c>
-      <c r="AD78">
-        <v>0.011</v>
-      </c>
-      <c r="AE78">
-        <v>19.8</v>
-      </c>
-      <c r="AF78">
-        <v>6</v>
-      </c>
-      <c r="AG78">
-        <v>1.3</v>
-      </c>
-      <c r="AH78">
-        <v>0.175</v>
       </c>
     </row>
     <row r="79" spans="1:40">
@@ -8290,10 +8299,10 @@
         <v>169</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D79" t="s">
         <v>210</v>
@@ -8305,7 +8314,7 @@
         <v>237</v>
       </c>
       <c r="G79" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H79" t="s">
         <v>251</v>
@@ -8314,13 +8323,13 @@
         <v>255</v>
       </c>
       <c r="J79" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K79" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L79" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M79" t="s">
         <v>306</v>
@@ -8337,16 +8346,16 @@
       <c r="Q79">
         <v>96.3</v>
       </c>
-      <c r="Y79">
+      <c r="V79">
         <v>177.9</v>
       </c>
-      <c r="AD79">
+      <c r="W79">
         <v>88.8</v>
       </c>
-      <c r="AG79">
+      <c r="Z79">
         <v>3.04</v>
       </c>
-      <c r="AH79">
+      <c r="AA79">
         <v>0.508</v>
       </c>
     </row>
@@ -8355,10 +8364,10 @@
         <v>170</v>
       </c>
       <c r="B80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D80" t="s">
         <v>210</v>
@@ -8367,10 +8376,10 @@
         <v>225</v>
       </c>
       <c r="F80" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H80" t="s">
         <v>254</v>
@@ -8379,13 +8388,13 @@
         <v>259</v>
       </c>
       <c r="J80" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K80" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L80" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M80" t="s">
         <v>307</v>
@@ -8396,10 +8405,10 @@
         <v>171</v>
       </c>
       <c r="B81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D81" t="s">
         <v>210</v>
@@ -8411,22 +8420,22 @@
         <v>237</v>
       </c>
       <c r="G81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I81" t="s">
         <v>257</v>
       </c>
       <c r="J81" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K81" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L81" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M81" t="s">
         <v>308</v>
@@ -8443,16 +8452,16 @@
       <c r="Q81">
         <v>96.40000000000001</v>
       </c>
-      <c r="Y81">
+      <c r="V81">
         <v>113.8</v>
       </c>
-      <c r="AD81">
+      <c r="W81">
         <v>52.7</v>
       </c>
-      <c r="AG81">
+      <c r="Z81">
         <v>4.04</v>
       </c>
-      <c r="AH81">
+      <c r="AA81">
         <v>0.493</v>
       </c>
     </row>
@@ -8461,10 +8470,10 @@
         <v>172</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D82" t="s">
         <v>210</v>
@@ -8473,13 +8482,13 @@
         <v>221</v>
       </c>
       <c r="F82" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I82" t="s">
         <v>256</v>
@@ -8488,15 +8497,15 @@
         <v>268</v>
       </c>
       <c r="K82" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L82" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M82" t="s">
         <v>303</v>
       </c>
-      <c r="Y82">
+      <c r="V82">
         <v>39.2</v>
       </c>
     </row>
@@ -8505,10 +8514,10 @@
         <v>173</v>
       </c>
       <c r="B83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D83" t="s">
         <v>210</v>
@@ -8520,22 +8529,22 @@
         <v>237</v>
       </c>
       <c r="G83" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H83" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I83" t="s">
         <v>257</v>
       </c>
       <c r="J83" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K83" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L83" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M83" t="s">
         <v>309</v>
@@ -8552,16 +8561,16 @@
       <c r="Q83">
         <v>60.6</v>
       </c>
-      <c r="Y83">
+      <c r="V83">
         <v>4.88</v>
       </c>
-      <c r="AD83">
+      <c r="W83">
         <v>15.9</v>
       </c>
-      <c r="AG83">
+      <c r="Z83">
         <v>0.617</v>
       </c>
-      <c r="AH83">
+      <c r="AA83">
         <v>0.049</v>
       </c>
     </row>
@@ -8570,10 +8579,10 @@
         <v>174</v>
       </c>
       <c r="B84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D84" t="s">
         <v>210</v>
@@ -8585,7 +8594,7 @@
         <v>237</v>
       </c>
       <c r="G84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H84" t="s">
         <v>251</v>
@@ -8594,13 +8603,13 @@
         <v>255</v>
       </c>
       <c r="J84" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K84" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L84" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M84" t="s">
         <v>310</v>
@@ -8617,16 +8626,16 @@
       <c r="Q84">
         <v>42.3</v>
       </c>
-      <c r="Y84">
+      <c r="V84">
         <v>11</v>
       </c>
-      <c r="AD84">
+      <c r="W84">
         <v>27</v>
       </c>
-      <c r="AG84">
+      <c r="Z84">
         <v>0.5610000000000001</v>
       </c>
-      <c r="AH84">
+      <c r="AA84">
         <v>0.068</v>
       </c>
     </row>
@@ -8635,10 +8644,10 @@
         <v>175</v>
       </c>
       <c r="B85" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D85" t="s">
         <v>210</v>
@@ -8650,22 +8659,22 @@
         <v>237</v>
       </c>
       <c r="G85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I85" t="s">
         <v>256</v>
       </c>
       <c r="J85" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K85" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L85" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M85" t="s">
         <v>311</v>
@@ -8682,16 +8691,16 @@
       <c r="Q85">
         <v>73.09999999999999</v>
       </c>
-      <c r="Y85">
+      <c r="V85">
         <v>21.8</v>
       </c>
-      <c r="AD85">
+      <c r="W85">
         <v>0.003</v>
       </c>
-      <c r="AG85">
+      <c r="Z85">
         <v>0.536</v>
       </c>
-      <c r="AH85">
+      <c r="AA85">
         <v>0.119</v>
       </c>
     </row>
@@ -8700,10 +8709,10 @@
         <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D86" t="s">
         <v>210</v>
@@ -8715,22 +8724,22 @@
         <v>237</v>
       </c>
       <c r="G86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I86" t="s">
         <v>255</v>
       </c>
       <c r="J86" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K86" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L86" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M86" t="s">
         <v>312</v>
@@ -8747,16 +8756,16 @@
       <c r="Q86">
         <v>52.9</v>
       </c>
-      <c r="Y86">
+      <c r="V86">
         <v>54.5</v>
       </c>
-      <c r="AD86">
+      <c r="W86">
         <v>0.851</v>
       </c>
-      <c r="AG86">
+      <c r="Z86">
         <v>0.516</v>
       </c>
-      <c r="AH86">
+      <c r="AA86">
         <v>0.028</v>
       </c>
     </row>
@@ -8765,10 +8774,10 @@
         <v>177</v>
       </c>
       <c r="B87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D87" t="s">
         <v>210</v>
@@ -8780,7 +8789,7 @@
         <v>237</v>
       </c>
       <c r="G87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H87" t="s">
         <v>251</v>
@@ -8789,13 +8798,13 @@
         <v>257</v>
       </c>
       <c r="J87" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K87" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L87" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M87" t="s">
         <v>313</v>
@@ -8812,16 +8821,16 @@
       <c r="Q87">
         <v>64.5</v>
       </c>
-      <c r="Y87">
+      <c r="V87">
         <v>17</v>
       </c>
-      <c r="AD87">
+      <c r="W87">
         <v>0.957</v>
       </c>
-      <c r="AG87">
+      <c r="Z87">
         <v>0.5669999999999999</v>
       </c>
-      <c r="AH87">
+      <c r="AA87">
         <v>0.053</v>
       </c>
     </row>
@@ -8830,10 +8839,10 @@
         <v>178</v>
       </c>
       <c r="B88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D88" t="s">
         <v>210</v>
@@ -8845,10 +8854,10 @@
         <v>236</v>
       </c>
       <c r="G88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I88" t="s">
         <v>256</v>
@@ -8857,7 +8866,7 @@
         <v>270</v>
       </c>
       <c r="K88" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L88" t="s">
         <v>277</v>
@@ -8877,29 +8886,29 @@
       <c r="Q88">
         <v>1296.8</v>
       </c>
-      <c r="Y88">
+      <c r="V88">
         <v>122.8</v>
       </c>
+      <c r="W88">
+        <v>0.012</v>
+      </c>
       <c r="Z88">
+        <v>0.139</v>
+      </c>
+      <c r="AA88">
+        <v>0.032</v>
+      </c>
+      <c r="AG88">
         <v>6.98</v>
       </c>
-      <c r="AA88">
+      <c r="AH88">
         <v>6.89</v>
       </c>
-      <c r="AB88">
+      <c r="AI88">
         <v>0.925</v>
       </c>
-      <c r="AC88">
+      <c r="AJ88">
         <v>0.9389999999999999</v>
-      </c>
-      <c r="AD88">
-        <v>0.012</v>
-      </c>
-      <c r="AG88">
-        <v>0.139</v>
-      </c>
-      <c r="AH88">
-        <v>0.032</v>
       </c>
     </row>
     <row r="89" spans="1:36">
@@ -8907,10 +8916,10 @@
         <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D89" t="s">
         <v>210</v>
@@ -8922,10 +8931,10 @@
         <v>236</v>
       </c>
       <c r="G89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I89" t="s">
         <v>256</v>
@@ -8934,10 +8943,10 @@
         <v>271</v>
       </c>
       <c r="K89" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L89" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M89" t="s">
         <v>305</v>
@@ -8954,29 +8963,29 @@
       <c r="Q89">
         <v>1847.3</v>
       </c>
-      <c r="Y89">
+      <c r="V89">
         <v>144.5</v>
       </c>
+      <c r="W89">
+        <v>0.006</v>
+      </c>
       <c r="Z89">
+        <v>0.658</v>
+      </c>
+      <c r="AA89">
+        <v>0.053</v>
+      </c>
+      <c r="AG89">
         <v>10.4</v>
       </c>
-      <c r="AA89">
+      <c r="AH89">
         <v>9.699999999999999</v>
       </c>
-      <c r="AB89">
+      <c r="AI89">
         <v>1.61</v>
       </c>
-      <c r="AC89">
+      <c r="AJ89">
         <v>1.55</v>
-      </c>
-      <c r="AD89">
-        <v>0.006</v>
-      </c>
-      <c r="AG89">
-        <v>0.658</v>
-      </c>
-      <c r="AH89">
-        <v>0.053</v>
       </c>
     </row>
     <row r="90" spans="1:36">
@@ -8984,10 +8993,10 @@
         <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D90" t="s">
         <v>210</v>
@@ -8999,10 +9008,10 @@
         <v>236</v>
       </c>
       <c r="G90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H90" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I90" t="s">
         <v>256</v>
@@ -9011,10 +9020,10 @@
         <v>272</v>
       </c>
       <c r="K90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M90" t="s">
         <v>305</v>
@@ -9031,29 +9040,29 @@
       <c r="Q90">
         <v>1589.8</v>
       </c>
-      <c r="Y90">
+      <c r="V90">
         <v>142.7</v>
       </c>
+      <c r="W90">
+        <v>0.094</v>
+      </c>
       <c r="Z90">
+        <v>0.369</v>
+      </c>
+      <c r="AA90">
+        <v>0.034</v>
+      </c>
+      <c r="AG90">
         <v>8.74</v>
       </c>
-      <c r="AA90">
+      <c r="AH90">
         <v>8.42</v>
       </c>
-      <c r="AB90">
+      <c r="AI90">
         <v>0.768</v>
       </c>
-      <c r="AC90">
+      <c r="AJ90">
         <v>0.895</v>
-      </c>
-      <c r="AD90">
-        <v>0.094</v>
-      </c>
-      <c r="AG90">
-        <v>0.369</v>
-      </c>
-      <c r="AH90">
-        <v>0.034</v>
       </c>
     </row>
     <row r="91" spans="1:36">
@@ -9061,10 +9070,10 @@
         <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D91" t="s">
         <v>210</v>
@@ -9076,10 +9085,10 @@
         <v>236</v>
       </c>
       <c r="G91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H91" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I91" t="s">
         <v>256</v>
@@ -9088,7 +9097,7 @@
         <v>270</v>
       </c>
       <c r="K91" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L91" t="s">
         <v>277</v>
@@ -9108,29 +9117,29 @@
       <c r="Q91">
         <v>1258.3</v>
       </c>
-      <c r="Y91">
+      <c r="V91">
         <v>128.4</v>
       </c>
+      <c r="W91">
+        <v>2.67</v>
+      </c>
       <c r="Z91">
+        <v>0.508</v>
+      </c>
+      <c r="AA91">
+        <v>0.048</v>
+      </c>
+      <c r="AG91">
         <v>6.98</v>
       </c>
-      <c r="AA91">
+      <c r="AH91">
         <v>6.79</v>
       </c>
-      <c r="AB91">
+      <c r="AI91">
         <v>0.108</v>
       </c>
-      <c r="AC91">
+      <c r="AJ91">
         <v>0.06900000000000001</v>
-      </c>
-      <c r="AD91">
-        <v>2.67</v>
-      </c>
-      <c r="AG91">
-        <v>0.508</v>
-      </c>
-      <c r="AH91">
-        <v>0.048</v>
       </c>
     </row>
     <row r="92" spans="1:36">
@@ -9138,25 +9147,25 @@
         <v>182</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D92" t="s">
         <v>210</v>
       </c>
       <c r="E92" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I92" t="s">
         <v>255</v>
@@ -9165,13 +9174,13 @@
         <v>260</v>
       </c>
       <c r="K92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N92">
         <v>17.3</v>
@@ -9192,40 +9201,40 @@
         <v>56.6</v>
       </c>
       <c r="U92">
+        <v>15.4</v>
+      </c>
+      <c r="V92">
+        <v>354.5</v>
+      </c>
+      <c r="W92">
+        <v>136.4</v>
+      </c>
+      <c r="X92">
+        <v>201.8</v>
+      </c>
+      <c r="Y92">
+        <v>27.7</v>
+      </c>
+      <c r="Z92">
+        <v>1.77</v>
+      </c>
+      <c r="AA92">
+        <v>0.303</v>
+      </c>
+      <c r="AB92">
+        <v>11.3</v>
+      </c>
+      <c r="AC92">
+        <v>13.6</v>
+      </c>
+      <c r="AD92">
         <v>14.5</v>
       </c>
-      <c r="V92">
+      <c r="AE92">
         <v>9.630000000000001</v>
       </c>
-      <c r="W92">
+      <c r="AF92">
         <v>15.1</v>
-      </c>
-      <c r="X92">
-        <v>15.4</v>
-      </c>
-      <c r="Y92">
-        <v>354.5</v>
-      </c>
-      <c r="AD92">
-        <v>136.4</v>
-      </c>
-      <c r="AE92">
-        <v>201.8</v>
-      </c>
-      <c r="AF92">
-        <v>27.7</v>
-      </c>
-      <c r="AG92">
-        <v>1.77</v>
-      </c>
-      <c r="AH92">
-        <v>0.303</v>
-      </c>
-      <c r="AI92">
-        <v>11.3</v>
-      </c>
-      <c r="AJ92">
-        <v>13.6</v>
       </c>
     </row>
     <row r="93" spans="1:36">
@@ -9233,10 +9242,10 @@
         <v>183</v>
       </c>
       <c r="B93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D93" t="s">
         <v>210</v>
@@ -9248,10 +9257,10 @@
         <v>236</v>
       </c>
       <c r="G93" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H93" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I93" t="s">
         <v>256</v>
@@ -9260,10 +9269,10 @@
         <v>271</v>
       </c>
       <c r="K93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M93" t="s">
         <v>305</v>
@@ -9280,29 +9289,29 @@
       <c r="Q93">
         <v>1773.7</v>
       </c>
-      <c r="Y93">
+      <c r="V93">
         <v>156.1</v>
       </c>
+      <c r="W93">
+        <v>0.006</v>
+      </c>
       <c r="Z93">
+        <v>0.887</v>
+      </c>
+      <c r="AA93">
+        <v>0.053</v>
+      </c>
+      <c r="AG93">
         <v>10.2</v>
       </c>
-      <c r="AA93">
+      <c r="AH93">
         <v>9.52</v>
       </c>
-      <c r="AB93">
+      <c r="AI93">
         <v>1.17</v>
       </c>
-      <c r="AC93">
+      <c r="AJ93">
         <v>1.32</v>
-      </c>
-      <c r="AD93">
-        <v>0.006</v>
-      </c>
-      <c r="AG93">
-        <v>0.887</v>
-      </c>
-      <c r="AH93">
-        <v>0.053</v>
       </c>
     </row>
     <row r="94" spans="1:36">
@@ -9310,10 +9319,10 @@
         <v>184</v>
       </c>
       <c r="B94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D94" t="s">
         <v>210</v>
@@ -9325,10 +9334,10 @@
         <v>236</v>
       </c>
       <c r="G94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H94" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I94" t="s">
         <v>256</v>
@@ -9337,10 +9346,10 @@
         <v>272</v>
       </c>
       <c r="K94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M94" t="s">
         <v>305</v>
@@ -9357,29 +9366,29 @@
       <c r="Q94">
         <v>1576.3</v>
       </c>
-      <c r="Y94">
+      <c r="V94">
         <v>150.7</v>
       </c>
+      <c r="W94">
+        <v>0.59</v>
+      </c>
       <c r="Z94">
+        <v>0.797</v>
+      </c>
+      <c r="AA94">
+        <v>0.068</v>
+      </c>
+      <c r="AG94">
         <v>8.68</v>
       </c>
-      <c r="AA94">
+      <c r="AH94">
         <v>8.449999999999999</v>
       </c>
-      <c r="AB94">
+      <c r="AI94">
         <v>0.61</v>
       </c>
-      <c r="AC94">
+      <c r="AJ94">
         <v>0.828</v>
-      </c>
-      <c r="AD94">
-        <v>0.59</v>
-      </c>
-      <c r="AG94">
-        <v>0.797</v>
-      </c>
-      <c r="AH94">
-        <v>0.068</v>
       </c>
     </row>
     <row r="95" spans="1:36">
@@ -9387,22 +9396,22 @@
         <v>185</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F95" t="s">
         <v>232</v>
       </c>
       <c r="G95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H95" t="s">
         <v>251</v>
@@ -9414,7 +9423,7 @@
         <v>260</v>
       </c>
       <c r="K95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L95" t="s">
         <v>277</v>
@@ -9440,31 +9449,31 @@
       <c r="S95">
         <v>38.6</v>
       </c>
+      <c r="U95">
+        <v>5.95</v>
+      </c>
+      <c r="V95">
+        <v>252</v>
+      </c>
+      <c r="W95">
+        <v>170</v>
+      </c>
       <c r="X95">
-        <v>5.95</v>
+        <v>134.8</v>
       </c>
       <c r="Y95">
-        <v>252</v>
-      </c>
-      <c r="AD95">
-        <v>170</v>
-      </c>
-      <c r="AE95">
-        <v>134.8</v>
-      </c>
-      <c r="AF95">
         <v>21.4</v>
       </c>
-      <c r="AG95">
+      <c r="Z95">
         <v>0.12</v>
       </c>
-      <c r="AH95">
+      <c r="AA95">
         <v>0.115</v>
       </c>
-      <c r="AI95">
+      <c r="AB95">
         <v>4.32</v>
       </c>
-      <c r="AJ95">
+      <c r="AC95">
         <v>6.6</v>
       </c>
     </row>
@@ -9473,25 +9482,25 @@
         <v>186</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D96" t="s">
         <v>210</v>
       </c>
       <c r="E96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F96" t="s">
         <v>232</v>
       </c>
       <c r="G96" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I96" t="s">
         <v>256</v>
@@ -9500,10 +9509,10 @@
         <v>267</v>
       </c>
       <c r="K96" t="s">
+        <v>276</v>
+      </c>
+      <c r="L96" t="s">
         <v>274</v>
-      </c>
-      <c r="L96" t="s">
-        <v>275</v>
       </c>
       <c r="M96" t="s">
         <v>297</v>
@@ -9529,31 +9538,31 @@
       <c r="T96">
         <v>1.42</v>
       </c>
+      <c r="U96">
+        <v>4.95</v>
+      </c>
+      <c r="V96">
+        <v>165.5</v>
+      </c>
+      <c r="W96">
+        <v>63.8</v>
+      </c>
       <c r="X96">
-        <v>4.95</v>
+        <v>102.1</v>
       </c>
       <c r="Y96">
-        <v>165.5</v>
-      </c>
-      <c r="AD96">
-        <v>63.8</v>
-      </c>
-      <c r="AE96">
-        <v>102.1</v>
-      </c>
-      <c r="AF96">
         <v>9.130000000000001</v>
       </c>
-      <c r="AG96">
+      <c r="Z96">
         <v>1.01</v>
       </c>
-      <c r="AH96">
+      <c r="AA96">
         <v>0.13</v>
       </c>
-      <c r="AI96">
+      <c r="AB96">
         <v>3.9</v>
       </c>
-      <c r="AJ96">
+      <c r="AC96">
         <v>5.3</v>
       </c>
     </row>
@@ -9562,13 +9571,13 @@
         <v>187</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D97" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E97" t="s">
         <v>228</v>
@@ -9577,22 +9586,22 @@
         <v>237</v>
       </c>
       <c r="G97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H97" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I97" t="s">
         <v>256</v>
       </c>
       <c r="J97" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K97" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L97" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M97" t="s">
         <v>311</v>
@@ -9609,10 +9618,10 @@
       <c r="Q97">
         <v>584.8</v>
       </c>
-      <c r="Y97">
+      <c r="V97">
         <v>152.2</v>
       </c>
-      <c r="AD97">
+      <c r="W97">
         <v>88.59999999999999</v>
       </c>
     </row>
@@ -9621,13 +9630,13 @@
         <v>188</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D98" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E98" t="s">
         <v>228</v>
@@ -9636,22 +9645,22 @@
         <v>237</v>
       </c>
       <c r="G98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I98" t="s">
         <v>255</v>
       </c>
       <c r="J98" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K98" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L98" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M98" t="s">
         <v>312</v>
@@ -9668,10 +9677,10 @@
       <c r="Q98">
         <v>347</v>
       </c>
-      <c r="Y98">
+      <c r="V98">
         <v>120</v>
       </c>
-      <c r="AD98">
+      <c r="W98">
         <v>48.6</v>
       </c>
     </row>
@@ -9692,7 +9701,7 @@
         <v>216</v>
       </c>
       <c r="F99" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G99" t="s">
         <v>245</v>
@@ -9707,7 +9716,7 @@
         <v>273</v>
       </c>
       <c r="K99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L99" t="s">
         <v>278</v>
@@ -9778,7 +9787,7 @@
         <v>216</v>
       </c>
       <c r="F100" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G100" t="s">
         <v>246</v>
@@ -9793,10 +9802,10 @@
         <v>273</v>
       </c>
       <c r="K100" t="s">
+        <v>276</v>
+      </c>
+      <c r="L100" t="s">
         <v>274</v>
-      </c>
-      <c r="L100" t="s">
-        <v>275</v>
       </c>
       <c r="M100" t="s">
         <v>287</v>
@@ -9882,25 +9891,25 @@
         <v>191</v>
       </c>
       <c r="B101" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C101" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D101" t="s">
         <v>210</v>
       </c>
       <c r="E101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G101" t="s">
         <v>247</v>
       </c>
       <c r="H101" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I101" t="s">
         <v>255</v>
@@ -9909,7 +9918,7 @@
         <v>260</v>
       </c>
       <c r="K101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L101" t="s">
         <v>277</v>
@@ -9935,31 +9944,31 @@
       <c r="S101">
         <v>65.2</v>
       </c>
+      <c r="U101">
+        <v>18.8</v>
+      </c>
+      <c r="V101">
+        <v>279.7</v>
+      </c>
+      <c r="W101">
+        <v>160.4</v>
+      </c>
       <c r="X101">
-        <v>18.8</v>
+        <v>252.3</v>
       </c>
       <c r="Y101">
-        <v>279.7</v>
-      </c>
-      <c r="AD101">
-        <v>160.4</v>
-      </c>
-      <c r="AE101">
-        <v>252.3</v>
-      </c>
-      <c r="AF101">
         <v>17.3</v>
       </c>
-      <c r="AG101">
+      <c r="Z101">
         <v>1.92</v>
       </c>
-      <c r="AH101">
+      <c r="AA101">
         <v>0.649</v>
       </c>
-      <c r="AI101">
+      <c r="AB101">
         <v>11.9</v>
       </c>
-      <c r="AJ101">
+      <c r="AC101">
         <v>13.3</v>
       </c>
     </row>
@@ -9980,7 +9989,7 @@
         <v>216</v>
       </c>
       <c r="F102" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G102" t="s">
         <v>246</v>
@@ -9995,10 +10004,10 @@
         <v>273</v>
       </c>
       <c r="K102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M102" t="s">
         <v>287</v>
@@ -10089,7 +10098,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10112,7 +10121,7 @@
         <v>316</v>
       </c>
       <c r="B2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10120,7 +10129,7 @@
         <v>317</v>
       </c>
       <c r="B3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10128,7 +10137,7 @@
         <v>318</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10136,7 +10145,7 @@
         <v>319</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10144,7 +10153,7 @@
         <v>320</v>
       </c>
       <c r="B6" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10152,7 +10161,7 @@
         <v>321</v>
       </c>
       <c r="B7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10160,7 +10169,7 @@
         <v>322</v>
       </c>
       <c r="B8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10168,7 +10177,7 @@
         <v>323</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10176,7 +10185,7 @@
         <v>324</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10184,7 +10193,7 @@
         <v>325</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10192,7 +10201,7 @@
         <v>326</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10200,7 +10209,7 @@
         <v>327</v>
       </c>
       <c r="B13" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10208,7 +10217,7 @@
         <v>328</v>
       </c>
       <c r="B14" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10216,7 +10225,7 @@
         <v>329</v>
       </c>
       <c r="B15" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10224,7 +10233,7 @@
         <v>330</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10232,7 +10241,7 @@
         <v>331</v>
       </c>
       <c r="B17" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -10240,7 +10249,7 @@
         <v>332</v>
       </c>
       <c r="B18" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -10248,7 +10257,7 @@
         <v>333</v>
       </c>
       <c r="B19" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -10256,7 +10265,7 @@
         <v>334</v>
       </c>
       <c r="B20" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -10264,7 +10273,7 @@
         <v>335</v>
       </c>
       <c r="B21" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -10272,7 +10281,7 @@
         <v>336</v>
       </c>
       <c r="B22" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -10280,7 +10289,7 @@
         <v>337</v>
       </c>
       <c r="B23" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -10288,7 +10297,7 @@
         <v>338</v>
       </c>
       <c r="B24" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -10296,7 +10305,7 @@
         <v>339</v>
       </c>
       <c r="B25" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -10304,7 +10313,7 @@
         <v>340</v>
       </c>
       <c r="B26" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -10312,7 +10321,7 @@
         <v>341</v>
       </c>
       <c r="B27" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -10320,7 +10329,7 @@
         <v>342</v>
       </c>
       <c r="B28" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -10328,7 +10337,7 @@
         <v>343</v>
       </c>
       <c r="B29" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -10336,7 +10345,7 @@
         <v>344</v>
       </c>
       <c r="B30" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -10344,7 +10353,7 @@
         <v>345</v>
       </c>
       <c r="B31" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -10352,7 +10361,7 @@
         <v>346</v>
       </c>
       <c r="B32" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -10360,7 +10369,7 @@
         <v>347</v>
       </c>
       <c r="B33" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -10368,7 +10377,7 @@
         <v>348</v>
       </c>
       <c r="B34" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -10376,7 +10385,7 @@
         <v>349</v>
       </c>
       <c r="B35" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -10384,7 +10393,7 @@
         <v>350</v>
       </c>
       <c r="B36" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -10392,7 +10401,7 @@
         <v>351</v>
       </c>
       <c r="B37" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -10400,7 +10409,7 @@
         <v>352</v>
       </c>
       <c r="B38" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -10408,7 +10417,7 @@
         <v>353</v>
       </c>
       <c r="B39" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -10416,7 +10425,7 @@
         <v>354</v>
       </c>
       <c r="B40" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -10424,7 +10433,7 @@
         <v>355</v>
       </c>
       <c r="B41" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -10432,7 +10441,7 @@
         <v>356</v>
       </c>
       <c r="B42" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -10440,7 +10449,7 @@
         <v>357</v>
       </c>
       <c r="B43" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -10448,7 +10457,7 @@
         <v>358</v>
       </c>
       <c r="B44" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -10456,7 +10465,7 @@
         <v>359</v>
       </c>
       <c r="B45" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -10464,7 +10473,7 @@
         <v>360</v>
       </c>
       <c r="B46" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -10472,7 +10481,7 @@
         <v>361</v>
       </c>
       <c r="B47" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -10480,7 +10489,7 @@
         <v>362</v>
       </c>
       <c r="B48" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -10488,7 +10497,7 @@
         <v>363</v>
       </c>
       <c r="B49" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -10496,7 +10505,7 @@
         <v>364</v>
       </c>
       <c r="B50" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -10504,7 +10513,7 @@
         <v>365</v>
       </c>
       <c r="B51" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -10512,7 +10521,7 @@
         <v>366</v>
       </c>
       <c r="B52" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -10520,7 +10529,7 @@
         <v>367</v>
       </c>
       <c r="B53" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -10528,7 +10537,7 @@
         <v>368</v>
       </c>
       <c r="B54" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -10536,7 +10545,7 @@
         <v>369</v>
       </c>
       <c r="B55" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -10544,7 +10553,7 @@
         <v>370</v>
       </c>
       <c r="B56" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -10552,7 +10561,7 @@
         <v>371</v>
       </c>
       <c r="B57" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -10560,7 +10569,7 @@
         <v>372</v>
       </c>
       <c r="B58" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -10568,7 +10577,7 @@
         <v>373</v>
       </c>
       <c r="B59" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -10576,7 +10585,7 @@
         <v>374</v>
       </c>
       <c r="B60" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -10584,7 +10593,7 @@
         <v>375</v>
       </c>
       <c r="B61" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -10592,7 +10601,7 @@
         <v>376</v>
       </c>
       <c r="B62" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -10600,7 +10609,7 @@
         <v>377</v>
       </c>
       <c r="B63" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -10608,7 +10617,7 @@
         <v>378</v>
       </c>
       <c r="B64" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -10616,7 +10625,7 @@
         <v>379</v>
       </c>
       <c r="B65" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -10624,7 +10633,7 @@
         <v>380</v>
       </c>
       <c r="B66" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -10632,7 +10641,7 @@
         <v>381</v>
       </c>
       <c r="B67" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -10640,7 +10649,7 @@
         <v>382</v>
       </c>
       <c r="B68" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -10648,7 +10657,7 @@
         <v>383</v>
       </c>
       <c r="B69" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -10656,6 +10665,30 @@
         <v>384</v>
       </c>
       <c r="B70" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>385</v>
+      </c>
+      <c r="B71" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>386</v>
+      </c>
+      <c r="B72" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>387</v>
+      </c>
+      <c r="B73" t="s">
         <v>388</v>
       </c>
     </row>
